--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,25 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/workspaces/python/copt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07DA29B-29AA-4A46-9C0A-F344D4FC2D6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FC2273-B8E0-004B-9D3F-0D7950F8201F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14660" xr2:uid="{52A98BD8-4E11-A341-8E33-FFC30D64FA33}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" activeTab="2" xr2:uid="{52A98BD8-4E11-A341-8E33-FFC30D64FA33}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
     <sheet name="case-value-duration" sheetId="2" r:id="rId2"/>
+    <sheet name="case-value-duration-with_RL" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'case-value-duration'!$C$10:$P$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'case-value-duration'!$C$11:$P$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'case-value-duration'!$C$12:$P$12</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'case-value-duration'!$C$9:$P$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'case-value-duration'!$C$10:$P$10</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'case-value-duration'!$C$11:$P$11</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'case-value-duration'!$C$12:$P$12</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'case-value-duration'!$C$9:$P$9</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
   <si>
     <t>case2</t>
   </si>
@@ -178,6 +170,63 @@
   <si>
     <t>VERY-HIGH</t>
   </si>
+  <si>
+    <t>ph1</t>
+  </si>
+  <si>
+    <t>ph2</t>
+  </si>
+  <si>
+    <t>case 1</t>
+  </si>
+  <si>
+    <t>case 2</t>
+  </si>
+  <si>
+    <t>case 3</t>
+  </si>
+  <si>
+    <t>case 4</t>
+  </si>
+  <si>
+    <t>case 5</t>
+  </si>
+  <si>
+    <t>case 6</t>
+  </si>
+  <si>
+    <t>case 7</t>
+  </si>
+  <si>
+    <t>case 8</t>
+  </si>
+  <si>
+    <t>case 9</t>
+  </si>
+  <si>
+    <t>case 10</t>
+  </si>
+  <si>
+    <t>case 11</t>
+  </si>
+  <si>
+    <t>GREEDY HEURISTIC</t>
+  </si>
+  <si>
+    <t>LP_REL GREEDY HEURISTIC</t>
+  </si>
+  <si>
+    <t>ph1-vd%</t>
+  </si>
+  <si>
+    <t>ph2-vd%</t>
+  </si>
+  <si>
+    <t>ph1-dur</t>
+  </si>
+  <si>
+    <t>ph2-dur</t>
+  </si>
 </sst>
 </file>
 
@@ -186,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,6 +252,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -253,14 +309,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,6 +322,29 @@
     <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1324,6 +1397,1313 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Value Diff %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case-value-duration-with_RL'!$A$14:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>GREEDY HEURISTIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ph1-vd%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'case-value-duration-with_RL'!$C$14:$X$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28527957398250287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6421027072963456E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0101272646758694</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37049121158992121</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32912008246667857</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.020697822329222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.42935501588230851</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C80-1248-B57E-76E4326288E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case-value-duration-with_RL'!$A$15:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>GREEDY HEURISTIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ph2-vd%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'case-value-duration-with_RL'!$C$15:$X$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>68.331021729079978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.049393414211437</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.226321795359453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.312591883483194</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.802294524705598</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.726082519879085</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72.295384277070056</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.68695432266766</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.760198686608163</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.044873585094315</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.856111963608743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C80-1248-B57E-76E4326288E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case-value-duration-with_RL'!$A$17:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LP_REL GREEDY HEURISTIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ph1-vd%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'case-value-duration-with_RL'!$C$17:$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27955871310575869</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2097890644945304E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C80-1248-B57E-76E4326288E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case-value-duration-with_RL'!$A$18:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LP_REL GREEDY HEURISTIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ph2-vd%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'case-value-duration-with_RL'!$C$18:$X$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.694295230943992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4923349269620298E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.7500926709926138E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8182231922134071E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9162718628144977E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3C80-1248-B57E-76E4326288E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="997187504"/>
+        <c:axId val="994348384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="997187504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="994348384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="994348384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="997187504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case-value-duration-with_RL'!$A$20:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>GREEDY HEURISTIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ph1-dur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'case-value-duration-with_RL'!$C$20:$X$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4004000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2480000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.548</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.2685</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.986699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.765600000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>214.1147</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>146.66749999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1119.5581999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3110.0770000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C24B-FD47-81FD-D02417CA6B73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case-value-duration-with_RL'!$A$21:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>GREEDY HEURISTIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ph2-dur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'case-value-duration-with_RL'!$C$21:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.41760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2747999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.8955</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.595099999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.031700000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.409499999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>101.9019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100.63849999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>502.66250000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>949.01239999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C24B-FD47-81FD-D02417CA6B73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case-value-duration-with_RL'!$A$23:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LP_REL GREEDY HEURISTIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ph1-dur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'case-value-duration-with_RL'!$C$23:$X$23</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.7109000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1773999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0217999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.732300000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.835999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>216.99979999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>239.67930000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>355.51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>408.69720000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1723.3974000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4375.9088000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C24B-FD47-81FD-D02417CA6B73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case-value-duration-with_RL'!$A$24:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LP_REL GREEDY HEURISTIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ph2-dur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'case-value-duration-with_RL'!$C$24:$X$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2.1263000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3170999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0927000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.798900000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.647000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>264.70929999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>306.41160000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>440.51830000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524.71289999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2735.4942999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6280.2394000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C24B-FD47-81FD-D02417CA6B73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case-value-duration-with_RL'!$A$26:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CPLEX_MIP SOLVER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ph1-dur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'case-value-duration-with_RL'!$C$26:$X$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0" formatCode="#,##0.00">
+                  <c:v>1.7273000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>4.1628999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.00">
+                  <c:v>6.8209</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.00">
+                  <c:v>41.4071</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>78.743700000000004</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0.00">
+                  <c:v>170.92840000000001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0.00">
+                  <c:v>241.78319999999999</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0.00">
+                  <c:v>349.49630000000002</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0.00">
+                  <c:v>481.68459999999999</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0.00">
+                  <c:v>1737.4111</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0.00">
+                  <c:v>4137.1850000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C24B-FD47-81FD-D02417CA6B73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case-value-duration-with_RL'!$A$27:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CPLEX_MIP SOLVER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ph2-dur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'case-value-duration-with_RL'!$C$27:$X$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0" formatCode="#,##0.00">
+                  <c:v>2.1082000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>5.2069000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.00">
+                  <c:v>8.9001999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.00">
+                  <c:v>53.0306</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00">
+                  <c:v>100.505</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0.00">
+                  <c:v>232.1129</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0.00">
+                  <c:v>315.72129999999999</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0.00">
+                  <c:v>562.97770000000003</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0.00">
+                  <c:v>574.70550000000003</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0.00">
+                  <c:v>2568.6952000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0.00">
+                  <c:v>5800.5664999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C24B-FD47-81FD-D02417CA6B73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="941429120"/>
+        <c:axId val="941247488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="941429120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="941247488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="941247488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="941429120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1404,6 +2784,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2057,6 +3517,1038 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2467,6 +4959,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D6B760-F650-F34B-A084-89A4C6E29C4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BDB6AC7-FA6C-9748-B52D-684B3CE4DFC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38106</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED458442-FE4B-0F4D-B11F-34598BC37D7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2786,7 +5355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EEADE2-A9B3-674B-BA9B-72229A521D77}">
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2815,405 +5384,405 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>100</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>3</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>7</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <f>F3*E3*D3*C3</f>
         <v>4200</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>5</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>100</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>3</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>7</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <f t="shared" ref="G4:G18" si="0">F4*E4*D4*C4</f>
         <v>10500</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>5</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>200</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>3</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>7</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
         <v>21000</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>5</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>1000</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>3</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>7</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
         <v>105000</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>1000</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>7</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>210000</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>10</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>2000</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>3</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>7</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>420000</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>10</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>3000</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>3</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>7</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>630000</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>10</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>4000</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>3</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>7</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>840000</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>10</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>5000</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>3</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>7</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>1050000</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>20</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>10000</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>7</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>4200000</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>20</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>20000</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>3</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>7</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>8400000</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>20</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>30000</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>7</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>12600000</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>20</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>40000</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>3</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>7</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>16800000</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>20</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>50000</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>3</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <v>7</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>21000000</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>60</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>70000000</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>7</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <f t="shared" si="0"/>
         <v>29400000000</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3228,7 +5797,7 @@
   <dimension ref="A2:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P12"/>
+      <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3281,10 +5850,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3">
@@ -3331,8 +5900,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4">
@@ -3379,10 +5948,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5">
@@ -3429,8 +5998,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6">
@@ -3477,10 +6046,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7">
@@ -3527,8 +6096,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8">
@@ -3575,171 +6144,174 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2">
-        <f>100*((C4-C6)/C4)</f>
+      <c r="C9" s="15">
+        <f t="shared" ref="C9:P9" si="0">100*((C4-C6)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="2">
-        <f>100*((D4-D6)/D4)</f>
+      <c r="D9" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="2">
-        <f>100*((E4-E6)/E4)</f>
+      <c r="E9" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2">
-        <f>100*((F4-F6)/F4)</f>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="2">
-        <f>100*((G4-G6)/G4)</f>
+      <c r="G9" s="15">
+        <f t="shared" si="0"/>
         <v>0.28331679676410071</v>
       </c>
-      <c r="H9" s="2">
-        <f>100*((H4-H6)/H4)</f>
+      <c r="H9" s="15">
+        <f t="shared" si="0"/>
         <v>6.6721378395387205</v>
       </c>
-      <c r="I9" s="2">
-        <f>100*((I4-I6)/I4)</f>
+      <c r="I9" s="15">
+        <f t="shared" si="0"/>
         <v>1.4825105598988066E-2</v>
       </c>
-      <c r="J9" s="2">
-        <f>100*((J4-J6)/J4)</f>
+      <c r="J9" s="15">
+        <f t="shared" si="0"/>
         <v>0.21084435931048381</v>
       </c>
-      <c r="K9" s="2">
-        <f>100*((K4-K6)/K4)</f>
+      <c r="K9" s="15">
+        <f t="shared" si="0"/>
         <v>0.12111948505301814</v>
       </c>
-      <c r="L9" s="2">
-        <f>100*((L4-L6)/L4)</f>
+      <c r="L9" s="15">
+        <f t="shared" si="0"/>
         <v>4.0020902606961082</v>
       </c>
-      <c r="M9" s="2">
-        <f>100*((M4-M6)/M4)</f>
+      <c r="M9" s="15">
+        <f t="shared" si="0"/>
         <v>8.8497113987194301E-2</v>
       </c>
-      <c r="N9" s="2">
-        <f>100*((N4-N6)/N4)</f>
+      <c r="N9" s="15">
+        <f t="shared" si="0"/>
         <v>16.735867692541735</v>
       </c>
-      <c r="O9" s="2">
-        <f>100*((O4-O6)/O4)</f>
+      <c r="O9" s="15">
+        <f t="shared" si="0"/>
         <v>2.5065027300464802E-2</v>
       </c>
-      <c r="P9" s="2">
-        <f>100*((P4-P6)/P4)</f>
+      <c r="P9" s="15">
+        <f t="shared" si="0"/>
         <v>2.4661736476073174E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2">
-        <f>100*((C4-C8)/C4)</f>
+      <c r="C11" s="15">
+        <f t="shared" ref="C11:P11" si="1">100*((C4-C8)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="2">
-        <f>100*((D4-D8)/D4)</f>
+      <c r="D11" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="2">
-        <f>100*((E4-E8)/E4)</f>
+      <c r="E11" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="2">
-        <f>100*((F4-F8)/F4)</f>
+      <c r="F11" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="2">
-        <f>100*((G4-G8)/G4)</f>
+      <c r="G11" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="2">
-        <f>100*((H4-H8)/H4)</f>
+      <c r="H11" s="15">
+        <f t="shared" si="1"/>
         <v>1.0851631997006446</v>
       </c>
-      <c r="I11" s="2">
-        <f>100*((I4-I8)/I4)</f>
+      <c r="I11" s="15">
+        <f t="shared" si="1"/>
         <v>2.3672346037093849E-2</v>
       </c>
-      <c r="J11" s="2">
-        <f>100*((J4-J8)/J4)</f>
+      <c r="J11" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="2">
-        <f>100*((K4-K8)/K4)</f>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="2">
-        <f>100*((L4-L8)/L4)</f>
+      <c r="L11" s="15">
+        <f t="shared" si="1"/>
         <v>2.3495459874602515E-2</v>
       </c>
-      <c r="M11" s="2">
-        <f>100*((M4-M8)/M4)</f>
+      <c r="M11" s="15">
+        <f t="shared" si="1"/>
         <v>4.1650458033726358E-3</v>
       </c>
-      <c r="N11" s="2">
-        <f>100*((N4-N8)/N4)</f>
+      <c r="N11" s="15">
+        <f t="shared" si="1"/>
         <v>7.0374062210216401E-2</v>
       </c>
-      <c r="O11" s="2">
-        <f>100*((O4-O8)/O4)</f>
+      <c r="O11" s="15">
+        <f t="shared" si="1"/>
         <v>1.1870917907007463E-3</v>
       </c>
-      <c r="P11" s="2">
-        <f>100*((P4-P8)/P4)</f>
+      <c r="P11" s="15">
+        <f t="shared" si="1"/>
         <v>1.0179336691022478E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="J11:J12"/>
@@ -3748,17 +6320,6 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -3768,6 +6329,13 @@
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="K9:K10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="N11:N12"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A3:A4"/>
@@ -3775,6 +6343,1627 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F31A019-EF8C-8649-B7F3-D195899C8CF2}">
+  <dimension ref="A1:X27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="24" width="9.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="20"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1.7273000000000001</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2.1082000000000001</v>
+      </c>
+      <c r="E3" s="12">
+        <v>4.1628999999999996</v>
+      </c>
+      <c r="F3" s="12">
+        <v>5.2069000000000001</v>
+      </c>
+      <c r="G3" s="12">
+        <v>6.8209</v>
+      </c>
+      <c r="H3" s="12">
+        <v>8.9001999999999999</v>
+      </c>
+      <c r="I3" s="12">
+        <v>41.4071</v>
+      </c>
+      <c r="J3" s="12">
+        <v>53.0306</v>
+      </c>
+      <c r="K3" s="12">
+        <v>78.743700000000004</v>
+      </c>
+      <c r="L3" s="12">
+        <v>100.505</v>
+      </c>
+      <c r="M3" s="12">
+        <v>170.92840000000001</v>
+      </c>
+      <c r="N3" s="12">
+        <v>232.1129</v>
+      </c>
+      <c r="O3" s="12">
+        <v>241.78319999999999</v>
+      </c>
+      <c r="P3" s="12">
+        <v>315.72129999999999</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>349.49630000000002</v>
+      </c>
+      <c r="R3" s="12">
+        <v>562.97770000000003</v>
+      </c>
+      <c r="S3" s="12">
+        <v>481.68459999999999</v>
+      </c>
+      <c r="T3" s="12">
+        <v>574.70550000000003</v>
+      </c>
+      <c r="U3" s="12">
+        <v>1737.4111</v>
+      </c>
+      <c r="V3" s="12">
+        <v>2568.6952000000001</v>
+      </c>
+      <c r="W3" s="12">
+        <v>4137.1850000000004</v>
+      </c>
+      <c r="X3" s="12">
+        <v>5800.5664999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>15141</v>
+      </c>
+      <c r="D4" s="13">
+        <v>15141</v>
+      </c>
+      <c r="E4" s="13">
+        <v>18464</v>
+      </c>
+      <c r="F4" s="13">
+        <v>18464</v>
+      </c>
+      <c r="G4" s="13">
+        <v>63096</v>
+      </c>
+      <c r="H4" s="13">
+        <v>63096</v>
+      </c>
+      <c r="I4" s="13">
+        <v>87747</v>
+      </c>
+      <c r="J4" s="13">
+        <v>87747</v>
+      </c>
+      <c r="K4" s="13">
+        <v>329480</v>
+      </c>
+      <c r="L4" s="13">
+        <v>329480</v>
+      </c>
+      <c r="M4" s="13">
+        <v>779085</v>
+      </c>
+      <c r="N4" s="13">
+        <v>779085</v>
+      </c>
+      <c r="O4" s="13">
+        <v>1673454</v>
+      </c>
+      <c r="P4" s="13">
+        <v>1673454</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>1660792</v>
+      </c>
+      <c r="R4" s="13">
+        <v>1660780</v>
+      </c>
+      <c r="S4" s="13">
+        <v>2050264</v>
+      </c>
+      <c r="T4" s="13">
+        <v>2050264</v>
+      </c>
+      <c r="U4" s="13">
+        <v>5800794</v>
+      </c>
+      <c r="V4" s="13">
+        <v>5800740</v>
+      </c>
+      <c r="W4" s="13">
+        <v>4800274</v>
+      </c>
+      <c r="X4" s="13">
+        <v>4800274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1.4004000000000001</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1.1328</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2.2480000000000002</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1.2747999999999999</v>
+      </c>
+      <c r="I5" s="12">
+        <v>12.548</v>
+      </c>
+      <c r="J5" s="12">
+        <v>10.8955</v>
+      </c>
+      <c r="K5" s="12">
+        <v>24.2685</v>
+      </c>
+      <c r="L5" s="12">
+        <v>16.595099999999999</v>
+      </c>
+      <c r="M5" s="12">
+        <v>56.986699999999999</v>
+      </c>
+      <c r="N5" s="12">
+        <v>49.031700000000001</v>
+      </c>
+      <c r="O5" s="12">
+        <v>68.765600000000006</v>
+      </c>
+      <c r="P5" s="12">
+        <v>71.409499999999994</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>214.1147</v>
+      </c>
+      <c r="R5" s="12">
+        <v>101.9019</v>
+      </c>
+      <c r="S5" s="12">
+        <v>146.66749999999999</v>
+      </c>
+      <c r="T5" s="12">
+        <v>100.63849999999999</v>
+      </c>
+      <c r="U5" s="12">
+        <v>1119.5581999999999</v>
+      </c>
+      <c r="V5" s="12">
+        <v>502.66250000000002</v>
+      </c>
+      <c r="W5" s="12">
+        <v>3110.0770000000002</v>
+      </c>
+      <c r="X5" s="12">
+        <v>949.01239999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>15141</v>
+      </c>
+      <c r="D6" s="13">
+        <v>4795</v>
+      </c>
+      <c r="E6" s="13">
+        <v>18464</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1468</v>
+      </c>
+      <c r="G6" s="13">
+        <v>62916</v>
+      </c>
+      <c r="H6" s="13">
+        <v>50334</v>
+      </c>
+      <c r="I6" s="13">
+        <v>87747</v>
+      </c>
+      <c r="J6" s="13">
+        <v>5868</v>
+      </c>
+      <c r="K6" s="13">
+        <v>329468</v>
+      </c>
+      <c r="L6" s="13">
+        <v>270825</v>
+      </c>
+      <c r="M6" s="13">
+        <v>732261</v>
+      </c>
+      <c r="N6" s="13">
+        <v>56670</v>
+      </c>
+      <c r="O6" s="13">
+        <v>1667254</v>
+      </c>
+      <c r="P6" s="13">
+        <v>463624</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>1655326</v>
+      </c>
+      <c r="R6" s="13">
+        <v>88238</v>
+      </c>
+      <c r="S6" s="13">
+        <v>2029337</v>
+      </c>
+      <c r="T6" s="13">
+        <v>948038</v>
+      </c>
+      <c r="U6" s="13">
+        <v>5775888</v>
+      </c>
+      <c r="V6" s="13">
+        <v>3477841</v>
+      </c>
+      <c r="W6" s="13">
+        <v>4800274</v>
+      </c>
+      <c r="X6" s="13">
+        <v>3703118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1.7109000000000001</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2.1263000000000001</v>
+      </c>
+      <c r="E7" s="12">
+        <v>4.1773999999999996</v>
+      </c>
+      <c r="F7" s="12">
+        <v>5.3170999999999999</v>
+      </c>
+      <c r="G7" s="12">
+        <v>7.0217999999999998</v>
+      </c>
+      <c r="H7" s="12">
+        <v>9.0927000000000007</v>
+      </c>
+      <c r="I7" s="12">
+        <v>40.732300000000002</v>
+      </c>
+      <c r="J7" s="12">
+        <v>52.798900000000003</v>
+      </c>
+      <c r="K7" s="12">
+        <v>75.835999999999999</v>
+      </c>
+      <c r="L7" s="12">
+        <v>97.647000000000006</v>
+      </c>
+      <c r="M7" s="12">
+        <v>216.99979999999999</v>
+      </c>
+      <c r="N7" s="12">
+        <v>264.70929999999998</v>
+      </c>
+      <c r="O7" s="12">
+        <v>239.67930000000001</v>
+      </c>
+      <c r="P7" s="12">
+        <v>306.41160000000002</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>355.51</v>
+      </c>
+      <c r="R7" s="12">
+        <v>440.51830000000001</v>
+      </c>
+      <c r="S7" s="12">
+        <v>408.69720000000001</v>
+      </c>
+      <c r="T7" s="12">
+        <v>524.71289999999999</v>
+      </c>
+      <c r="U7" s="12">
+        <v>1723.3974000000001</v>
+      </c>
+      <c r="V7" s="12">
+        <v>2735.4942999999998</v>
+      </c>
+      <c r="W7" s="12">
+        <v>4375.9088000000002</v>
+      </c>
+      <c r="X7" s="12">
+        <v>6280.2394000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>15141</v>
+      </c>
+      <c r="D8" s="13">
+        <v>15141</v>
+      </c>
+      <c r="E8" s="13">
+        <v>18464</v>
+      </c>
+      <c r="F8" s="13">
+        <v>18464</v>
+      </c>
+      <c r="G8" s="13">
+        <v>63096</v>
+      </c>
+      <c r="H8" s="13">
+        <v>63096</v>
+      </c>
+      <c r="I8" s="13">
+        <v>87747</v>
+      </c>
+      <c r="J8" s="13">
+        <v>87747</v>
+      </c>
+      <c r="K8" s="13">
+        <v>329480</v>
+      </c>
+      <c r="L8" s="13">
+        <v>329480</v>
+      </c>
+      <c r="M8" s="13">
+        <v>776907</v>
+      </c>
+      <c r="N8" s="13">
+        <v>765885</v>
+      </c>
+      <c r="O8" s="13">
+        <v>1673454</v>
+      </c>
+      <c r="P8" s="13">
+        <v>1673454</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>1660425</v>
+      </c>
+      <c r="R8" s="13">
+        <v>1660200</v>
+      </c>
+      <c r="S8" s="13">
+        <v>2050264</v>
+      </c>
+      <c r="T8" s="13">
+        <v>2048470</v>
+      </c>
+      <c r="U8" s="13">
+        <v>5800794</v>
+      </c>
+      <c r="V8" s="13">
+        <v>5797365</v>
+      </c>
+      <c r="W8" s="13">
+        <v>4800274</v>
+      </c>
+      <c r="X8" s="13">
+        <v>4799942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="19">
+        <f>100*(C4-C6)/C4</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="19">
+        <f t="shared" ref="D9:X9" si="0">100*(D4-D6)/D4</f>
+        <v>68.331021729079978</v>
+      </c>
+      <c r="E9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="0"/>
+        <v>92.049393414211437</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.28527957398250287</v>
+      </c>
+      <c r="H9" s="19">
+        <f t="shared" si="0"/>
+        <v>20.226321795359453</v>
+      </c>
+      <c r="I9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <f t="shared" si="0"/>
+        <v>93.312591883483194</v>
+      </c>
+      <c r="K9" s="19">
+        <f t="shared" si="0"/>
+        <v>3.6421027072963456E-3</v>
+      </c>
+      <c r="L9" s="19">
+        <f t="shared" si="0"/>
+        <v>17.802294524705598</v>
+      </c>
+      <c r="M9" s="19">
+        <f t="shared" si="0"/>
+        <v>6.0101272646758694</v>
+      </c>
+      <c r="N9" s="19">
+        <f t="shared" si="0"/>
+        <v>92.726082519879085</v>
+      </c>
+      <c r="O9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.37049121158992121</v>
+      </c>
+      <c r="P9" s="19">
+        <f t="shared" si="0"/>
+        <v>72.295384277070056</v>
+      </c>
+      <c r="Q9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.32912008246667857</v>
+      </c>
+      <c r="R9" s="19">
+        <f t="shared" si="0"/>
+        <v>94.68695432266766</v>
+      </c>
+      <c r="S9" s="19">
+        <f t="shared" si="0"/>
+        <v>1.020697822329222</v>
+      </c>
+      <c r="T9" s="19">
+        <f t="shared" si="0"/>
+        <v>53.760198686608163</v>
+      </c>
+      <c r="U9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.42935501588230851</v>
+      </c>
+      <c r="V9" s="19">
+        <f t="shared" si="0"/>
+        <v>40.044873585094315</v>
+      </c>
+      <c r="W9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="19">
+        <f t="shared" si="0"/>
+        <v>22.856111963608743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+    </row>
+    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="18">
+        <f>100*(C4-C8)/C4</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" ref="D11:X11" si="1">100*(D4-D8)/D4</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="18">
+        <f t="shared" si="1"/>
+        <v>0.27955871310575869</v>
+      </c>
+      <c r="N11" s="18">
+        <f t="shared" si="1"/>
+        <v>1.694295230943992</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="18">
+        <f t="shared" si="1"/>
+        <v>2.2097890644945304E-2</v>
+      </c>
+      <c r="R11" s="18">
+        <f t="shared" si="1"/>
+        <v>3.4923349269620298E-2</v>
+      </c>
+      <c r="S11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="18">
+        <f t="shared" si="1"/>
+        <v>8.7500926709926138E-2</v>
+      </c>
+      <c r="U11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="18">
+        <f t="shared" si="1"/>
+        <v>5.8182231922134071E-2</v>
+      </c>
+      <c r="W11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="18">
+        <f t="shared" si="1"/>
+        <v>6.9162718628144977E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="16">
+        <f>C9</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16">
+        <f>E9</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
+        <f>G9</f>
+        <v>0.28527957398250287</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16">
+        <f>I9</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16">
+        <f>K9</f>
+        <v>3.6421027072963456E-3</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16">
+        <f>M9</f>
+        <v>6.0101272646758694</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="16">
+        <f>O9</f>
+        <v>0.37049121158992121</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="16">
+        <f>Q9</f>
+        <v>0.32912008246667857</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="16">
+        <f>S9</f>
+        <v>1.020697822329222</v>
+      </c>
+      <c r="T14" s="17"/>
+      <c r="U14" s="16">
+        <f>U9</f>
+        <v>0.42935501588230851</v>
+      </c>
+      <c r="V14" s="17"/>
+      <c r="W14" s="16">
+        <f>W9</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="17"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="16">
+        <f>D9</f>
+        <v>68.331021729079978</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16">
+        <f>F9</f>
+        <v>92.049393414211437</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16">
+        <f>H9</f>
+        <v>20.226321795359453</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16">
+        <f>J9</f>
+        <v>93.312591883483194</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16">
+        <f>L9</f>
+        <v>17.802294524705598</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16">
+        <f>N9</f>
+        <v>92.726082519879085</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="16">
+        <f>P9</f>
+        <v>72.295384277070056</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="16">
+        <f>R9</f>
+        <v>94.68695432266766</v>
+      </c>
+      <c r="R15" s="17"/>
+      <c r="S15" s="16">
+        <f>T9</f>
+        <v>53.760198686608163</v>
+      </c>
+      <c r="T15" s="17"/>
+      <c r="U15" s="16">
+        <f>V9</f>
+        <v>40.044873585094315</v>
+      </c>
+      <c r="V15" s="17"/>
+      <c r="W15" s="16">
+        <f>X9</f>
+        <v>22.856111963608743</v>
+      </c>
+      <c r="X15" s="17"/>
+    </row>
+    <row r="17" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="16">
+        <f>C11</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16">
+        <f>E11</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16">
+        <f>G11</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16">
+        <f>I11</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16">
+        <f>K11</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16">
+        <f>M11</f>
+        <v>0.27955871310575869</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16">
+        <f>O11</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16">
+        <f>Q11</f>
+        <v>2.2097890644945304E-2</v>
+      </c>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16">
+        <f>S11</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16">
+        <f>U11</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16">
+        <f>W11</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="16"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="16">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16">
+        <f>F12</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16">
+        <f>H11</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16">
+        <f>J11</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16">
+        <f>L11</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16">
+        <f>N11</f>
+        <v>1.694295230943992</v>
+      </c>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16">
+        <f>P11</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16">
+        <f>R11</f>
+        <v>3.4923349269620298E-2</v>
+      </c>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16">
+        <f>T11</f>
+        <v>8.7500926709926138E-2</v>
+      </c>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16">
+        <f>V11</f>
+        <v>5.8182231922134071E-2</v>
+      </c>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16">
+        <f>X11</f>
+        <v>6.9162718628144977E-3</v>
+      </c>
+      <c r="X18" s="16"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="16">
+        <f>C5</f>
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16">
+        <f>E5</f>
+        <v>1.4004000000000001</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16">
+        <f>G5</f>
+        <v>2.2480000000000002</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16">
+        <f>I5</f>
+        <v>12.548</v>
+      </c>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16">
+        <f>K5</f>
+        <v>24.2685</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16">
+        <f>M5</f>
+        <v>56.986699999999999</v>
+      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="16">
+        <f>O5</f>
+        <v>68.765600000000006</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="16">
+        <f>Q5</f>
+        <v>214.1147</v>
+      </c>
+      <c r="R20" s="17"/>
+      <c r="S20" s="16">
+        <f>S5</f>
+        <v>146.66749999999999</v>
+      </c>
+      <c r="T20" s="17"/>
+      <c r="U20" s="16">
+        <f>U5</f>
+        <v>1119.5581999999999</v>
+      </c>
+      <c r="V20" s="17"/>
+      <c r="W20" s="16">
+        <f>W5</f>
+        <v>3110.0770000000002</v>
+      </c>
+      <c r="X20" s="17"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="16">
+        <f>D5</f>
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16">
+        <f>F5</f>
+        <v>1.1328</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16">
+        <f>H5</f>
+        <v>1.2747999999999999</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16">
+        <f>J5</f>
+        <v>10.8955</v>
+      </c>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16">
+        <f>L5</f>
+        <v>16.595099999999999</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16">
+        <f>N5</f>
+        <v>49.031700000000001</v>
+      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="16">
+        <f>P5</f>
+        <v>71.409499999999994</v>
+      </c>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="16">
+        <f>R5</f>
+        <v>101.9019</v>
+      </c>
+      <c r="R21" s="17"/>
+      <c r="S21" s="16">
+        <f>T5</f>
+        <v>100.63849999999999</v>
+      </c>
+      <c r="T21" s="17"/>
+      <c r="U21" s="16">
+        <f>V5</f>
+        <v>502.66250000000002</v>
+      </c>
+      <c r="V21" s="17"/>
+      <c r="W21" s="16">
+        <f>X5</f>
+        <v>949.01239999999996</v>
+      </c>
+      <c r="X21" s="17"/>
+    </row>
+    <row r="23" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="16">
+        <f>C7</f>
+        <v>1.7109000000000001</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16">
+        <f>E7</f>
+        <v>4.1773999999999996</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16">
+        <f>G7</f>
+        <v>7.0217999999999998</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16">
+        <f>I7</f>
+        <v>40.732300000000002</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16">
+        <f>K7</f>
+        <v>75.835999999999999</v>
+      </c>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16">
+        <f>M7</f>
+        <v>216.99979999999999</v>
+      </c>
+      <c r="N23" s="17"/>
+      <c r="O23" s="16">
+        <f>O7</f>
+        <v>239.67930000000001</v>
+      </c>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="16">
+        <f>Q7</f>
+        <v>355.51</v>
+      </c>
+      <c r="R23" s="17"/>
+      <c r="S23" s="16">
+        <f>S7</f>
+        <v>408.69720000000001</v>
+      </c>
+      <c r="T23" s="17"/>
+      <c r="U23" s="16">
+        <f>U7</f>
+        <v>1723.3974000000001</v>
+      </c>
+      <c r="V23" s="17"/>
+      <c r="W23" s="16">
+        <f>W7</f>
+        <v>4375.9088000000002</v>
+      </c>
+      <c r="X23" s="17"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="16">
+        <f>D7</f>
+        <v>2.1263000000000001</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16">
+        <f>F7</f>
+        <v>5.3170999999999999</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16">
+        <f>H7</f>
+        <v>9.0927000000000007</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16">
+        <f>J7</f>
+        <v>52.798900000000003</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16">
+        <f>L7</f>
+        <v>97.647000000000006</v>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16">
+        <f>N7</f>
+        <v>264.70929999999998</v>
+      </c>
+      <c r="N24" s="17"/>
+      <c r="O24" s="16">
+        <f>P7</f>
+        <v>306.41160000000002</v>
+      </c>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="16">
+        <f>R7</f>
+        <v>440.51830000000001</v>
+      </c>
+      <c r="R24" s="17"/>
+      <c r="S24" s="16">
+        <f>T7</f>
+        <v>524.71289999999999</v>
+      </c>
+      <c r="T24" s="17"/>
+      <c r="U24" s="16">
+        <f>V7</f>
+        <v>2735.4942999999998</v>
+      </c>
+      <c r="V24" s="17"/>
+      <c r="W24" s="16">
+        <f>X7</f>
+        <v>6280.2394000000004</v>
+      </c>
+      <c r="X24" s="17"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="16">
+        <f>C3</f>
+        <v>1.7273000000000001</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16">
+        <f>E3</f>
+        <v>4.1628999999999996</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="16">
+        <f>G3</f>
+        <v>6.8209</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="16">
+        <f>I3</f>
+        <v>41.4071</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="16">
+        <f>K3</f>
+        <v>78.743700000000004</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="16">
+        <f>M3</f>
+        <v>170.92840000000001</v>
+      </c>
+      <c r="N26" s="17"/>
+      <c r="O26" s="16">
+        <f>O3</f>
+        <v>241.78319999999999</v>
+      </c>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="16">
+        <f>Q3</f>
+        <v>349.49630000000002</v>
+      </c>
+      <c r="R26" s="17"/>
+      <c r="S26" s="16">
+        <f>S3</f>
+        <v>481.68459999999999</v>
+      </c>
+      <c r="T26" s="17"/>
+      <c r="U26" s="16">
+        <f>U3</f>
+        <v>1737.4111</v>
+      </c>
+      <c r="V26" s="17"/>
+      <c r="W26" s="16">
+        <f>W3</f>
+        <v>4137.1850000000004</v>
+      </c>
+      <c r="X26" s="17"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="16">
+        <f>D3</f>
+        <v>2.1082000000000001</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="16">
+        <f>F3</f>
+        <v>5.2069000000000001</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="16">
+        <f>H3</f>
+        <v>8.9001999999999999</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="16">
+        <f>J3</f>
+        <v>53.0306</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="16">
+        <f>L3</f>
+        <v>100.505</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="16">
+        <f>N3</f>
+        <v>232.1129</v>
+      </c>
+      <c r="N27" s="17"/>
+      <c r="O27" s="16">
+        <f>P3</f>
+        <v>315.72129999999999</v>
+      </c>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="16">
+        <f>R3</f>
+        <v>562.97770000000003</v>
+      </c>
+      <c r="R27" s="17"/>
+      <c r="S27" s="16">
+        <f>T3</f>
+        <v>574.70550000000003</v>
+      </c>
+      <c r="T27" s="17"/>
+      <c r="U27" s="16">
+        <f>V3</f>
+        <v>2568.6952000000001</v>
+      </c>
+      <c r="V27" s="17"/>
+      <c r="W27" s="16">
+        <f>X3</f>
+        <v>5800.5664999999999</v>
+      </c>
+      <c r="X27" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="177">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/workspaces/python/copt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\workspaces\python\copt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FC2273-B8E0-004B-9D3F-0D7950F8201F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47995F3E-B5B8-42C7-85B8-2083D1490DB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" activeTab="2" xr2:uid="{52A98BD8-4E11-A341-8E33-FFC30D64FA33}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14655" activeTab="2" xr2:uid="{52A98BD8-4E11-A341-8E33-FFC30D64FA33}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,9 @@
     <sheet name="case-value-duration-with_RL" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -233,7 +223,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -307,7 +297,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -315,23 +305,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -339,11 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -428,7 +418,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-TR"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -683,7 +673,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-TR"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1407712847"/>
@@ -742,7 +732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-TR"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1407873535"/>
@@ -784,7 +774,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-TR"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -821,7 +811,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-TR"/>
+      <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -897,7 +887,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-TR"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1248,7 +1238,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-TR"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1376863087"/>
@@ -1307,7 +1297,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-TR"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377445503"/>
@@ -1349,7 +1339,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-TR"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1386,7 +1376,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-TR"/>
+      <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1462,7 +1452,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-TR"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1501,43 +1491,98 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>case 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'case-value-duration-with_RL'!$C$14:$X$14</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$14:$X$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$14,'case-value-duration-with_RL'!$E$14,'case-value-duration-with_RL'!$G$14,'case-value-duration-with_RL'!$I$14,'case-value-duration-with_RL'!$K$14,'case-value-duration-with_RL'!$M$14,'case-value-duration-with_RL'!$O$14,'case-value-duration-with_RL'!$Q$14,'case-value-duration-with_RL'!$S$14,'case-value-duration-with_RL'!$U$14,'case-value-duration-with_RL'!$W$14)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.28527957398250287</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28527957398250287</c:v>
+                  <c:v>3.6421027072963456E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0101272646758694</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.37049121158992121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32912008246667857</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6421027072963456E-3</c:v>
+                  <c:v>1.020697822329222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42842809710485213</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0101272646758694</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.37049121158992121</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.32912008246667857</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.020697822329222</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.42935501588230851</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1579,44 +1624,99 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>case 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'case-value-duration-with_RL'!$C$15:$X$15</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$15:$X$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$15,'case-value-duration-with_RL'!$E$15,'case-value-duration-with_RL'!$G$15,'case-value-duration-with_RL'!$I$15,'case-value-duration-with_RL'!$K$15,'case-value-duration-with_RL'!$M$15,'case-value-duration-with_RL'!$O$15,'case-value-duration-with_RL'!$Q$15,'case-value-duration-with_RL'!$S$15,'case-value-duration-with_RL'!$U$15,'case-value-duration-with_RL'!$W$15)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>68.331021729079978</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.049393414211437</c:v>
+                  <c:v>0.28527957398250287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.226321795359453</c:v>
+                  <c:v>3.6421027072963456E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0101272646758694</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.312591883483194</c:v>
+                  <c:v>0.37049121158992121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32767972407946205</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.802294524705598</c:v>
+                  <c:v>1.020697822329222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42935501588230851</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>92.726082519879085</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>72.295384277070056</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>94.68695432266766</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>53.760198686608163</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.044873585094315</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22.856111963608743</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,43 +1757,98 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>case 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'case-value-duration-with_RL'!$C$17:$X$17</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$17:$X$17</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$17,'case-value-duration-with_RL'!$E$17,'case-value-duration-with_RL'!$G$17,'case-value-duration-with_RL'!$I$17,'case-value-duration-with_RL'!$K$17,'case-value-duration-with_RL'!$M$17,'case-value-duration-with_RL'!$O$17,'case-value-duration-with_RL'!$Q$17,'case-value-duration-with_RL'!$S$17,'case-value-duration-with_RL'!$U$17,'case-value-duration-with_RL'!$W$17)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27955871310575869</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2097890644945304E-2</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.3091571075414514E-4</c:v>
+                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27955871310575869</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.2097890644945304E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1735,43 +1890,98 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>case 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'case-value-duration-with_RL'!$C$18:$X$18</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$18:$X$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$18,'case-value-duration-with_RL'!$E$18,'case-value-duration-with_RL'!$G$18,'case-value-duration-with_RL'!$I$18,'case-value-duration-with_RL'!$K$18,'case-value-duration-with_RL'!$M$18,'case-value-duration-with_RL'!$O$18,'case-value-duration-with_RL'!$Q$18,'case-value-duration-with_RL'!$S$18,'case-value-duration-with_RL'!$U$18,'case-value-duration-with_RL'!$W$18)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.694295230943992</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4201044336114379E-2</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8.7500926709926138E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9112597344432506E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.694295230943992</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.4923349269620298E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.7500926709926138E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.8182231922134071E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>6.9162718628144977E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1803,6 +2013,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1836,7 +2047,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-TR"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="994348384"/>
@@ -1895,7 +2106,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-TR"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="997187504"/>
@@ -1937,7 +2148,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-TR"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1974,7 +2185,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-TR"/>
+      <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2025,7 +2236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-TR"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2064,44 +2275,99 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>case 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'case-value-duration-with_RL'!$C$20:$X$20</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$20:$X$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$20,'case-value-duration-with_RL'!$E$20,'case-value-duration-with_RL'!$G$20,'case-value-duration-with_RL'!$I$20,'case-value-duration-with_RL'!$K$20,'case-value-duration-with_RL'!$M$20,'case-value-duration-with_RL'!$O$20,'case-value-duration-with_RL'!$Q$20,'case-value-duration-with_RL'!$S$20,'case-value-duration-with_RL'!$U$20,'case-value-duration-with_RL'!$W$20)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.41299999999999998</c:v>
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6584000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4004000000000001</c:v>
+                  <c:v>2.7709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.633800000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2480000000000002</c:v>
+                  <c:v>32.877600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.142099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.548</c:v>
+                  <c:v>70.239199999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.3947</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.2685</c:v>
+                  <c:v>142.79310000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>903.16920000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56.986699999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>68.765600000000006</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>214.1147</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>146.66749999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1119.5581999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3110.0770000000002</c:v>
+                  <c:v>2534.8456999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2142,44 +2408,99 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>case 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'case-value-duration-with_RL'!$C$21:$X$21</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$21:$X$21</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$21,'case-value-duration-with_RL'!$E$21,'case-value-duration-with_RL'!$G$21,'case-value-duration-with_RL'!$I$21,'case-value-duration-with_RL'!$K$21,'case-value-duration-with_RL'!$M$21,'case-value-duration-with_RL'!$O$21,'case-value-duration-with_RL'!$Q$21,'case-value-duration-with_RL'!$S$21,'case-value-duration-with_RL'!$U$21,'case-value-duration-with_RL'!$W$21)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.41760000000000003</c:v>
+                  <c:v>0.39979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1163000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1328</c:v>
+                  <c:v>1.3845000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7070000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2747999999999999</c:v>
+                  <c:v>14.837</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.283999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.8955</c:v>
+                  <c:v>33.219700000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.618000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.595099999999999</c:v>
+                  <c:v>61.295900000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>448.58699999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.031700000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71.409499999999994</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>101.9019</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100.63849999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>502.66250000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>949.01239999999996</c:v>
+                  <c:v>1474.5264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2220,43 +2541,98 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>case 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'case-value-duration-with_RL'!$C$23:$X$23</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$23:$X$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$23,'case-value-duration-with_RL'!$E$23,'case-value-duration-with_RL'!$G$23,'case-value-duration-with_RL'!$I$23,'case-value-duration-with_RL'!$K$23,'case-value-duration-with_RL'!$M$23,'case-value-duration-with_RL'!$O$23,'case-value-duration-with_RL'!$Q$23,'case-value-duration-with_RL'!$S$23,'case-value-duration-with_RL'!$U$23,'case-value-duration-with_RL'!$W$23)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.7109000000000001</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1773999999999996</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1773999999999996</c:v>
+                  <c:v>7.0217999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.732300000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0217999999999998</c:v>
+                  <c:v>75.835999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>216.99979999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.732300000000002</c:v>
+                  <c:v>239.67930000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355.51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.835999999999999</c:v>
+                  <c:v>408.69720000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1723.3974000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>216.99979999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>239.67930000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>355.51</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>408.69720000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1723.3974000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>4375.9088000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -2298,43 +2674,98 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>case 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'case-value-duration-with_RL'!$C$24:$X$24</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$24:$X$24</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$24,'case-value-duration-with_RL'!$E$24,'case-value-duration-with_RL'!$G$24,'case-value-duration-with_RL'!$I$24,'case-value-duration-with_RL'!$K$24,'case-value-duration-with_RL'!$M$24,'case-value-duration-with_RL'!$O$24,'case-value-duration-with_RL'!$Q$24,'case-value-duration-with_RL'!$S$24,'case-value-duration-with_RL'!$U$24,'case-value-duration-with_RL'!$W$24)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2.1263000000000001</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3170999999999999</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3170999999999999</c:v>
+                  <c:v>9.0927000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.798900000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0927000000000007</c:v>
+                  <c:v>97.647000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>264.70929999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.798900000000003</c:v>
+                  <c:v>306.41160000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>440.51830000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97.647000000000006</c:v>
+                  <c:v>524.71289999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2735.4942999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>264.70929999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>306.41160000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>440.51830000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>524.71289999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2735.4942999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>6280.2394000000004</c:v>
                 </c:pt>
               </c:numCache>
@@ -2376,44 +2807,99 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>case 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'case-value-duration-with_RL'!$C$26:$X$26</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$26:$X$26</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$26,'case-value-duration-with_RL'!$E$26,'case-value-duration-with_RL'!$G$26,'case-value-duration-with_RL'!$I$26,'case-value-duration-with_RL'!$K$26,'case-value-duration-with_RL'!$M$26,'case-value-duration-with_RL'!$O$26,'case-value-duration-with_RL'!$Q$26,'case-value-duration-with_RL'!$S$26,'case-value-duration-with_RL'!$U$26,'case-value-duration-with_RL'!$W$26)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="#,##0.00">
-                  <c:v>1.7273000000000001</c:v>
+                  <c:v>1.5461</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="#,##0.00">
+                  <c:v>3.9401000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0.00">
-                  <c:v>4.1628999999999996</c:v>
+                  <c:v>6.3446999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.00">
+                  <c:v>38.189</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#,##0.00">
-                  <c:v>6.8209</c:v>
+                  <c:v>72.674499999999995</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.00">
+                  <c:v>161.48249999999999</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.00">
-                  <c:v>41.4071</c:v>
+                  <c:v>223.24950000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.00">
+                  <c:v>324.71039999999999</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="#,##0.00">
-                  <c:v>78.743700000000004</c:v>
+                  <c:v>464.81439999999998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0.00">
+                  <c:v>1655.0168000000001</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.00">
-                  <c:v>170.92840000000001</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="#,##0.00">
-                  <c:v>241.78319999999999</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="#,##0.00">
-                  <c:v>349.49630000000002</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="#,##0.00">
-                  <c:v>481.68459999999999</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="#,##0.00">
-                  <c:v>1737.4111</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="#,##0.00">
-                  <c:v>4137.1850000000004</c:v>
+                  <c:v>2945.4787999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2454,44 +2940,99 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>case 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>case 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>case 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>case 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>case 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>case 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>case 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'case-value-duration-with_RL'!$C$27:$X$27</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'case-value-duration-with_RL'!$C$27:$X$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('case-value-duration-with_RL'!$C$27,'case-value-duration-with_RL'!$E$27,'case-value-duration-with_RL'!$G$27,'case-value-duration-with_RL'!$I$27,'case-value-duration-with_RL'!$K$27,'case-value-duration-with_RL'!$M$27,'case-value-duration-with_RL'!$O$27,'case-value-duration-with_RL'!$Q$27,'case-value-duration-with_RL'!$S$27,'case-value-duration-with_RL'!$U$27,'case-value-duration-with_RL'!$W$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="#,##0.00">
-                  <c:v>2.1082000000000001</c:v>
+                  <c:v>1.9312</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="#,##0.00">
+                  <c:v>5.1288999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0.00">
-                  <c:v>5.2069000000000001</c:v>
+                  <c:v>8.5748999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.00">
+                  <c:v>48.531300000000002</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#,##0.00">
-                  <c:v>8.9001999999999999</c:v>
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.00">
+                  <c:v>225.67140000000001</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.00">
-                  <c:v>53.0306</c:v>
+                  <c:v>301.35610000000003</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.00">
+                  <c:v>478.46609999999998</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="#,##0.00">
-                  <c:v>100.505</c:v>
+                  <c:v>580.44349999999997</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0.00">
+                  <c:v>2248.9456</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.00">
-                  <c:v>232.1129</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="#,##0.00">
-                  <c:v>315.72129999999999</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="#,##0.00">
-                  <c:v>562.97770000000003</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="#,##0.00">
-                  <c:v>574.70550000000003</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="#,##0.00">
-                  <c:v>2568.6952000000001</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="#,##0.00">
-                  <c:v>5800.5664999999999</c:v>
+                  <c:v>4131.8188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2522,6 +3063,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2555,7 +3097,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-TR"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="941247488"/>
@@ -2614,7 +3156,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-TR"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="941429120"/>
@@ -2656,7 +3198,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-TR"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2693,7 +3235,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-TR"/>
+      <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5359,14 +5901,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>37</v>
       </c>
@@ -5383,7 +5925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -5410,7 +5952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -5437,7 +5979,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
@@ -5464,7 +6006,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -5491,7 +6033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -5518,7 +6060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
@@ -5545,7 +6087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
@@ -5572,7 +6114,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
@@ -5599,7 +6141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
@@ -5626,7 +6168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
@@ -5653,7 +6195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
@@ -5680,7 +6222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
@@ -5707,7 +6249,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
@@ -5734,7 +6276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
@@ -5761,7 +6303,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
@@ -5800,12 +6342,12 @@
       <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -5849,8 +6391,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5899,8 +6441,8 @@
         <v>43721.7264</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5947,8 +6489,8 @@
         <v>22565321</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5997,8 +6539,8 @@
         <v>5700.4705000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -6045,8 +6587,8 @@
         <v>22559756</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -6095,8 +6637,8 @@
         <v>8466.2450000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -6143,183 +6685,180 @@
         <v>22563024</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <f t="shared" ref="C9:P9" si="0">100*((C4-C6)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <f t="shared" si="0"/>
         <v>0.28331679676410071</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <f t="shared" si="0"/>
         <v>6.6721378395387205</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <f t="shared" si="0"/>
         <v>1.4825105598988066E-2</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <f t="shared" si="0"/>
         <v>0.21084435931048381</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <f t="shared" si="0"/>
         <v>0.12111948505301814</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <f t="shared" si="0"/>
         <v>4.0020902606961082</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="14">
         <f t="shared" si="0"/>
         <v>8.8497113987194301E-2</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <f t="shared" si="0"/>
         <v>16.735867692541735</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="14">
         <f t="shared" si="0"/>
         <v>2.5065027300464802E-2</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="14">
         <f t="shared" si="0"/>
         <v>2.4661736476073174E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <f t="shared" ref="C11:P11" si="1">100*((C4-C8)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <f t="shared" si="1"/>
         <v>1.0851631997006446</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <f t="shared" si="1"/>
         <v>2.3672346037093849E-2</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="14">
         <f t="shared" si="1"/>
         <v>2.3495459874602515E-2</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="14">
         <f t="shared" si="1"/>
         <v>4.1650458033726358E-3</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="14">
         <f t="shared" si="1"/>
         <v>7.0374062210216401E-2</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="14">
         <f t="shared" si="1"/>
         <v>1.1870917907007463E-3</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="14">
         <f t="shared" si="1"/>
         <v>1.0179336691022478E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -6336,14 +6875,17 @@
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="N11:N12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6359,63 +6901,63 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="24" width="9.83203125" customWidth="1"/>
+    <col min="3" max="24" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20" t="s">
+      <c r="R1" s="18"/>
+      <c r="S1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20" t="s">
+      <c r="T1" s="18"/>
+      <c r="U1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20" t="s">
+      <c r="V1" s="18"/>
+      <c r="W1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="20"/>
+      <c r="X1" s="18"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
         <v>44</v>
       </c>
@@ -6483,1374 +7025,1399 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11">
-        <v>1.7273000000000001</v>
-      </c>
-      <c r="D3" s="12">
-        <v>2.1082000000000001</v>
-      </c>
-      <c r="E3" s="12">
-        <v>4.1628999999999996</v>
-      </c>
-      <c r="F3" s="12">
-        <v>5.2069000000000001</v>
-      </c>
-      <c r="G3" s="12">
-        <v>6.8209</v>
-      </c>
-      <c r="H3" s="12">
-        <v>8.9001999999999999</v>
-      </c>
-      <c r="I3" s="12">
-        <v>41.4071</v>
-      </c>
-      <c r="J3" s="12">
-        <v>53.0306</v>
-      </c>
-      <c r="K3" s="12">
-        <v>78.743700000000004</v>
-      </c>
-      <c r="L3" s="12">
-        <v>100.505</v>
-      </c>
-      <c r="M3" s="12">
-        <v>170.92840000000001</v>
-      </c>
-      <c r="N3" s="12">
-        <v>232.1129</v>
-      </c>
-      <c r="O3" s="12">
-        <v>241.78319999999999</v>
-      </c>
-      <c r="P3" s="12">
-        <v>315.72129999999999</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>349.49630000000002</v>
-      </c>
-      <c r="R3" s="12">
-        <v>562.97770000000003</v>
-      </c>
-      <c r="S3" s="12">
-        <v>481.68459999999999</v>
-      </c>
-      <c r="T3" s="12">
-        <v>574.70550000000003</v>
-      </c>
-      <c r="U3" s="12">
-        <v>1737.4111</v>
-      </c>
-      <c r="V3" s="12">
-        <v>2568.6952000000001</v>
-      </c>
-      <c r="W3" s="12">
-        <v>4137.1850000000004</v>
-      </c>
-      <c r="X3" s="12">
-        <v>5800.5664999999999</v>
+      <c r="C3" s="13">
+        <v>1.5461</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1.9312</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3.9401000000000002</v>
+      </c>
+      <c r="F3" s="13">
+        <v>5.1288999999999998</v>
+      </c>
+      <c r="G3" s="13">
+        <v>6.3446999999999996</v>
+      </c>
+      <c r="H3" s="13">
+        <v>8.5748999999999995</v>
+      </c>
+      <c r="I3" s="13">
+        <v>38.189</v>
+      </c>
+      <c r="J3" s="13">
+        <v>48.531300000000002</v>
+      </c>
+      <c r="K3" s="13">
+        <v>72.674499999999995</v>
+      </c>
+      <c r="L3" s="13">
+        <v>93.75</v>
+      </c>
+      <c r="M3" s="13">
+        <v>161.48249999999999</v>
+      </c>
+      <c r="N3" s="13">
+        <v>225.67140000000001</v>
+      </c>
+      <c r="O3" s="13">
+        <v>223.24950000000001</v>
+      </c>
+      <c r="P3" s="13">
+        <v>301.35610000000003</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>324.71039999999999</v>
+      </c>
+      <c r="R3" s="13">
+        <v>478.46609999999998</v>
+      </c>
+      <c r="S3" s="13">
+        <v>464.81439999999998</v>
+      </c>
+      <c r="T3" s="13">
+        <v>580.44349999999997</v>
+      </c>
+      <c r="U3" s="13">
+        <v>1655.0168000000001</v>
+      </c>
+      <c r="V3" s="13">
+        <v>2248.9456</v>
+      </c>
+      <c r="W3" s="13">
+        <v>2945.4787999999999</v>
+      </c>
+      <c r="X3" s="13">
+        <v>4131.8188</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>15141</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>15141</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>18464</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>18464</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>63096</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>63096</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>87747</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>87747</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <v>329480</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <v>329480</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <v>779085</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <v>779085</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="12">
         <v>1673454</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="12">
         <v>1673454</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="12">
         <v>1660792</v>
       </c>
-      <c r="R4" s="13">
-        <v>1660780</v>
-      </c>
-      <c r="S4" s="13">
+      <c r="R4" s="12">
+        <v>1660768</v>
+      </c>
+      <c r="S4" s="12">
         <v>2050264</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="12">
         <v>2050264</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="12">
+        <v>5800740</v>
+      </c>
+      <c r="V4" s="12">
         <v>5800794</v>
       </c>
-      <c r="V4" s="13">
-        <v>5800740</v>
-      </c>
-      <c r="W4" s="13">
+      <c r="W4" s="12">
         <v>4800274</v>
       </c>
-      <c r="X4" s="13">
+      <c r="X4" s="12">
         <v>4800274</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.41760000000000003</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1.4004000000000001</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1.1328</v>
-      </c>
-      <c r="G5" s="12">
-        <v>2.2480000000000002</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1.2747999999999999</v>
-      </c>
-      <c r="I5" s="12">
-        <v>12.548</v>
-      </c>
-      <c r="J5" s="12">
-        <v>10.8955</v>
-      </c>
-      <c r="K5" s="12">
-        <v>24.2685</v>
-      </c>
-      <c r="L5" s="12">
-        <v>16.595099999999999</v>
-      </c>
-      <c r="M5" s="12">
-        <v>56.986699999999999</v>
-      </c>
-      <c r="N5" s="12">
-        <v>49.031700000000001</v>
-      </c>
-      <c r="O5" s="12">
-        <v>68.765600000000006</v>
-      </c>
-      <c r="P5" s="12">
-        <v>71.409499999999994</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>214.1147</v>
-      </c>
-      <c r="R5" s="12">
-        <v>101.9019</v>
-      </c>
-      <c r="S5" s="12">
-        <v>146.66749999999999</v>
-      </c>
-      <c r="T5" s="12">
-        <v>100.63849999999999</v>
-      </c>
-      <c r="U5" s="12">
-        <v>1119.5581999999999</v>
-      </c>
-      <c r="V5" s="12">
-        <v>502.66250000000002</v>
-      </c>
-      <c r="W5" s="12">
-        <v>3110.0770000000002</v>
-      </c>
-      <c r="X5" s="12">
-        <v>949.01239999999996</v>
+      <c r="C5" s="13">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.39979999999999999</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1.6584000000000001</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1.1163000000000001</v>
+      </c>
+      <c r="G5" s="13">
+        <v>2.7709999999999999</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1.3845000000000001</v>
+      </c>
+      <c r="I5" s="13">
+        <v>15.633800000000001</v>
+      </c>
+      <c r="J5" s="13">
+        <v>8.7070000000000007</v>
+      </c>
+      <c r="K5" s="13">
+        <v>32.877600000000001</v>
+      </c>
+      <c r="L5" s="13">
+        <v>14.837</v>
+      </c>
+      <c r="M5" s="13">
+        <v>64.142099999999999</v>
+      </c>
+      <c r="N5" s="13">
+        <v>35.283999999999999</v>
+      </c>
+      <c r="O5" s="13">
+        <v>70.239199999999997</v>
+      </c>
+      <c r="P5" s="13">
+        <v>33.219700000000003</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>128.3947</v>
+      </c>
+      <c r="R5" s="13">
+        <v>63.618000000000002</v>
+      </c>
+      <c r="S5" s="13">
+        <v>142.79310000000001</v>
+      </c>
+      <c r="T5" s="13">
+        <v>61.295900000000003</v>
+      </c>
+      <c r="U5" s="13">
+        <v>903.16920000000005</v>
+      </c>
+      <c r="V5" s="13">
+        <v>448.58699999999999</v>
+      </c>
+      <c r="W5" s="13">
+        <v>2534.8456999999999</v>
+      </c>
+      <c r="X5" s="13">
+        <v>1474.5264</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>15141</v>
       </c>
-      <c r="D6" s="13">
-        <v>4795</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="D6" s="12">
+        <v>15141</v>
+      </c>
+      <c r="E6" s="12">
         <v>18464</v>
       </c>
-      <c r="F6" s="13">
-        <v>1468</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="F6" s="12">
+        <v>18464</v>
+      </c>
+      <c r="G6" s="12">
         <v>62916</v>
       </c>
-      <c r="H6" s="13">
-        <v>50334</v>
-      </c>
-      <c r="I6" s="13">
+      <c r="H6" s="12">
+        <v>62916</v>
+      </c>
+      <c r="I6" s="12">
         <v>87747</v>
       </c>
-      <c r="J6" s="13">
-        <v>5868</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="J6" s="12">
+        <v>87747</v>
+      </c>
+      <c r="K6" s="12">
         <v>329468</v>
       </c>
-      <c r="L6" s="13">
-        <v>270825</v>
-      </c>
-      <c r="M6" s="13">
+      <c r="L6" s="12">
+        <v>329468</v>
+      </c>
+      <c r="M6" s="12">
         <v>732261</v>
       </c>
-      <c r="N6" s="13">
-        <v>56670</v>
-      </c>
-      <c r="O6" s="13">
+      <c r="N6" s="12">
+        <v>732261</v>
+      </c>
+      <c r="O6" s="12">
         <v>1667254</v>
       </c>
-      <c r="P6" s="13">
-        <v>463624</v>
-      </c>
-      <c r="Q6" s="13">
+      <c r="P6" s="12">
+        <v>1667254</v>
+      </c>
+      <c r="Q6" s="12">
         <v>1655326</v>
       </c>
-      <c r="R6" s="13">
-        <v>88238</v>
-      </c>
-      <c r="S6" s="13">
+      <c r="R6" s="12">
+        <v>1655326</v>
+      </c>
+      <c r="S6" s="12">
         <v>2029337</v>
       </c>
-      <c r="T6" s="13">
-        <v>948038</v>
-      </c>
-      <c r="U6" s="13">
+      <c r="T6" s="12">
+        <v>2029337</v>
+      </c>
+      <c r="U6" s="12">
         <v>5775888</v>
       </c>
-      <c r="V6" s="13">
-        <v>3477841</v>
-      </c>
-      <c r="W6" s="13">
+      <c r="V6" s="12">
+        <v>5775888</v>
+      </c>
+      <c r="W6" s="12">
         <v>4800274</v>
       </c>
-      <c r="X6" s="13">
-        <v>3703118</v>
+      <c r="X6" s="12">
+        <v>4800274</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>1.7109000000000001</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>2.1263000000000001</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>4.1773999999999996</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>5.3170999999999999</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>7.0217999999999998</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>9.0927000000000007</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>40.732300000000002</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>52.798900000000003</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>75.835999999999999</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>97.647000000000006</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>216.99979999999999</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <v>264.70929999999998</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="11">
         <v>239.67930000000001</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <v>306.41160000000002</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <v>355.51</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="11">
         <v>440.51830000000001</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="11">
         <v>408.69720000000001</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="11">
         <v>524.71289999999999</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="11">
         <v>1723.3974000000001</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="11">
         <v>2735.4942999999998</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="11">
         <v>4375.9088000000002</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="11">
         <v>6280.2394000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>15141</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>15141</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>18464</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>18464</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>63096</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>63096</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>87747</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>87747</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>329480</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="12">
         <v>329480</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <v>776907</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="12">
         <v>765885</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="12">
         <v>1673454</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="12">
         <v>1673454</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="12">
         <v>1660425</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="12">
         <v>1660200</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="12">
         <v>2050264</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="12">
         <v>2048470</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="12">
         <v>5800794</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V8" s="12">
         <v>5797365</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8" s="12">
         <v>4800274</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X8" s="12">
         <v>4799942</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <f>100*(C4-C6)/C4</f>
         <v>0</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <f t="shared" ref="D9:X9" si="0">100*(D4-D6)/D4</f>
-        <v>68.331021729079978</v>
-      </c>
-      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
-        <v>92.049393414211437</v>
-      </c>
-      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
         <f t="shared" si="0"/>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>20.226321795359453</v>
-      </c>
-      <c r="I9" s="19">
+        <v>0.28527957398250287</v>
+      </c>
+      <c r="I9" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="17">
         <f t="shared" si="0"/>
-        <v>93.312591883483194</v>
-      </c>
-      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
         <f t="shared" si="0"/>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="17">
         <f t="shared" si="0"/>
-        <v>17.802294524705598</v>
-      </c>
-      <c r="M9" s="19">
+        <v>3.6421027072963456E-3</v>
+      </c>
+      <c r="M9" s="17">
         <f t="shared" si="0"/>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="17">
         <f t="shared" si="0"/>
-        <v>92.726082519879085</v>
-      </c>
-      <c r="O9" s="19">
+        <v>6.0101272646758694</v>
+      </c>
+      <c r="O9" s="17">
         <f t="shared" si="0"/>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="17">
         <f t="shared" si="0"/>
-        <v>72.295384277070056</v>
-      </c>
-      <c r="Q9" s="19">
+        <v>0.37049121158992121</v>
+      </c>
+      <c r="Q9" s="17">
         <f t="shared" si="0"/>
         <v>0.32912008246667857</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="17">
         <f t="shared" si="0"/>
-        <v>94.68695432266766</v>
-      </c>
-      <c r="S9" s="19">
+        <v>0.32767972407946205</v>
+      </c>
+      <c r="S9" s="17">
         <f t="shared" si="0"/>
         <v>1.020697822329222</v>
       </c>
-      <c r="T9" s="19">
+      <c r="T9" s="17">
         <f t="shared" si="0"/>
-        <v>53.760198686608163</v>
-      </c>
-      <c r="U9" s="19">
+        <v>1.020697822329222</v>
+      </c>
+      <c r="U9" s="17">
+        <f t="shared" si="0"/>
+        <v>0.42842809710485213</v>
+      </c>
+      <c r="V9" s="17">
         <f t="shared" si="0"/>
         <v>0.42935501588230851</v>
       </c>
-      <c r="V9" s="19">
-        <f t="shared" si="0"/>
-        <v>40.044873585094315</v>
-      </c>
-      <c r="W9" s="19">
+      <c r="W9" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X9" s="19">
+      <c r="X9" s="17">
         <f t="shared" si="0"/>
-        <v>22.856111963608743</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
+    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
     </row>
-    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <f>100*(C4-C8)/C4</f>
         <v>0</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <f t="shared" ref="D11:X11" si="1">100*(D4-D8)/D4</f>
         <v>0</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="16">
         <f t="shared" si="1"/>
         <v>0.27955871310575869</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="16">
         <f t="shared" si="1"/>
         <v>1.694295230943992</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="16">
         <f t="shared" si="1"/>
         <v>2.2097890644945304E-2</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R11" s="16">
         <f t="shared" si="1"/>
-        <v>3.4923349269620298E-2</v>
-      </c>
-      <c r="S11" s="18">
+        <v>3.4201044336114379E-2</v>
+      </c>
+      <c r="S11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="16">
         <f t="shared" si="1"/>
         <v>8.7500926709926138E-2</v>
       </c>
-      <c r="U11" s="18">
+      <c r="U11" s="16">
+        <f t="shared" si="1"/>
+        <v>-9.3091571075414514E-4</v>
+      </c>
+      <c r="V11" s="16">
+        <f t="shared" si="1"/>
+        <v>5.9112597344432506E-2</v>
+      </c>
+      <c r="W11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="18">
-        <f t="shared" si="1"/>
-        <v>5.8182231922134071E-2</v>
-      </c>
-      <c r="W11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="18">
+      <c r="X11" s="16">
         <f t="shared" si="1"/>
         <v>6.9162718628144977E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
+    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="19">
         <f>C9</f>
         <v>0</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19">
         <f>E9</f>
         <v>0</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19">
         <f>G9</f>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16">
+      <c r="H14" s="19"/>
+      <c r="I14" s="19">
         <f>I9</f>
         <v>0</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16">
+      <c r="J14" s="19"/>
+      <c r="K14" s="19">
         <f>K9</f>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16">
+      <c r="L14" s="19"/>
+      <c r="M14" s="19">
         <f>M9</f>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="16">
+      <c r="N14" s="20"/>
+      <c r="O14" s="19">
         <f>O9</f>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="16">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="19">
         <f>Q9</f>
         <v>0.32912008246667857</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="16">
+      <c r="R14" s="20"/>
+      <c r="S14" s="19">
         <f>S9</f>
         <v>1.020697822329222</v>
       </c>
-      <c r="T14" s="17"/>
-      <c r="U14" s="16">
+      <c r="T14" s="20"/>
+      <c r="U14" s="19">
         <f>U9</f>
-        <v>0.42935501588230851</v>
-      </c>
-      <c r="V14" s="17"/>
-      <c r="W14" s="16">
+        <v>0.42842809710485213</v>
+      </c>
+      <c r="V14" s="20"/>
+      <c r="W14" s="19">
         <f>W9</f>
         <v>0</v>
       </c>
-      <c r="X14" s="17"/>
+      <c r="X14" s="20"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
       <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="19">
         <f>D9</f>
-        <v>68.331021729079978</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19">
         <f>F9</f>
-        <v>92.049393414211437</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19">
         <f>H9</f>
-        <v>20.226321795359453</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16">
+        <v>0.28527957398250287</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19">
         <f>J9</f>
-        <v>93.312591883483194</v>
-      </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19">
         <f>L9</f>
-        <v>17.802294524705598</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16">
+        <v>3.6421027072963456E-3</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19">
         <f>N9</f>
-        <v>92.726082519879085</v>
-      </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="16">
+        <v>6.0101272646758694</v>
+      </c>
+      <c r="N15" s="20"/>
+      <c r="O15" s="19">
         <f>P9</f>
-        <v>72.295384277070056</v>
-      </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="16">
+        <v>0.37049121158992121</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="19">
         <f>R9</f>
-        <v>94.68695432266766</v>
-      </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="16">
+        <v>0.32767972407946205</v>
+      </c>
+      <c r="R15" s="20"/>
+      <c r="S15" s="19">
         <f>T9</f>
-        <v>53.760198686608163</v>
-      </c>
-      <c r="T15" s="17"/>
-      <c r="U15" s="16">
+        <v>1.020697822329222</v>
+      </c>
+      <c r="T15" s="20"/>
+      <c r="U15" s="19">
         <f>V9</f>
-        <v>40.044873585094315</v>
-      </c>
-      <c r="V15" s="17"/>
-      <c r="W15" s="16">
+        <v>0.42935501588230851</v>
+      </c>
+      <c r="V15" s="20"/>
+      <c r="W15" s="19">
         <f>X9</f>
-        <v>22.856111963608743</v>
-      </c>
-      <c r="X15" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="20"/>
     </row>
-    <row r="17" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="19">
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19">
         <f>G11</f>
         <v>0</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16">
+      <c r="H17" s="19"/>
+      <c r="I17" s="19">
         <f>I11</f>
         <v>0</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16">
+      <c r="J17" s="19"/>
+      <c r="K17" s="19">
         <f>K11</f>
         <v>0</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16">
+      <c r="L17" s="19"/>
+      <c r="M17" s="19">
         <f>M11</f>
         <v>0.27955871310575869</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16">
+      <c r="N17" s="19"/>
+      <c r="O17" s="19">
         <f>O11</f>
         <v>0</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16">
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19">
         <f>Q11</f>
         <v>2.2097890644945304E-2</v>
       </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16">
+      <c r="R17" s="19"/>
+      <c r="S17" s="19">
         <f>S11</f>
         <v>0</v>
       </c>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16">
+      <c r="T17" s="19"/>
+      <c r="U17" s="19">
         <f>U11</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16">
+        <v>-9.3091571075414514E-4</v>
+      </c>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19">
         <f>W11</f>
         <v>0</v>
       </c>
-      <c r="X17" s="16"/>
+      <c r="X17" s="19"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="19">
         <f>D12</f>
         <v>0</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19">
         <f>F12</f>
         <v>0</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19">
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16">
+      <c r="H18" s="19"/>
+      <c r="I18" s="19">
         <f>J11</f>
         <v>0</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16">
+      <c r="J18" s="19"/>
+      <c r="K18" s="19">
         <f>L11</f>
         <v>0</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16">
+      <c r="L18" s="19"/>
+      <c r="M18" s="19">
         <f>N11</f>
         <v>1.694295230943992</v>
       </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16">
+      <c r="N18" s="19"/>
+      <c r="O18" s="19">
         <f>P11</f>
         <v>0</v>
       </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16">
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19">
         <f>R11</f>
-        <v>3.4923349269620298E-2</v>
-      </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16">
+        <v>3.4201044336114379E-2</v>
+      </c>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19">
         <f>T11</f>
         <v>8.7500926709926138E-2</v>
       </c>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16">
+      <c r="T18" s="19"/>
+      <c r="U18" s="19">
         <f>V11</f>
-        <v>5.8182231922134071E-2</v>
-      </c>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16">
+        <v>5.9112597344432506E-2</v>
+      </c>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19">
         <f>X11</f>
         <v>6.9162718628144977E-3</v>
       </c>
-      <c r="X18" s="16"/>
+      <c r="X18" s="19"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="19">
         <f>C5</f>
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19">
         <f>E5</f>
-        <v>1.4004000000000001</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16">
+        <v>1.6584000000000001</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19">
         <f>G5</f>
-        <v>2.2480000000000002</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16">
+        <v>2.7709999999999999</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19">
         <f>I5</f>
-        <v>12.548</v>
-      </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16">
+        <v>15.633800000000001</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19">
         <f>K5</f>
-        <v>24.2685</v>
-      </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16">
+        <v>32.877600000000001</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19">
         <f>M5</f>
-        <v>56.986699999999999</v>
-      </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="16">
+        <v>64.142099999999999</v>
+      </c>
+      <c r="N20" s="20"/>
+      <c r="O20" s="19">
         <f>O5</f>
-        <v>68.765600000000006</v>
-      </c>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="16">
+        <v>70.239199999999997</v>
+      </c>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="19">
         <f>Q5</f>
-        <v>214.1147</v>
-      </c>
-      <c r="R20" s="17"/>
-      <c r="S20" s="16">
+        <v>128.3947</v>
+      </c>
+      <c r="R20" s="20"/>
+      <c r="S20" s="19">
         <f>S5</f>
-        <v>146.66749999999999</v>
-      </c>
-      <c r="T20" s="17"/>
-      <c r="U20" s="16">
+        <v>142.79310000000001</v>
+      </c>
+      <c r="T20" s="20"/>
+      <c r="U20" s="19">
         <f>U5</f>
-        <v>1119.5581999999999</v>
-      </c>
-      <c r="V20" s="17"/>
-      <c r="W20" s="16">
+        <v>903.16920000000005</v>
+      </c>
+      <c r="V20" s="20"/>
+      <c r="W20" s="19">
         <f>W5</f>
-        <v>3110.0770000000002</v>
-      </c>
-      <c r="X20" s="17"/>
+        <v>2534.8456999999999</v>
+      </c>
+      <c r="X20" s="20"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
       <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="19">
         <f>D5</f>
-        <v>0.41760000000000003</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16">
+        <v>0.39979999999999999</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19">
         <f>F5</f>
-        <v>1.1328</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16">
+        <v>1.1163000000000001</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19">
         <f>H5</f>
-        <v>1.2747999999999999</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16">
+        <v>1.3845000000000001</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19">
         <f>J5</f>
-        <v>10.8955</v>
-      </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16">
+        <v>8.7070000000000007</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19">
         <f>L5</f>
-        <v>16.595099999999999</v>
-      </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16">
+        <v>14.837</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19">
         <f>N5</f>
-        <v>49.031700000000001</v>
-      </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="16">
+        <v>35.283999999999999</v>
+      </c>
+      <c r="N21" s="20"/>
+      <c r="O21" s="19">
         <f>P5</f>
-        <v>71.409499999999994</v>
-      </c>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="16">
+        <v>33.219700000000003</v>
+      </c>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="19">
         <f>R5</f>
-        <v>101.9019</v>
-      </c>
-      <c r="R21" s="17"/>
-      <c r="S21" s="16">
+        <v>63.618000000000002</v>
+      </c>
+      <c r="R21" s="20"/>
+      <c r="S21" s="19">
         <f>T5</f>
-        <v>100.63849999999999</v>
-      </c>
-      <c r="T21" s="17"/>
-      <c r="U21" s="16">
+        <v>61.295900000000003</v>
+      </c>
+      <c r="T21" s="20"/>
+      <c r="U21" s="19">
         <f>V5</f>
-        <v>502.66250000000002</v>
-      </c>
-      <c r="V21" s="17"/>
-      <c r="W21" s="16">
+        <v>448.58699999999999</v>
+      </c>
+      <c r="V21" s="20"/>
+      <c r="W21" s="19">
         <f>X5</f>
-        <v>949.01239999999996</v>
-      </c>
-      <c r="X21" s="17"/>
+        <v>1474.5264</v>
+      </c>
+      <c r="X21" s="20"/>
     </row>
-    <row r="23" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="19">
         <f>C7</f>
         <v>1.7109000000000001</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19">
         <f>E7</f>
         <v>4.1773999999999996</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16">
+      <c r="F23" s="19"/>
+      <c r="G23" s="19">
         <f>G7</f>
         <v>7.0217999999999998</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16">
+      <c r="H23" s="19"/>
+      <c r="I23" s="19">
         <f>I7</f>
         <v>40.732300000000002</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16">
+      <c r="J23" s="19"/>
+      <c r="K23" s="19">
         <f>K7</f>
         <v>75.835999999999999</v>
       </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16">
+      <c r="L23" s="19"/>
+      <c r="M23" s="19">
         <f>M7</f>
         <v>216.99979999999999</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="16">
+      <c r="N23" s="20"/>
+      <c r="O23" s="19">
         <f>O7</f>
         <v>239.67930000000001</v>
       </c>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="16">
+      <c r="P23" s="20"/>
+      <c r="Q23" s="19">
         <f>Q7</f>
         <v>355.51</v>
       </c>
-      <c r="R23" s="17"/>
-      <c r="S23" s="16">
+      <c r="R23" s="20"/>
+      <c r="S23" s="19">
         <f>S7</f>
         <v>408.69720000000001</v>
       </c>
-      <c r="T23" s="17"/>
-      <c r="U23" s="16">
+      <c r="T23" s="20"/>
+      <c r="U23" s="19">
         <f>U7</f>
         <v>1723.3974000000001</v>
       </c>
-      <c r="V23" s="17"/>
-      <c r="W23" s="16">
+      <c r="V23" s="20"/>
+      <c r="W23" s="19">
         <f>W7</f>
         <v>4375.9088000000002</v>
       </c>
-      <c r="X23" s="17"/>
+      <c r="X23" s="20"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
       <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="19">
         <f>D7</f>
         <v>2.1263000000000001</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19">
         <f>F7</f>
         <v>5.3170999999999999</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16">
+      <c r="F24" s="19"/>
+      <c r="G24" s="19">
         <f>H7</f>
         <v>9.0927000000000007</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16">
+      <c r="H24" s="19"/>
+      <c r="I24" s="19">
         <f>J7</f>
         <v>52.798900000000003</v>
       </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16">
+      <c r="J24" s="19"/>
+      <c r="K24" s="19">
         <f>L7</f>
         <v>97.647000000000006</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16">
+      <c r="L24" s="19"/>
+      <c r="M24" s="19">
         <f>N7</f>
         <v>264.70929999999998</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="16">
+      <c r="N24" s="20"/>
+      <c r="O24" s="19">
         <f>P7</f>
         <v>306.41160000000002</v>
       </c>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="16">
+      <c r="P24" s="20"/>
+      <c r="Q24" s="19">
         <f>R7</f>
         <v>440.51830000000001</v>
       </c>
-      <c r="R24" s="17"/>
-      <c r="S24" s="16">
+      <c r="R24" s="20"/>
+      <c r="S24" s="19">
         <f>T7</f>
         <v>524.71289999999999</v>
       </c>
-      <c r="T24" s="17"/>
-      <c r="U24" s="16">
+      <c r="T24" s="20"/>
+      <c r="U24" s="19">
         <f>V7</f>
         <v>2735.4942999999998</v>
       </c>
-      <c r="V24" s="17"/>
-      <c r="W24" s="16">
+      <c r="V24" s="20"/>
+      <c r="W24" s="19">
         <f>X7</f>
         <v>6280.2394000000004</v>
       </c>
-      <c r="X24" s="17"/>
+      <c r="X24" s="20"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="19">
         <f>C3</f>
-        <v>1.7273000000000001</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16">
+        <v>1.5461</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="19">
         <f>E3</f>
-        <v>4.1628999999999996</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="16">
+        <v>3.9401000000000002</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19">
         <f>G3</f>
-        <v>6.8209</v>
-      </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="16">
+        <v>6.3446999999999996</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="19">
         <f>I3</f>
-        <v>41.4071</v>
-      </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="16">
+        <v>38.189</v>
+      </c>
+      <c r="J26" s="20"/>
+      <c r="K26" s="19">
         <f>K3</f>
-        <v>78.743700000000004</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="16">
+        <v>72.674499999999995</v>
+      </c>
+      <c r="L26" s="20"/>
+      <c r="M26" s="19">
         <f>M3</f>
-        <v>170.92840000000001</v>
-      </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="16">
+        <v>161.48249999999999</v>
+      </c>
+      <c r="N26" s="20"/>
+      <c r="O26" s="19">
         <f>O3</f>
-        <v>241.78319999999999</v>
-      </c>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="16">
+        <v>223.24950000000001</v>
+      </c>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="19">
         <f>Q3</f>
-        <v>349.49630000000002</v>
-      </c>
-      <c r="R26" s="17"/>
-      <c r="S26" s="16">
+        <v>324.71039999999999</v>
+      </c>
+      <c r="R26" s="20"/>
+      <c r="S26" s="19">
         <f>S3</f>
-        <v>481.68459999999999</v>
-      </c>
-      <c r="T26" s="17"/>
-      <c r="U26" s="16">
+        <v>464.81439999999998</v>
+      </c>
+      <c r="T26" s="20"/>
+      <c r="U26" s="19">
         <f>U3</f>
-        <v>1737.4111</v>
-      </c>
-      <c r="V26" s="17"/>
-      <c r="W26" s="16">
+        <v>1655.0168000000001</v>
+      </c>
+      <c r="V26" s="20"/>
+      <c r="W26" s="19">
         <f>W3</f>
-        <v>4137.1850000000004</v>
-      </c>
-      <c r="X26" s="17"/>
+        <v>2945.4787999999999</v>
+      </c>
+      <c r="X26" s="20"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
       <c r="B27" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="19">
         <f>D3</f>
-        <v>2.1082000000000001</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16">
+        <v>1.9312</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="19">
         <f>F3</f>
-        <v>5.2069000000000001</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="16">
+        <v>5.1288999999999998</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19">
         <f>H3</f>
-        <v>8.9001999999999999</v>
-      </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="16">
+        <v>8.5748999999999995</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="19">
         <f>J3</f>
-        <v>53.0306</v>
-      </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="16">
+        <v>48.531300000000002</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="K27" s="19">
         <f>L3</f>
-        <v>100.505</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="16">
+        <v>93.75</v>
+      </c>
+      <c r="L27" s="20"/>
+      <c r="M27" s="19">
         <f>N3</f>
-        <v>232.1129</v>
-      </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="16">
+        <v>225.67140000000001</v>
+      </c>
+      <c r="N27" s="20"/>
+      <c r="O27" s="19">
         <f>P3</f>
-        <v>315.72129999999999</v>
-      </c>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="16">
+        <v>301.35610000000003</v>
+      </c>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="19">
         <f>R3</f>
-        <v>562.97770000000003</v>
-      </c>
-      <c r="R27" s="17"/>
-      <c r="S27" s="16">
+        <v>478.46609999999998</v>
+      </c>
+      <c r="R27" s="20"/>
+      <c r="S27" s="19">
         <f>T3</f>
-        <v>574.70550000000003</v>
-      </c>
-      <c r="T27" s="17"/>
-      <c r="U27" s="16">
+        <v>580.44349999999997</v>
+      </c>
+      <c r="T27" s="20"/>
+      <c r="U27" s="19">
         <f>V3</f>
-        <v>2568.6952000000001</v>
-      </c>
-      <c r="V27" s="17"/>
-      <c r="W27" s="16">
+        <v>2248.9456</v>
+      </c>
+      <c r="V27" s="20"/>
+      <c r="W27" s="19">
         <f>X3</f>
-        <v>5800.5664999999999</v>
-      </c>
-      <c r="X27" s="17"/>
+        <v>4131.8188</v>
+      </c>
+      <c r="X27" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="M18:N18"/>
@@ -7875,98 +8442,74 @@
     <mergeCell ref="W14:X14"/>
     <mergeCell ref="U14:V14"/>
     <mergeCell ref="S14:T14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\workspaces\python\copt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47995F3E-B5B8-42C7-85B8-2083D1490DB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B9F1CD-3F9B-4CEB-A31D-D03CB261B57B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14655" activeTab="2" xr2:uid="{52A98BD8-4E11-A341-8E33-FFC30D64FA33}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14655" xr2:uid="{52A98BD8-4E11-A341-8E33-FFC30D64FA33}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -315,18 +315,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -334,6 +329,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1840,7 +1840,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2097890644945304E-2</c:v>
+                  <c:v>2.1435556047957841E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1967,22 +1967,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.694295230943992</c:v>
+                  <c:v>0.28803018926047863</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4201044336114379E-2</c:v>
+                  <c:v>3.3177421530279964E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.7500926709926138E-2</c:v>
+                  <c:v>1.6827101290370412E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9112597344432506E-2</c:v>
+                  <c:v>8.688465751412652E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9162718628144977E-3</c:v>
+                  <c:v>5.6246789245780558E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2603,37 +2603,37 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.7109000000000001</c:v>
+                  <c:v>1.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1773999999999996</c:v>
+                  <c:v>3.5937999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0217999999999998</c:v>
+                  <c:v>5.7656000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.732300000000002</c:v>
+                  <c:v>35.382899999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.835999999999999</c:v>
+                  <c:v>64.046899999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>216.99979999999999</c:v>
+                  <c:v>188.39060000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>239.67930000000001</c:v>
+                  <c:v>216.10939999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>355.51</c:v>
+                  <c:v>311.26560000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>408.69720000000001</c:v>
+                  <c:v>365.04689999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1723.3974000000001</c:v>
+                  <c:v>1575.6561999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4375.9088000000002</c:v>
+                  <c:v>2794.1891000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2736,37 +2736,37 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.1263000000000001</c:v>
+                  <c:v>1.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3170999999999999</c:v>
+                  <c:v>4.4062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0927000000000007</c:v>
+                  <c:v>7.5156000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.798900000000003</c:v>
+                  <c:v>44.488599999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.647000000000006</c:v>
+                  <c:v>80.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>264.70929999999998</c:v>
+                  <c:v>224.54689999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>306.41160000000002</c:v>
+                  <c:v>271.32810000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>440.51830000000001</c:v>
+                  <c:v>387.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>524.71289999999999</c:v>
+                  <c:v>440.04689999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2735.4942999999998</c:v>
+                  <c:v>2883.3281000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6280.2394000000004</c:v>
+                  <c:v>3410.9778999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2899,7 +2899,7 @@
                   <c:v>1655.0168000000001</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.00">
-                  <c:v>2945.4787999999999</c:v>
+                  <c:v>3689.8222000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3032,7 +3032,7 @@
                   <c:v>2248.9456</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.00">
-                  <c:v>4131.8188</c:v>
+                  <c:v>5671.4978000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5562,13 +5562,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>38106</xdr:colOff>
+      <xdr:colOff>66681</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>117475</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -5897,8 +5897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EEADE2-A9B3-674B-BA9B-72229A521D77}">
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6339,7 +6339,7 @@
   <dimension ref="A2:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G10"/>
+      <selection activeCell="L9" sqref="L9:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6392,7 +6392,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6442,7 +6442,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -6490,7 +6490,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6540,7 +6540,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -6588,7 +6588,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -6638,7 +6638,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -6686,179 +6686,182 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <f t="shared" ref="C9:P9" si="0">100*((C4-C6)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="15">
         <f t="shared" si="0"/>
         <v>0.28331679676410071</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="15">
         <f t="shared" si="0"/>
         <v>6.6721378395387205</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="15">
         <f t="shared" si="0"/>
         <v>1.4825105598988066E-2</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="15">
         <f t="shared" si="0"/>
         <v>0.21084435931048381</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="15">
         <f t="shared" si="0"/>
         <v>0.12111948505301814</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="15">
         <f t="shared" si="0"/>
         <v>4.0020902606961082</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="15">
         <f t="shared" si="0"/>
         <v>8.8497113987194301E-2</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="15">
         <f t="shared" si="0"/>
         <v>16.735867692541735</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="15">
         <f t="shared" si="0"/>
         <v>2.5065027300464802E-2</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="15">
         <f t="shared" si="0"/>
         <v>2.4661736476073174E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="15">
         <f t="shared" ref="C11:P11" si="1">100*((C4-C8)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="15">
         <f t="shared" si="1"/>
         <v>1.0851631997006446</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="15">
         <f t="shared" si="1"/>
         <v>2.3672346037093849E-2</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="15">
         <f t="shared" si="1"/>
         <v>2.3495459874602515E-2</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="15">
         <f t="shared" si="1"/>
         <v>4.1650458033726358E-3</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="15">
         <f t="shared" si="1"/>
         <v>7.0374062210216401E-2</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="15">
         <f t="shared" si="1"/>
         <v>1.1870917907007463E-3</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="15">
         <f t="shared" si="1"/>
         <v>1.0179336691022478E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -6875,17 +6878,14 @@
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="N11:N12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6897,11 +6897,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F31A019-EF8C-8649-B7F3-D195899C8CF2}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6912,50 +6912,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18" t="s">
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18" t="s">
+      <c r="R1" s="20"/>
+      <c r="S1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18" t="s">
+      <c r="T1" s="20"/>
+      <c r="U1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18" t="s">
+      <c r="V1" s="20"/>
+      <c r="W1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="18"/>
+      <c r="X1" s="20"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
@@ -7026,7 +7026,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7035,52 +7035,52 @@
       <c r="C3" s="13">
         <v>1.5461</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>1.9312</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>3.9401000000000002</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>5.1288999999999998</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>6.3446999999999996</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>8.5748999999999995</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <v>38.189</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>48.531300000000002</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <v>72.674499999999995</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <v>93.75</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <v>161.48249999999999</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="12">
         <v>225.67140000000001</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="12">
         <v>223.24950000000001</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="12">
         <v>301.35610000000003</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="12">
         <v>324.71039999999999</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="12">
         <v>478.46609999999998</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="12">
         <v>464.81439999999998</v>
       </c>
       <c r="T3" s="13">
@@ -7093,1283 +7093,1354 @@
         <v>2248.9456</v>
       </c>
       <c r="W3" s="13">
-        <v>2945.4787999999999</v>
+        <v>3689.8222000000001</v>
       </c>
       <c r="X3" s="13">
-        <v>4131.8188</v>
+        <v>5671.4978000000001</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>15141</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>15141</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>18464</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>18464</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>63096</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>63096</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>87747</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>87747</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>329480</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <v>329480</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <v>779085</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <v>779085</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="11">
         <v>1673454</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>1673454</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <v>1660792</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="11">
         <v>1660768</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="11">
         <v>2050264</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="11">
         <v>2050264</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="11">
         <v>5800740</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="11">
         <v>5800794</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="11">
         <v>4800274</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="11">
         <v>4800274</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>0.67100000000000004</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>0.39979999999999999</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>1.6584000000000001</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>1.1163000000000001</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>2.7709999999999999</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>1.3845000000000001</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>15.633800000000001</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>8.7070000000000007</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>32.877600000000001</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>14.837</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <v>64.142099999999999</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="12">
         <v>35.283999999999999</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="12">
         <v>70.239199999999997</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="12">
         <v>33.219700000000003</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="12">
         <v>128.3947</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="12">
         <v>63.618000000000002</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="12">
         <v>142.79310000000001</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="12">
         <v>61.295900000000003</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="12">
         <v>903.16920000000005</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="12">
         <v>448.58699999999999</v>
       </c>
-      <c r="W5" s="13">
+      <c r="W5" s="12">
         <v>2534.8456999999999</v>
       </c>
-      <c r="X5" s="13">
+      <c r="X5" s="12">
         <v>1474.5264</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>15141</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>15141</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>18464</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>18464</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>62916</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>62916</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>87747</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>87747</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>329468</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <v>329468</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>732261</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <v>732261</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="11">
         <v>1667254</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="11">
         <v>1667254</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="11">
         <v>1655326</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="11">
         <v>1655326</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="11">
         <v>2029337</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="11">
         <v>2029337</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="11">
         <v>5775888</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="11">
         <v>5775888</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="11">
         <v>4800274</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="11">
         <v>4800274</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="11">
-        <v>1.7109000000000001</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2.1263000000000001</v>
-      </c>
-      <c r="E7" s="11">
-        <v>4.1773999999999996</v>
-      </c>
-      <c r="F7" s="11">
-        <v>5.3170999999999999</v>
-      </c>
-      <c r="G7" s="11">
-        <v>7.0217999999999998</v>
-      </c>
-      <c r="H7" s="11">
-        <v>9.0927000000000007</v>
-      </c>
-      <c r="I7" s="11">
-        <v>40.732300000000002</v>
-      </c>
-      <c r="J7" s="11">
-        <v>52.798900000000003</v>
-      </c>
-      <c r="K7" s="11">
-        <v>75.835999999999999</v>
-      </c>
-      <c r="L7" s="11">
-        <v>97.647000000000006</v>
-      </c>
-      <c r="M7" s="11">
-        <v>216.99979999999999</v>
-      </c>
-      <c r="N7" s="11">
-        <v>264.70929999999998</v>
-      </c>
-      <c r="O7" s="11">
-        <v>239.67930000000001</v>
-      </c>
-      <c r="P7" s="11">
-        <v>306.41160000000002</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>355.51</v>
-      </c>
-      <c r="R7" s="11">
-        <v>440.51830000000001</v>
-      </c>
-      <c r="S7" s="11">
-        <v>408.69720000000001</v>
-      </c>
-      <c r="T7" s="11">
-        <v>524.71289999999999</v>
-      </c>
-      <c r="U7" s="11">
-        <v>1723.3974000000001</v>
-      </c>
-      <c r="V7" s="11">
-        <v>2735.4942999999998</v>
-      </c>
-      <c r="W7" s="11">
-        <v>4375.9088000000002</v>
-      </c>
-      <c r="X7" s="11">
-        <v>6280.2394000000004</v>
+      <c r="C7" s="13">
+        <v>1.625</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1.875</v>
+      </c>
+      <c r="E7" s="13">
+        <v>3.5937999999999999</v>
+      </c>
+      <c r="F7" s="13">
+        <v>4.4062000000000001</v>
+      </c>
+      <c r="G7" s="13">
+        <v>5.7656000000000001</v>
+      </c>
+      <c r="H7" s="13">
+        <v>7.5156000000000001</v>
+      </c>
+      <c r="I7" s="13">
+        <v>35.382899999999999</v>
+      </c>
+      <c r="J7" s="13">
+        <v>44.488599999999998</v>
+      </c>
+      <c r="K7" s="13">
+        <v>64.046899999999994</v>
+      </c>
+      <c r="L7" s="13">
+        <v>80.75</v>
+      </c>
+      <c r="M7" s="13">
+        <v>188.39060000000001</v>
+      </c>
+      <c r="N7" s="13">
+        <v>224.54689999999999</v>
+      </c>
+      <c r="O7" s="13">
+        <v>216.10939999999999</v>
+      </c>
+      <c r="P7" s="13">
+        <v>271.32810000000001</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>311.26560000000001</v>
+      </c>
+      <c r="R7" s="13">
+        <v>387.5</v>
+      </c>
+      <c r="S7" s="13">
+        <v>365.04689999999999</v>
+      </c>
+      <c r="T7" s="13">
+        <v>440.04689999999999</v>
+      </c>
+      <c r="U7" s="13">
+        <v>1575.6561999999999</v>
+      </c>
+      <c r="V7" s="13">
+        <v>2883.3281000000002</v>
+      </c>
+      <c r="W7" s="13">
+        <v>2794.1891000000001</v>
+      </c>
+      <c r="X7" s="13">
+        <v>3410.9778999999999</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>15141</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>15141</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>18464</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>18464</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>63096</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>63096</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>87747</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>87747</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>329480</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>329480</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <v>776907</v>
       </c>
-      <c r="N8" s="12">
-        <v>765885</v>
-      </c>
-      <c r="O8" s="12">
+      <c r="N8" s="11">
+        <v>776841</v>
+      </c>
+      <c r="O8" s="11">
         <v>1673454</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="11">
         <v>1673454</v>
       </c>
-      <c r="Q8" s="12">
-        <v>1660425</v>
-      </c>
-      <c r="R8" s="12">
-        <v>1660200</v>
-      </c>
-      <c r="S8" s="12">
+      <c r="Q8" s="11">
+        <v>1660436</v>
+      </c>
+      <c r="R8" s="11">
+        <v>1660217</v>
+      </c>
+      <c r="S8" s="11">
         <v>2050264</v>
       </c>
-      <c r="T8" s="12">
-        <v>2048470</v>
-      </c>
-      <c r="U8" s="12">
+      <c r="T8" s="11">
+        <v>2049919</v>
+      </c>
+      <c r="U8" s="11">
         <v>5800794</v>
       </c>
-      <c r="V8" s="12">
-        <v>5797365</v>
-      </c>
-      <c r="W8" s="12">
+      <c r="V8" s="11">
+        <v>5800290</v>
+      </c>
+      <c r="W8" s="11">
         <v>4800274</v>
       </c>
-      <c r="X8" s="12">
-        <v>4799942</v>
+      <c r="X8" s="11">
+        <v>4800004</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="19">
         <f>100*(C4-C6)/C4</f>
         <v>0</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="19">
         <f t="shared" ref="D9:X9" si="0">100*(D4-D6)/D4</f>
         <v>0</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="19">
         <f t="shared" si="0"/>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="19">
         <f t="shared" si="0"/>
         <v>0.28527957398250287</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="19">
         <f t="shared" si="0"/>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="19">
         <f t="shared" si="0"/>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="19">
         <f t="shared" si="0"/>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="19">
         <f t="shared" si="0"/>
         <v>6.0101272646758694</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="19">
         <f t="shared" si="0"/>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="19">
         <f t="shared" si="0"/>
         <v>0.37049121158992121</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="19">
         <f t="shared" si="0"/>
         <v>0.32912008246667857</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="19">
         <f t="shared" si="0"/>
         <v>0.32767972407946205</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="19">
         <f t="shared" si="0"/>
         <v>1.020697822329222</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="19">
         <f t="shared" si="0"/>
         <v>1.020697822329222</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="19">
         <f t="shared" si="0"/>
         <v>0.42842809710485213</v>
       </c>
-      <c r="V9" s="17">
+      <c r="V9" s="19">
         <f t="shared" si="0"/>
         <v>0.42935501588230851</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="18">
         <f>100*(C4-C8)/C4</f>
         <v>0</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="18">
         <f t="shared" ref="D11:X11" si="1">100*(D4-D8)/D4</f>
         <v>0</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="18">
         <f t="shared" si="1"/>
         <v>0.27955871310575869</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="18">
         <f t="shared" si="1"/>
-        <v>1.694295230943992</v>
-      </c>
-      <c r="O11" s="16">
+        <v>0.28803018926047863</v>
+      </c>
+      <c r="O11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="18">
         <f t="shared" si="1"/>
-        <v>2.2097890644945304E-2</v>
-      </c>
-      <c r="R11" s="16">
+        <v>2.1435556047957841E-2</v>
+      </c>
+      <c r="R11" s="18">
         <f t="shared" si="1"/>
-        <v>3.4201044336114379E-2</v>
-      </c>
-      <c r="S11" s="16">
+        <v>3.3177421530279964E-2</v>
+      </c>
+      <c r="S11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="18">
         <f t="shared" si="1"/>
-        <v>8.7500926709926138E-2</v>
-      </c>
-      <c r="U11" s="16">
+        <v>1.6827101290370412E-2</v>
+      </c>
+      <c r="U11" s="18">
         <f t="shared" si="1"/>
         <v>-9.3091571075414514E-4</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="18">
         <f t="shared" si="1"/>
-        <v>5.9112597344432506E-2</v>
-      </c>
-      <c r="W11" s="16">
+        <v>8.688465751412652E-3</v>
+      </c>
+      <c r="W11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X11" s="16">
+      <c r="X11" s="18">
         <f t="shared" si="1"/>
-        <v>6.9162718628144977E-3</v>
+        <v>5.6246789245780558E-3</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="16">
         <f>C9</f>
         <v>0</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16">
         <f>E9</f>
         <v>0</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
         <f>G9</f>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16">
         <f>I9</f>
         <v>0</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19">
+      <c r="J14" s="16"/>
+      <c r="K14" s="16">
         <f>K9</f>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19">
+      <c r="L14" s="16"/>
+      <c r="M14" s="16">
         <f>M9</f>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="19">
+      <c r="N14" s="17"/>
+      <c r="O14" s="16">
         <f>O9</f>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="19">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="16">
         <f>Q9</f>
         <v>0.32912008246667857</v>
       </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="19">
+      <c r="R14" s="17"/>
+      <c r="S14" s="16">
         <f>S9</f>
         <v>1.020697822329222</v>
       </c>
-      <c r="T14" s="20"/>
-      <c r="U14" s="19">
+      <c r="T14" s="17"/>
+      <c r="U14" s="16">
         <f>U9</f>
         <v>0.42842809710485213</v>
       </c>
-      <c r="V14" s="20"/>
-      <c r="W14" s="19">
+      <c r="V14" s="17"/>
+      <c r="W14" s="16">
         <f>W9</f>
         <v>0</v>
       </c>
-      <c r="X14" s="20"/>
+      <c r="X14" s="17"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="16">
         <f>D9</f>
         <v>0</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16">
         <f>H9</f>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16">
         <f>J9</f>
         <v>0</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19">
+      <c r="J15" s="16"/>
+      <c r="K15" s="16">
         <f>L9</f>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19">
+      <c r="L15" s="16"/>
+      <c r="M15" s="16">
         <f>N9</f>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="19">
+      <c r="N15" s="17"/>
+      <c r="O15" s="16">
         <f>P9</f>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="19">
+      <c r="P15" s="17"/>
+      <c r="Q15" s="16">
         <f>R9</f>
         <v>0.32767972407946205</v>
       </c>
-      <c r="R15" s="20"/>
-      <c r="S15" s="19">
+      <c r="R15" s="17"/>
+      <c r="S15" s="16">
         <f>T9</f>
         <v>1.020697822329222</v>
       </c>
-      <c r="T15" s="20"/>
-      <c r="U15" s="19">
+      <c r="T15" s="17"/>
+      <c r="U15" s="16">
         <f>V9</f>
         <v>0.42935501588230851</v>
       </c>
-      <c r="V15" s="20"/>
-      <c r="W15" s="19">
+      <c r="V15" s="17"/>
+      <c r="W15" s="16">
         <f>X9</f>
         <v>0</v>
       </c>
-      <c r="X15" s="20"/>
+      <c r="X15" s="17"/>
     </row>
     <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="16">
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16">
         <f>G11</f>
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19">
+      <c r="H17" s="16"/>
+      <c r="I17" s="16">
         <f>I11</f>
         <v>0</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19">
+      <c r="J17" s="16"/>
+      <c r="K17" s="16">
         <f>K11</f>
         <v>0</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19">
+      <c r="L17" s="16"/>
+      <c r="M17" s="16">
         <f>M11</f>
         <v>0.27955871310575869</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19">
+      <c r="N17" s="16"/>
+      <c r="O17" s="16">
         <f>O11</f>
         <v>0</v>
       </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19">
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16">
         <f>Q11</f>
-        <v>2.2097890644945304E-2</v>
-      </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19">
+        <v>2.1435556047957841E-2</v>
+      </c>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16">
         <f>S11</f>
         <v>0</v>
       </c>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19">
+      <c r="T17" s="16"/>
+      <c r="U17" s="16">
         <f>U11</f>
         <v>-9.3091571075414514E-4</v>
       </c>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19">
+      <c r="V17" s="16"/>
+      <c r="W17" s="16">
         <f>W11</f>
         <v>0</v>
       </c>
-      <c r="X17" s="19"/>
+      <c r="X17" s="16"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="16">
         <f>D12</f>
         <v>0</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16">
         <f>F12</f>
         <v>0</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16">
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16">
         <f>J11</f>
         <v>0</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16">
         <f>L11</f>
         <v>0</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19">
+      <c r="L18" s="16"/>
+      <c r="M18" s="16">
         <f>N11</f>
-        <v>1.694295230943992</v>
-      </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19">
+        <v>0.28803018926047863</v>
+      </c>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16">
         <f>P11</f>
         <v>0</v>
       </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19">
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16">
         <f>R11</f>
-        <v>3.4201044336114379E-2</v>
-      </c>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19">
+        <v>3.3177421530279964E-2</v>
+      </c>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16">
         <f>T11</f>
-        <v>8.7500926709926138E-2</v>
-      </c>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19">
+        <v>1.6827101290370412E-2</v>
+      </c>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16">
         <f>V11</f>
-        <v>5.9112597344432506E-2</v>
-      </c>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19">
+        <v>8.688465751412652E-3</v>
+      </c>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16">
         <f>X11</f>
-        <v>6.9162718628144977E-3</v>
-      </c>
-      <c r="X18" s="19"/>
+        <v>5.6246789245780558E-3</v>
+      </c>
+      <c r="X18" s="16"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="16">
         <f>C5</f>
         <v>0.67100000000000004</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16">
         <f>E5</f>
         <v>1.6584000000000001</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16">
         <f>G5</f>
         <v>2.7709999999999999</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19">
+      <c r="H20" s="16"/>
+      <c r="I20" s="16">
         <f>I5</f>
         <v>15.633800000000001</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16">
         <f>K5</f>
         <v>32.877600000000001</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19">
+      <c r="L20" s="16"/>
+      <c r="M20" s="16">
         <f>M5</f>
         <v>64.142099999999999</v>
       </c>
-      <c r="N20" s="20"/>
-      <c r="O20" s="19">
+      <c r="N20" s="17"/>
+      <c r="O20" s="16">
         <f>O5</f>
         <v>70.239199999999997</v>
       </c>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="19">
+      <c r="P20" s="17"/>
+      <c r="Q20" s="16">
         <f>Q5</f>
         <v>128.3947</v>
       </c>
-      <c r="R20" s="20"/>
-      <c r="S20" s="19">
+      <c r="R20" s="17"/>
+      <c r="S20" s="16">
         <f>S5</f>
         <v>142.79310000000001</v>
       </c>
-      <c r="T20" s="20"/>
-      <c r="U20" s="19">
+      <c r="T20" s="17"/>
+      <c r="U20" s="16">
         <f>U5</f>
         <v>903.16920000000005</v>
       </c>
-      <c r="V20" s="20"/>
-      <c r="W20" s="19">
+      <c r="V20" s="17"/>
+      <c r="W20" s="16">
         <f>W5</f>
         <v>2534.8456999999999</v>
       </c>
-      <c r="X20" s="20"/>
+      <c r="X20" s="17"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="14"/>
       <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="16">
         <f>D5</f>
         <v>0.39979999999999999</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16">
         <f>F5</f>
         <v>1.1163000000000001</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16">
         <f>H5</f>
         <v>1.3845000000000001</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19">
+      <c r="H21" s="16"/>
+      <c r="I21" s="16">
         <f>J5</f>
         <v>8.7070000000000007</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19">
+      <c r="J21" s="16"/>
+      <c r="K21" s="16">
         <f>L5</f>
         <v>14.837</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19">
+      <c r="L21" s="16"/>
+      <c r="M21" s="16">
         <f>N5</f>
         <v>35.283999999999999</v>
       </c>
-      <c r="N21" s="20"/>
-      <c r="O21" s="19">
+      <c r="N21" s="17"/>
+      <c r="O21" s="16">
         <f>P5</f>
         <v>33.219700000000003</v>
       </c>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="19">
+      <c r="P21" s="17"/>
+      <c r="Q21" s="16">
         <f>R5</f>
         <v>63.618000000000002</v>
       </c>
-      <c r="R21" s="20"/>
-      <c r="S21" s="19">
+      <c r="R21" s="17"/>
+      <c r="S21" s="16">
         <f>T5</f>
         <v>61.295900000000003</v>
       </c>
-      <c r="T21" s="20"/>
-      <c r="U21" s="19">
+      <c r="T21" s="17"/>
+      <c r="U21" s="16">
         <f>V5</f>
         <v>448.58699999999999</v>
       </c>
-      <c r="V21" s="20"/>
-      <c r="W21" s="19">
+      <c r="V21" s="17"/>
+      <c r="W21" s="16">
         <f>X5</f>
         <v>1474.5264</v>
       </c>
-      <c r="X21" s="20"/>
+      <c r="X21" s="17"/>
     </row>
     <row r="23" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="16">
         <f>C7</f>
-        <v>1.7109000000000001</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19">
+        <v>1.625</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16">
         <f>E7</f>
-        <v>4.1773999999999996</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19">
+        <v>3.5937999999999999</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16">
         <f>G7</f>
-        <v>7.0217999999999998</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19">
+        <v>5.7656000000000001</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16">
         <f>I7</f>
-        <v>40.732300000000002</v>
-      </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19">
+        <v>35.382899999999999</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16">
         <f>K7</f>
-        <v>75.835999999999999</v>
-      </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19">
+        <v>64.046899999999994</v>
+      </c>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16">
         <f>M7</f>
-        <v>216.99979999999999</v>
-      </c>
-      <c r="N23" s="20"/>
-      <c r="O23" s="19">
+        <v>188.39060000000001</v>
+      </c>
+      <c r="N23" s="17"/>
+      <c r="O23" s="16">
         <f>O7</f>
-        <v>239.67930000000001</v>
-      </c>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="19">
+        <v>216.10939999999999</v>
+      </c>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="16">
         <f>Q7</f>
-        <v>355.51</v>
-      </c>
-      <c r="R23" s="20"/>
-      <c r="S23" s="19">
+        <v>311.26560000000001</v>
+      </c>
+      <c r="R23" s="17"/>
+      <c r="S23" s="16">
         <f>S7</f>
-        <v>408.69720000000001</v>
-      </c>
-      <c r="T23" s="20"/>
-      <c r="U23" s="19">
+        <v>365.04689999999999</v>
+      </c>
+      <c r="T23" s="17"/>
+      <c r="U23" s="16">
         <f>U7</f>
-        <v>1723.3974000000001</v>
-      </c>
-      <c r="V23" s="20"/>
-      <c r="W23" s="19">
+        <v>1575.6561999999999</v>
+      </c>
+      <c r="V23" s="17"/>
+      <c r="W23" s="16">
         <f>W7</f>
-        <v>4375.9088000000002</v>
-      </c>
-      <c r="X23" s="20"/>
+        <v>2794.1891000000001</v>
+      </c>
+      <c r="X23" s="17"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="16">
         <f>D7</f>
-        <v>2.1263000000000001</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19">
+        <v>1.875</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16">
         <f>F7</f>
-        <v>5.3170999999999999</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19">
+        <v>4.4062000000000001</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16">
         <f>H7</f>
-        <v>9.0927000000000007</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19">
+        <v>7.5156000000000001</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16">
         <f>J7</f>
-        <v>52.798900000000003</v>
-      </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19">
+        <v>44.488599999999998</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16">
         <f>L7</f>
-        <v>97.647000000000006</v>
-      </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19">
+        <v>80.75</v>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16">
         <f>N7</f>
-        <v>264.70929999999998</v>
-      </c>
-      <c r="N24" s="20"/>
-      <c r="O24" s="19">
+        <v>224.54689999999999</v>
+      </c>
+      <c r="N24" s="17"/>
+      <c r="O24" s="16">
         <f>P7</f>
-        <v>306.41160000000002</v>
-      </c>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="19">
+        <v>271.32810000000001</v>
+      </c>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="16">
         <f>R7</f>
-        <v>440.51830000000001</v>
-      </c>
-      <c r="R24" s="20"/>
-      <c r="S24" s="19">
+        <v>387.5</v>
+      </c>
+      <c r="R24" s="17"/>
+      <c r="S24" s="16">
         <f>T7</f>
-        <v>524.71289999999999</v>
-      </c>
-      <c r="T24" s="20"/>
-      <c r="U24" s="19">
+        <v>440.04689999999999</v>
+      </c>
+      <c r="T24" s="17"/>
+      <c r="U24" s="16">
         <f>V7</f>
-        <v>2735.4942999999998</v>
-      </c>
-      <c r="V24" s="20"/>
-      <c r="W24" s="19">
+        <v>2883.3281000000002</v>
+      </c>
+      <c r="V24" s="17"/>
+      <c r="W24" s="16">
         <f>X7</f>
-        <v>6280.2394000000004</v>
-      </c>
-      <c r="X24" s="20"/>
+        <v>3410.9778999999999</v>
+      </c>
+      <c r="X24" s="17"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="16">
         <f>C3</f>
         <v>1.5461</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19">
+      <c r="D26" s="17"/>
+      <c r="E26" s="16">
         <f>E3</f>
         <v>3.9401000000000002</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="19">
+      <c r="F26" s="17"/>
+      <c r="G26" s="16">
         <f>G3</f>
         <v>6.3446999999999996</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="19">
+      <c r="H26" s="17"/>
+      <c r="I26" s="16">
         <f>I3</f>
         <v>38.189</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="19">
+      <c r="J26" s="17"/>
+      <c r="K26" s="16">
         <f>K3</f>
         <v>72.674499999999995</v>
       </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="19">
+      <c r="L26" s="17"/>
+      <c r="M26" s="16">
         <f>M3</f>
         <v>161.48249999999999</v>
       </c>
-      <c r="N26" s="20"/>
-      <c r="O26" s="19">
+      <c r="N26" s="17"/>
+      <c r="O26" s="16">
         <f>O3</f>
         <v>223.24950000000001</v>
       </c>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="19">
+      <c r="P26" s="17"/>
+      <c r="Q26" s="16">
         <f>Q3</f>
         <v>324.71039999999999</v>
       </c>
-      <c r="R26" s="20"/>
-      <c r="S26" s="19">
+      <c r="R26" s="17"/>
+      <c r="S26" s="16">
         <f>S3</f>
         <v>464.81439999999998</v>
       </c>
-      <c r="T26" s="20"/>
-      <c r="U26" s="19">
+      <c r="T26" s="17"/>
+      <c r="U26" s="16">
         <f>U3</f>
         <v>1655.0168000000001</v>
       </c>
-      <c r="V26" s="20"/>
-      <c r="W26" s="19">
+      <c r="V26" s="17"/>
+      <c r="W26" s="16">
         <f>W3</f>
-        <v>2945.4787999999999</v>
-      </c>
-      <c r="X26" s="20"/>
+        <v>3689.8222000000001</v>
+      </c>
+      <c r="X26" s="17"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="14"/>
       <c r="B27" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="16">
         <f>D3</f>
         <v>1.9312</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19">
+      <c r="D27" s="17"/>
+      <c r="E27" s="16">
         <f>F3</f>
         <v>5.1288999999999998</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="19">
+      <c r="F27" s="17"/>
+      <c r="G27" s="16">
         <f>H3</f>
         <v>8.5748999999999995</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="19">
+      <c r="H27" s="17"/>
+      <c r="I27" s="16">
         <f>J3</f>
         <v>48.531300000000002</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="19">
+      <c r="J27" s="17"/>
+      <c r="K27" s="16">
         <f>L3</f>
         <v>93.75</v>
       </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="19">
+      <c r="L27" s="17"/>
+      <c r="M27" s="16">
         <f>N3</f>
         <v>225.67140000000001</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="19">
+      <c r="N27" s="17"/>
+      <c r="O27" s="16">
         <f>P3</f>
         <v>301.35610000000003</v>
       </c>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="19">
+      <c r="P27" s="17"/>
+      <c r="Q27" s="16">
         <f>R3</f>
         <v>478.46609999999998</v>
       </c>
-      <c r="R27" s="20"/>
-      <c r="S27" s="19">
+      <c r="R27" s="17"/>
+      <c r="S27" s="16">
         <f>T3</f>
         <v>580.44349999999997</v>
       </c>
-      <c r="T27" s="20"/>
-      <c r="U27" s="19">
+      <c r="T27" s="17"/>
+      <c r="U27" s="16">
         <f>V3</f>
         <v>2248.9456</v>
       </c>
-      <c r="V27" s="20"/>
-      <c r="W27" s="19">
+      <c r="V27" s="17"/>
+      <c r="W27" s="16">
         <f>X3</f>
-        <v>4131.8188</v>
-      </c>
-      <c r="X27" s="20"/>
+        <v>5671.4978000000001</v>
+      </c>
+      <c r="X27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
@@ -8394,118 +8465,47 @@
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\workspaces\python\copt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B9F1CD-3F9B-4CEB-A31D-D03CB261B57B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEC114C-F1E0-4405-A9DA-0934906677BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14655" xr2:uid="{52A98BD8-4E11-A341-8E33-FFC30D64FA33}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14655" activeTab="1" xr2:uid="{52A98BD8-4E11-A341-8E33-FFC30D64FA33}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -319,9 +319,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -329,11 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -488,7 +488,7 @@
                   <c:v>0.28331679676410071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6721378395387205</c:v>
+                  <c:v>6.3009201775721602</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.4825105598988066E-2</c:v>
@@ -506,7 +506,7 @@
                   <c:v>8.8497113987194301E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.735867692541735</c:v>
+                  <c:v>10.812610570851437</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.5065027300464802E-2</c:v>
@@ -5897,7 +5897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EEADE2-A9B3-674B-BA9B-72229A521D77}">
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -6338,8 +6338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B33892-A41E-4347-B28F-231E96C4EE45}">
   <dimension ref="A2:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6392,7 +6392,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6442,7 +6442,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -6490,7 +6490,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6540,7 +6540,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>340699</v>
       </c>
       <c r="H6">
-        <v>658443</v>
+        <v>661062</v>
       </c>
       <c r="I6">
         <v>1672590</v>
@@ -6578,7 +6578,7 @@
         <v>4941547</v>
       </c>
       <c r="N6">
-        <v>10256858</v>
+        <v>10986512</v>
       </c>
       <c r="O6">
         <v>26444568</v>
@@ -6588,7 +6588,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -6638,7 +6638,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -6686,182 +6686,179 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <f t="shared" ref="C9:P9" si="0">100*((C4-C6)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <f t="shared" si="0"/>
         <v>0.28331679676410071</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <f t="shared" si="0"/>
-        <v>6.6721378395387205</v>
-      </c>
-      <c r="I9" s="15">
+        <v>6.3009201775721602</v>
+      </c>
+      <c r="I9" s="14">
         <f t="shared" si="0"/>
         <v>1.4825105598988066E-2</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <f t="shared" si="0"/>
         <v>0.21084435931048381</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <f t="shared" si="0"/>
         <v>0.12111948505301814</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <f t="shared" si="0"/>
         <v>4.0020902606961082</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="14">
         <f t="shared" si="0"/>
         <v>8.8497113987194301E-2</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <f t="shared" si="0"/>
-        <v>16.735867692541735</v>
-      </c>
-      <c r="O9" s="15">
+        <v>10.812610570851437</v>
+      </c>
+      <c r="O9" s="14">
         <f t="shared" si="0"/>
         <v>2.5065027300464802E-2</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="14">
         <f t="shared" si="0"/>
         <v>2.4661736476073174E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <f t="shared" ref="C11:P11" si="1">100*((C4-C8)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <f t="shared" si="1"/>
         <v>1.0851631997006446</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <f t="shared" si="1"/>
         <v>2.3672346037093849E-2</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="14">
         <f t="shared" si="1"/>
         <v>2.3495459874602515E-2</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="14">
         <f t="shared" si="1"/>
         <v>4.1650458033726358E-3</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="14">
         <f t="shared" si="1"/>
         <v>7.0374062210216401E-2</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="14">
         <f t="shared" si="1"/>
         <v>1.1870917907007463E-3</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="14">
         <f t="shared" si="1"/>
         <v>1.0179336691022478E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -6878,14 +6875,17 @@
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="N11:N12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6901,7 +6901,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A4"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6912,50 +6912,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20" t="s">
+      <c r="R1" s="18"/>
+      <c r="S1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20" t="s">
+      <c r="T1" s="18"/>
+      <c r="U1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20" t="s">
+      <c r="V1" s="18"/>
+      <c r="W1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="20"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
@@ -7026,7 +7026,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7100,7 +7100,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -7172,7 +7172,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7246,7 +7246,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -7318,7 +7318,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -7392,7 +7392,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -7464,935 +7464,960 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <f>100*(C4-C6)/C4</f>
         <v>0</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <f t="shared" ref="D9:X9" si="0">100*(D4-D6)/D4</f>
         <v>0</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <f t="shared" si="0"/>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <f t="shared" si="0"/>
         <v>0.28527957398250287</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <f t="shared" si="0"/>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="17">
         <f t="shared" si="0"/>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="17">
         <f t="shared" si="0"/>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="17">
         <f t="shared" si="0"/>
         <v>6.0101272646758694</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="17">
         <f t="shared" si="0"/>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="17">
         <f t="shared" si="0"/>
         <v>0.37049121158992121</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="17">
         <f t="shared" si="0"/>
         <v>0.32912008246667857</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="17">
         <f t="shared" si="0"/>
         <v>0.32767972407946205</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9" s="17">
         <f t="shared" si="0"/>
         <v>1.020697822329222</v>
       </c>
-      <c r="T9" s="19">
+      <c r="T9" s="17">
         <f t="shared" si="0"/>
         <v>1.020697822329222</v>
       </c>
-      <c r="U9" s="19">
+      <c r="U9" s="17">
         <f t="shared" si="0"/>
         <v>0.42842809710485213</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V9" s="17">
         <f t="shared" si="0"/>
         <v>0.42935501588230851</v>
       </c>
-      <c r="W9" s="19">
+      <c r="W9" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X9" s="19">
+      <c r="X9" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <f>100*(C4-C8)/C4</f>
         <v>0</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <f t="shared" ref="D11:X11" si="1">100*(D4-D8)/D4</f>
         <v>0</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="16">
         <f t="shared" si="1"/>
         <v>0.27955871310575869</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="16">
         <f t="shared" si="1"/>
         <v>0.28803018926047863</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="16">
         <f t="shared" si="1"/>
         <v>2.1435556047957841E-2</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R11" s="16">
         <f t="shared" si="1"/>
         <v>3.3177421530279964E-2</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="16">
         <f t="shared" si="1"/>
         <v>1.6827101290370412E-2</v>
       </c>
-      <c r="U11" s="18">
+      <c r="U11" s="16">
         <f t="shared" si="1"/>
         <v>-9.3091571075414514E-4</v>
       </c>
-      <c r="V11" s="18">
+      <c r="V11" s="16">
         <f t="shared" si="1"/>
         <v>8.688465751412652E-3</v>
       </c>
-      <c r="W11" s="18">
+      <c r="W11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X11" s="18">
+      <c r="X11" s="16">
         <f t="shared" si="1"/>
         <v>5.6246789245780558E-3</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="19">
         <f>C9</f>
         <v>0</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19">
         <f>E9</f>
         <v>0</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19">
         <f>G9</f>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16">
+      <c r="H14" s="19"/>
+      <c r="I14" s="19">
         <f>I9</f>
         <v>0</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16">
+      <c r="J14" s="19"/>
+      <c r="K14" s="19">
         <f>K9</f>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16">
+      <c r="L14" s="19"/>
+      <c r="M14" s="19">
         <f>M9</f>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="16">
+      <c r="N14" s="20"/>
+      <c r="O14" s="19">
         <f>O9</f>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="16">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="19">
         <f>Q9</f>
         <v>0.32912008246667857</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="16">
+      <c r="R14" s="20"/>
+      <c r="S14" s="19">
         <f>S9</f>
         <v>1.020697822329222</v>
       </c>
-      <c r="T14" s="17"/>
-      <c r="U14" s="16">
+      <c r="T14" s="20"/>
+      <c r="U14" s="19">
         <f>U9</f>
         <v>0.42842809710485213</v>
       </c>
-      <c r="V14" s="17"/>
-      <c r="W14" s="16">
+      <c r="V14" s="20"/>
+      <c r="W14" s="19">
         <f>W9</f>
         <v>0</v>
       </c>
-      <c r="X14" s="17"/>
+      <c r="X14" s="20"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="19">
         <f>D9</f>
         <v>0</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19">
         <f>H9</f>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16">
+      <c r="H15" s="19"/>
+      <c r="I15" s="19">
         <f>J9</f>
         <v>0</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16">
+      <c r="J15" s="19"/>
+      <c r="K15" s="19">
         <f>L9</f>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16">
+      <c r="L15" s="19"/>
+      <c r="M15" s="19">
         <f>N9</f>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="16">
+      <c r="N15" s="20"/>
+      <c r="O15" s="19">
         <f>P9</f>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="16">
+      <c r="P15" s="20"/>
+      <c r="Q15" s="19">
         <f>R9</f>
         <v>0.32767972407946205</v>
       </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="16">
+      <c r="R15" s="20"/>
+      <c r="S15" s="19">
         <f>T9</f>
         <v>1.020697822329222</v>
       </c>
-      <c r="T15" s="17"/>
-      <c r="U15" s="16">
+      <c r="T15" s="20"/>
+      <c r="U15" s="19">
         <f>V9</f>
         <v>0.42935501588230851</v>
       </c>
-      <c r="V15" s="17"/>
-      <c r="W15" s="16">
+      <c r="V15" s="20"/>
+      <c r="W15" s="19">
         <f>X9</f>
         <v>0</v>
       </c>
-      <c r="X15" s="17"/>
+      <c r="X15" s="20"/>
     </row>
     <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="19">
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19">
         <f>G11</f>
         <v>0</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16">
+      <c r="H17" s="19"/>
+      <c r="I17" s="19">
         <f>I11</f>
         <v>0</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16">
+      <c r="J17" s="19"/>
+      <c r="K17" s="19">
         <f>K11</f>
         <v>0</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16">
+      <c r="L17" s="19"/>
+      <c r="M17" s="19">
         <f>M11</f>
         <v>0.27955871310575869</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16">
+      <c r="N17" s="19"/>
+      <c r="O17" s="19">
         <f>O11</f>
         <v>0</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16">
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19">
         <f>Q11</f>
         <v>2.1435556047957841E-2</v>
       </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16">
+      <c r="R17" s="19"/>
+      <c r="S17" s="19">
         <f>S11</f>
         <v>0</v>
       </c>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16">
+      <c r="T17" s="19"/>
+      <c r="U17" s="19">
         <f>U11</f>
         <v>-9.3091571075414514E-4</v>
       </c>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16">
+      <c r="V17" s="19"/>
+      <c r="W17" s="19">
         <f>W11</f>
         <v>0</v>
       </c>
-      <c r="X17" s="16"/>
+      <c r="X17" s="19"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="19">
         <f>D12</f>
         <v>0</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19">
         <f>F12</f>
         <v>0</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19">
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16">
+      <c r="H18" s="19"/>
+      <c r="I18" s="19">
         <f>J11</f>
         <v>0</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16">
+      <c r="J18" s="19"/>
+      <c r="K18" s="19">
         <f>L11</f>
         <v>0</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16">
+      <c r="L18" s="19"/>
+      <c r="M18" s="19">
         <f>N11</f>
         <v>0.28803018926047863</v>
       </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16">
+      <c r="N18" s="19"/>
+      <c r="O18" s="19">
         <f>P11</f>
         <v>0</v>
       </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16">
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19">
         <f>R11</f>
         <v>3.3177421530279964E-2</v>
       </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16">
+      <c r="R18" s="19"/>
+      <c r="S18" s="19">
         <f>T11</f>
         <v>1.6827101290370412E-2</v>
       </c>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16">
+      <c r="T18" s="19"/>
+      <c r="U18" s="19">
         <f>V11</f>
         <v>8.688465751412652E-3</v>
       </c>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16">
+      <c r="V18" s="19"/>
+      <c r="W18" s="19">
         <f>X11</f>
         <v>5.6246789245780558E-3</v>
       </c>
-      <c r="X18" s="16"/>
+      <c r="X18" s="19"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="19">
         <f>C5</f>
         <v>0.67100000000000004</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19">
         <f>E5</f>
         <v>1.6584000000000001</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19">
         <f>G5</f>
         <v>2.7709999999999999</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16">
+      <c r="H20" s="19"/>
+      <c r="I20" s="19">
         <f>I5</f>
         <v>15.633800000000001</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16">
+      <c r="J20" s="19"/>
+      <c r="K20" s="19">
         <f>K5</f>
         <v>32.877600000000001</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16">
+      <c r="L20" s="19"/>
+      <c r="M20" s="19">
         <f>M5</f>
         <v>64.142099999999999</v>
       </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="16">
+      <c r="N20" s="20"/>
+      <c r="O20" s="19">
         <f>O5</f>
         <v>70.239199999999997</v>
       </c>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="16">
+      <c r="P20" s="20"/>
+      <c r="Q20" s="19">
         <f>Q5</f>
         <v>128.3947</v>
       </c>
-      <c r="R20" s="17"/>
-      <c r="S20" s="16">
+      <c r="R20" s="20"/>
+      <c r="S20" s="19">
         <f>S5</f>
         <v>142.79310000000001</v>
       </c>
-      <c r="T20" s="17"/>
-      <c r="U20" s="16">
+      <c r="T20" s="20"/>
+      <c r="U20" s="19">
         <f>U5</f>
         <v>903.16920000000005</v>
       </c>
-      <c r="V20" s="17"/>
-      <c r="W20" s="16">
+      <c r="V20" s="20"/>
+      <c r="W20" s="19">
         <f>W5</f>
         <v>2534.8456999999999</v>
       </c>
-      <c r="X20" s="17"/>
+      <c r="X20" s="20"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="15"/>
       <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="19">
         <f>D5</f>
         <v>0.39979999999999999</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19">
         <f>F5</f>
         <v>1.1163000000000001</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19">
         <f>H5</f>
         <v>1.3845000000000001</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16">
+      <c r="H21" s="19"/>
+      <c r="I21" s="19">
         <f>J5</f>
         <v>8.7070000000000007</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16">
+      <c r="J21" s="19"/>
+      <c r="K21" s="19">
         <f>L5</f>
         <v>14.837</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16">
+      <c r="L21" s="19"/>
+      <c r="M21" s="19">
         <f>N5</f>
         <v>35.283999999999999</v>
       </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="16">
+      <c r="N21" s="20"/>
+      <c r="O21" s="19">
         <f>P5</f>
         <v>33.219700000000003</v>
       </c>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="16">
+      <c r="P21" s="20"/>
+      <c r="Q21" s="19">
         <f>R5</f>
         <v>63.618000000000002</v>
       </c>
-      <c r="R21" s="17"/>
-      <c r="S21" s="16">
+      <c r="R21" s="20"/>
+      <c r="S21" s="19">
         <f>T5</f>
         <v>61.295900000000003</v>
       </c>
-      <c r="T21" s="17"/>
-      <c r="U21" s="16">
+      <c r="T21" s="20"/>
+      <c r="U21" s="19">
         <f>V5</f>
         <v>448.58699999999999</v>
       </c>
-      <c r="V21" s="17"/>
-      <c r="W21" s="16">
+      <c r="V21" s="20"/>
+      <c r="W21" s="19">
         <f>X5</f>
         <v>1474.5264</v>
       </c>
-      <c r="X21" s="17"/>
+      <c r="X21" s="20"/>
     </row>
     <row r="23" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="19">
         <f>C7</f>
         <v>1.625</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19">
         <f>E7</f>
         <v>3.5937999999999999</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16">
+      <c r="F23" s="19"/>
+      <c r="G23" s="19">
         <f>G7</f>
         <v>5.7656000000000001</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16">
+      <c r="H23" s="19"/>
+      <c r="I23" s="19">
         <f>I7</f>
         <v>35.382899999999999</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16">
+      <c r="J23" s="19"/>
+      <c r="K23" s="19">
         <f>K7</f>
         <v>64.046899999999994</v>
       </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16">
+      <c r="L23" s="19"/>
+      <c r="M23" s="19">
         <f>M7</f>
         <v>188.39060000000001</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="16">
+      <c r="N23" s="20"/>
+      <c r="O23" s="19">
         <f>O7</f>
         <v>216.10939999999999</v>
       </c>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="16">
+      <c r="P23" s="20"/>
+      <c r="Q23" s="19">
         <f>Q7</f>
         <v>311.26560000000001</v>
       </c>
-      <c r="R23" s="17"/>
-      <c r="S23" s="16">
+      <c r="R23" s="20"/>
+      <c r="S23" s="19">
         <f>S7</f>
         <v>365.04689999999999</v>
       </c>
-      <c r="T23" s="17"/>
-      <c r="U23" s="16">
+      <c r="T23" s="20"/>
+      <c r="U23" s="19">
         <f>U7</f>
         <v>1575.6561999999999</v>
       </c>
-      <c r="V23" s="17"/>
-      <c r="W23" s="16">
+      <c r="V23" s="20"/>
+      <c r="W23" s="19">
         <f>W7</f>
         <v>2794.1891000000001</v>
       </c>
-      <c r="X23" s="17"/>
+      <c r="X23" s="20"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="15"/>
       <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="19">
         <f>D7</f>
         <v>1.875</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19">
         <f>F7</f>
         <v>4.4062000000000001</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16">
+      <c r="F24" s="19"/>
+      <c r="G24" s="19">
         <f>H7</f>
         <v>7.5156000000000001</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16">
+      <c r="H24" s="19"/>
+      <c r="I24" s="19">
         <f>J7</f>
         <v>44.488599999999998</v>
       </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16">
+      <c r="J24" s="19"/>
+      <c r="K24" s="19">
         <f>L7</f>
         <v>80.75</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16">
+      <c r="L24" s="19"/>
+      <c r="M24" s="19">
         <f>N7</f>
         <v>224.54689999999999</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="16">
+      <c r="N24" s="20"/>
+      <c r="O24" s="19">
         <f>P7</f>
         <v>271.32810000000001</v>
       </c>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="16">
+      <c r="P24" s="20"/>
+      <c r="Q24" s="19">
         <f>R7</f>
         <v>387.5</v>
       </c>
-      <c r="R24" s="17"/>
-      <c r="S24" s="16">
+      <c r="R24" s="20"/>
+      <c r="S24" s="19">
         <f>T7</f>
         <v>440.04689999999999</v>
       </c>
-      <c r="T24" s="17"/>
-      <c r="U24" s="16">
+      <c r="T24" s="20"/>
+      <c r="U24" s="19">
         <f>V7</f>
         <v>2883.3281000000002</v>
       </c>
-      <c r="V24" s="17"/>
-      <c r="W24" s="16">
+      <c r="V24" s="20"/>
+      <c r="W24" s="19">
         <f>X7</f>
         <v>3410.9778999999999</v>
       </c>
-      <c r="X24" s="17"/>
+      <c r="X24" s="20"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="19">
         <f>C3</f>
         <v>1.5461</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16">
+      <c r="D26" s="20"/>
+      <c r="E26" s="19">
         <f>E3</f>
         <v>3.9401000000000002</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="16">
+      <c r="F26" s="20"/>
+      <c r="G26" s="19">
         <f>G3</f>
         <v>6.3446999999999996</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="16">
+      <c r="H26" s="20"/>
+      <c r="I26" s="19">
         <f>I3</f>
         <v>38.189</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="16">
+      <c r="J26" s="20"/>
+      <c r="K26" s="19">
         <f>K3</f>
         <v>72.674499999999995</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="16">
+      <c r="L26" s="20"/>
+      <c r="M26" s="19">
         <f>M3</f>
         <v>161.48249999999999</v>
       </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="16">
+      <c r="N26" s="20"/>
+      <c r="O26" s="19">
         <f>O3</f>
         <v>223.24950000000001</v>
       </c>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="16">
+      <c r="P26" s="20"/>
+      <c r="Q26" s="19">
         <f>Q3</f>
         <v>324.71039999999999</v>
       </c>
-      <c r="R26" s="17"/>
-      <c r="S26" s="16">
+      <c r="R26" s="20"/>
+      <c r="S26" s="19">
         <f>S3</f>
         <v>464.81439999999998</v>
       </c>
-      <c r="T26" s="17"/>
-      <c r="U26" s="16">
+      <c r="T26" s="20"/>
+      <c r="U26" s="19">
         <f>U3</f>
         <v>1655.0168000000001</v>
       </c>
-      <c r="V26" s="17"/>
-      <c r="W26" s="16">
+      <c r="V26" s="20"/>
+      <c r="W26" s="19">
         <f>W3</f>
         <v>3689.8222000000001</v>
       </c>
-      <c r="X26" s="17"/>
+      <c r="X26" s="20"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="15"/>
       <c r="B27" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="19">
         <f>D3</f>
         <v>1.9312</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16">
+      <c r="D27" s="20"/>
+      <c r="E27" s="19">
         <f>F3</f>
         <v>5.1288999999999998</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="16">
+      <c r="F27" s="20"/>
+      <c r="G27" s="19">
         <f>H3</f>
         <v>8.5748999999999995</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="16">
+      <c r="H27" s="20"/>
+      <c r="I27" s="19">
         <f>J3</f>
         <v>48.531300000000002</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="16">
+      <c r="J27" s="20"/>
+      <c r="K27" s="19">
         <f>L3</f>
         <v>93.75</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="16">
+      <c r="L27" s="20"/>
+      <c r="M27" s="19">
         <f>N3</f>
         <v>225.67140000000001</v>
       </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="16">
+      <c r="N27" s="20"/>
+      <c r="O27" s="19">
         <f>P3</f>
         <v>301.35610000000003</v>
       </c>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="16">
+      <c r="P27" s="20"/>
+      <c r="Q27" s="19">
         <f>R3</f>
         <v>478.46609999999998</v>
       </c>
-      <c r="R27" s="17"/>
-      <c r="S27" s="16">
+      <c r="R27" s="20"/>
+      <c r="S27" s="19">
         <f>T3</f>
         <v>580.44349999999997</v>
       </c>
-      <c r="T27" s="17"/>
-      <c r="U27" s="16">
+      <c r="T27" s="20"/>
+      <c r="U27" s="19">
         <f>V3</f>
         <v>2248.9456</v>
       </c>
-      <c r="V27" s="17"/>
-      <c r="W27" s="16">
+      <c r="V27" s="20"/>
+      <c r="W27" s="19">
         <f>X3</f>
         <v>5671.4978000000001</v>
       </c>
-      <c r="X27" s="17"/>
+      <c r="X27" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="M18:N18"/>
@@ -8417,95 +8442,70 @@
     <mergeCell ref="W14:X14"/>
     <mergeCell ref="U14:V14"/>
     <mergeCell ref="S14:T14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\workspaces\python\copt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEC114C-F1E0-4405-A9DA-0934906677BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD770E5-84BC-41AE-8EAC-B429851DA6B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14655" activeTab="1" xr2:uid="{52A98BD8-4E11-A341-8E33-FFC30D64FA33}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14655" activeTab="3" xr2:uid="{52A98BD8-4E11-A341-8E33-FFC30D64FA33}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
     <sheet name="case-value-duration" sheetId="2" r:id="rId2"/>
     <sheet name="case-value-duration-with_RL" sheetId="4" r:id="rId3"/>
+    <sheet name="case-value-duration-betterment" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="63">
   <si>
     <t>case2</t>
   </si>
@@ -299,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,9 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -334,6 +333,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -488,7 +492,7 @@
                   <c:v>0.28331679676410071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3009201775721602</c:v>
+                  <c:v>6.6721378395387205</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.4825105598988066E-2</c:v>
@@ -506,7 +510,7 @@
                   <c:v>8.8497113987194301E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.812610570851437</c:v>
+                  <c:v>16.735867692541735</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.5065027300464802E-2</c:v>
@@ -3246,6 +3250,1040 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Value Diff %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case-value-duration-betterment'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GREEDY SOLVER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'case-value-duration-betterment'!$C$9:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8719061395049823</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28331679676410071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3009201775721602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5346148282140889E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29042776944238213</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12111948505301814</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23217654205296939</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2038349153767831E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.7645116162662884</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5065027300464802E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4661736476073174E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2EF-48B8-AB04-24A9E9F10432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case-value-duration-betterment'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LP_REL_GREEDY SOLVER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'case-value-duration-betterment'!$C$11:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0851631997006446</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3672346037093849E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3495459874602515E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1650458033726358E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0374062210216401E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1870917907007463E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0179336691022478E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E2EF-48B8-AB04-24A9E9F10432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1407873535"/>
+        <c:axId val="1407712847"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1407873535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1407712847"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1407712847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1407873535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Duration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case-value-duration-betterment'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPLEX_MIP SOLVER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'case-value-duration-betterment'!$C$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.2028000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5958000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2227000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.134600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.383299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.877899999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>147.7841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>177.45509999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>367.6678</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1381.5458000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1676.1964</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8917.5635000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8204.8333999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43721.7264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC01-4CF3-B3C9-4AC9E41BC537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case-value-duration-betterment'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GREEDY SOLVER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'case-value-duration-betterment'!$C$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9380999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.660399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.4023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.109299999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.830100000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120.3113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125.2332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>749.32830000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1217.8594000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1933.7793999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4686.2941000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5271.0021999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC01-4CF3-B3C9-4AC9E41BC537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case-value-duration-betterment'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LP_REL_GREEDY SOLVER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'case-value-duration-betterment'!$C$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.88049999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5106999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7442000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.926299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.4282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109.7368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.779899999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122.5116</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>148.89150000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>632.41570000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1440.8951</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4512.4215999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4919.4901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8466.2450000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BC01-4CF3-B3C9-4AC9E41BC537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1377445503"/>
+        <c:axId val="1376863087"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1377445503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1376863087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1376863087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377445503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3406,6 +4444,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5091,6 +6209,1012 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5582,6 +7706,87 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B5ED895-E386-440C-8FB7-53858FA5978D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BCF465-271D-4DB0-938A-35A7BAB1B944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6338,8 +8543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B33892-A41E-4347-B28F-231E96C4EE45}">
   <dimension ref="A2:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6560,7 +8765,7 @@
         <v>340699</v>
       </c>
       <c r="H6">
-        <v>661062</v>
+        <v>658443</v>
       </c>
       <c r="I6">
         <v>1672590</v>
@@ -6578,7 +8783,7 @@
         <v>4941547</v>
       </c>
       <c r="N6">
-        <v>10986512</v>
+        <v>10256858</v>
       </c>
       <c r="O6">
         <v>26444568</v>
@@ -6689,176 +8894,179 @@
       <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="16">
         <f t="shared" ref="C9:P9" si="0">100*((C4-C6)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="16">
         <f t="shared" si="0"/>
         <v>0.28331679676410071</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="16">
         <f t="shared" si="0"/>
-        <v>6.3009201775721602</v>
-      </c>
-      <c r="I9" s="14">
+        <v>6.6721378395387205</v>
+      </c>
+      <c r="I9" s="16">
         <f t="shared" si="0"/>
         <v>1.4825105598988066E-2</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="16">
         <f t="shared" si="0"/>
         <v>0.21084435931048381</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="16">
         <f t="shared" si="0"/>
         <v>0.12111948505301814</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="16">
         <f t="shared" si="0"/>
         <v>4.0020902606961082</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="16">
         <f t="shared" si="0"/>
         <v>8.8497113987194301E-2</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="16">
         <f t="shared" si="0"/>
-        <v>10.812610570851437</v>
-      </c>
-      <c r="O9" s="14">
+        <v>16.735867692541735</v>
+      </c>
+      <c r="O9" s="16">
         <f t="shared" si="0"/>
         <v>2.5065027300464802E-2</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="16">
         <f t="shared" si="0"/>
         <v>2.4661736476073174E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="16">
         <f t="shared" ref="C11:P11" si="1">100*((C4-C8)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="16">
         <f t="shared" si="1"/>
         <v>1.0851631997006446</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="16">
         <f t="shared" si="1"/>
         <v>2.3672346037093849E-2</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="16">
         <f t="shared" si="1"/>
         <v>2.3495459874602515E-2</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="16">
         <f t="shared" si="1"/>
         <v>4.1650458033726358E-3</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="16">
         <f t="shared" si="1"/>
         <v>7.0374062210216401E-2</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="16">
         <f t="shared" si="1"/>
         <v>1.1870917907007463E-3</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="16">
         <f t="shared" si="1"/>
         <v>1.0179336691022478E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -6875,21 +9083,19 @@
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="N11:N12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6912,50 +9118,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18" t="s">
+      <c r="R1" s="21"/>
+      <c r="S1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18" t="s">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="18"/>
+      <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
@@ -7467,245 +9673,245 @@
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="20">
         <f>100*(C4-C6)/C4</f>
         <v>0</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="20">
         <f t="shared" ref="D9:X9" si="0">100*(D4-D6)/D4</f>
         <v>0</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="20">
         <f t="shared" si="0"/>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="20">
         <f t="shared" si="0"/>
         <v>0.28527957398250287</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="20">
         <f t="shared" si="0"/>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="20">
         <f t="shared" si="0"/>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="20">
         <f t="shared" si="0"/>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="20">
         <f t="shared" si="0"/>
         <v>6.0101272646758694</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="20">
         <f t="shared" si="0"/>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="20">
         <f t="shared" si="0"/>
         <v>0.37049121158992121</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="20">
         <f t="shared" si="0"/>
         <v>0.32912008246667857</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="20">
         <f t="shared" si="0"/>
         <v>0.32767972407946205</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="20">
         <f t="shared" si="0"/>
         <v>1.020697822329222</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="20">
         <f t="shared" si="0"/>
         <v>1.020697822329222</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="20">
         <f t="shared" si="0"/>
         <v>0.42842809710485213</v>
       </c>
-      <c r="V9" s="17">
+      <c r="V9" s="20">
         <f t="shared" si="0"/>
         <v>0.42935501588230851</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="19">
         <f>100*(C4-C8)/C4</f>
         <v>0</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="19">
         <f t="shared" ref="D11:X11" si="1">100*(D4-D8)/D4</f>
         <v>0</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="19">
         <f t="shared" si="1"/>
         <v>0.27955871310575869</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="19">
         <f t="shared" si="1"/>
         <v>0.28803018926047863</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="19">
         <f t="shared" si="1"/>
         <v>2.1435556047957841E-2</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="19">
         <f t="shared" si="1"/>
         <v>3.3177421530279964E-2</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="19">
         <f t="shared" si="1"/>
         <v>1.6827101290370412E-2</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="19">
         <f t="shared" si="1"/>
         <v>-9.3091571075414514E-4</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="19">
         <f t="shared" si="1"/>
         <v>8.688465751412652E-3</v>
       </c>
-      <c r="W11" s="16">
+      <c r="W11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X11" s="16">
+      <c r="X11" s="19">
         <f t="shared" si="1"/>
         <v>5.6246789245780558E-3</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
@@ -7714,122 +9920,122 @@
       <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="17">
         <f>C9</f>
         <v>0</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17">
         <f>E9</f>
         <v>0</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
         <f>G9</f>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19">
+      <c r="H14" s="17"/>
+      <c r="I14" s="17">
         <f>I9</f>
         <v>0</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19">
+      <c r="J14" s="17"/>
+      <c r="K14" s="17">
         <f>K9</f>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19">
+      <c r="L14" s="17"/>
+      <c r="M14" s="17">
         <f>M9</f>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="19">
+      <c r="N14" s="18"/>
+      <c r="O14" s="17">
         <f>O9</f>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="19">
+      <c r="P14" s="18"/>
+      <c r="Q14" s="17">
         <f>Q9</f>
         <v>0.32912008246667857</v>
       </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="19">
+      <c r="R14" s="18"/>
+      <c r="S14" s="17">
         <f>S9</f>
         <v>1.020697822329222</v>
       </c>
-      <c r="T14" s="20"/>
-      <c r="U14" s="19">
+      <c r="T14" s="18"/>
+      <c r="U14" s="17">
         <f>U9</f>
         <v>0.42842809710485213</v>
       </c>
-      <c r="V14" s="20"/>
-      <c r="W14" s="19">
+      <c r="V14" s="18"/>
+      <c r="W14" s="17">
         <f>W9</f>
         <v>0</v>
       </c>
-      <c r="X14" s="20"/>
+      <c r="X14" s="18"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <f>D9</f>
         <v>0</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
         <f>H9</f>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17">
         <f>J9</f>
         <v>0</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19">
+      <c r="J15" s="17"/>
+      <c r="K15" s="17">
         <f>L9</f>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19">
+      <c r="L15" s="17"/>
+      <c r="M15" s="17">
         <f>N9</f>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="19">
+      <c r="N15" s="18"/>
+      <c r="O15" s="17">
         <f>P9</f>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="19">
+      <c r="P15" s="18"/>
+      <c r="Q15" s="17">
         <f>R9</f>
         <v>0.32767972407946205</v>
       </c>
-      <c r="R15" s="20"/>
-      <c r="S15" s="19">
+      <c r="R15" s="18"/>
+      <c r="S15" s="17">
         <f>T9</f>
         <v>1.020697822329222</v>
       </c>
-      <c r="T15" s="20"/>
-      <c r="U15" s="19">
+      <c r="T15" s="18"/>
+      <c r="U15" s="17">
         <f>V9</f>
         <v>0.42935501588230851</v>
       </c>
-      <c r="V15" s="20"/>
-      <c r="W15" s="19">
+      <c r="V15" s="18"/>
+      <c r="W15" s="17">
         <f>X9</f>
         <v>0</v>
       </c>
-      <c r="X15" s="20"/>
+      <c r="X15" s="18"/>
     </row>
     <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
@@ -7838,122 +10044,122 @@
       <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17">
         <f>G11</f>
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19">
+      <c r="H17" s="17"/>
+      <c r="I17" s="17">
         <f>I11</f>
         <v>0</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19">
+      <c r="J17" s="17"/>
+      <c r="K17" s="17">
         <f>K11</f>
         <v>0</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19">
+      <c r="L17" s="17"/>
+      <c r="M17" s="17">
         <f>M11</f>
         <v>0.27955871310575869</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19">
+      <c r="N17" s="17"/>
+      <c r="O17" s="17">
         <f>O11</f>
         <v>0</v>
       </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19">
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17">
         <f>Q11</f>
         <v>2.1435556047957841E-2</v>
       </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19">
+      <c r="R17" s="17"/>
+      <c r="S17" s="17">
         <f>S11</f>
         <v>0</v>
       </c>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19">
+      <c r="T17" s="17"/>
+      <c r="U17" s="17">
         <f>U11</f>
         <v>-9.3091571075414514E-4</v>
       </c>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19">
+      <c r="V17" s="17"/>
+      <c r="W17" s="17">
         <f>W11</f>
         <v>0</v>
       </c>
-      <c r="X17" s="19"/>
+      <c r="X17" s="17"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <f>D12</f>
         <v>0</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17">
         <f>F12</f>
         <v>0</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17">
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19">
+      <c r="H18" s="17"/>
+      <c r="I18" s="17">
         <f>J11</f>
         <v>0</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19">
+      <c r="J18" s="17"/>
+      <c r="K18" s="17">
         <f>L11</f>
         <v>0</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19">
+      <c r="L18" s="17"/>
+      <c r="M18" s="17">
         <f>N11</f>
         <v>0.28803018926047863</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19">
+      <c r="N18" s="17"/>
+      <c r="O18" s="17">
         <f>P11</f>
         <v>0</v>
       </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19">
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17">
         <f>R11</f>
         <v>3.3177421530279964E-2</v>
       </c>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19">
+      <c r="R18" s="17"/>
+      <c r="S18" s="17">
         <f>T11</f>
         <v>1.6827101290370412E-2</v>
       </c>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19">
+      <c r="T18" s="17"/>
+      <c r="U18" s="17">
         <f>V11</f>
         <v>8.688465751412652E-3</v>
       </c>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19">
+      <c r="V18" s="17"/>
+      <c r="W18" s="17">
         <f>X11</f>
         <v>5.6246789245780558E-3</v>
       </c>
-      <c r="X18" s="19"/>
+      <c r="X18" s="17"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
@@ -7962,122 +10168,122 @@
       <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="17">
         <f>C5</f>
         <v>0.67100000000000004</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17">
         <f>E5</f>
         <v>1.6584000000000001</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17">
         <f>G5</f>
         <v>2.7709999999999999</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17">
         <f>I5</f>
         <v>15.633800000000001</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17">
         <f>K5</f>
         <v>32.877600000000001</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19">
+      <c r="L20" s="17"/>
+      <c r="M20" s="17">
         <f>M5</f>
         <v>64.142099999999999</v>
       </c>
-      <c r="N20" s="20"/>
-      <c r="O20" s="19">
+      <c r="N20" s="18"/>
+      <c r="O20" s="17">
         <f>O5</f>
         <v>70.239199999999997</v>
       </c>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="19">
+      <c r="P20" s="18"/>
+      <c r="Q20" s="17">
         <f>Q5</f>
         <v>128.3947</v>
       </c>
-      <c r="R20" s="20"/>
-      <c r="S20" s="19">
+      <c r="R20" s="18"/>
+      <c r="S20" s="17">
         <f>S5</f>
         <v>142.79310000000001</v>
       </c>
-      <c r="T20" s="20"/>
-      <c r="U20" s="19">
+      <c r="T20" s="18"/>
+      <c r="U20" s="17">
         <f>U5</f>
         <v>903.16920000000005</v>
       </c>
-      <c r="V20" s="20"/>
-      <c r="W20" s="19">
+      <c r="V20" s="18"/>
+      <c r="W20" s="17">
         <f>W5</f>
         <v>2534.8456999999999</v>
       </c>
-      <c r="X20" s="20"/>
+      <c r="X20" s="18"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <f>D5</f>
         <v>0.39979999999999999</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17">
         <f>F5</f>
         <v>1.1163000000000001</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19">
+      <c r="F21" s="17"/>
+      <c r="G21" s="17">
         <f>H5</f>
         <v>1.3845000000000001</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19">
+      <c r="H21" s="17"/>
+      <c r="I21" s="17">
         <f>J5</f>
         <v>8.7070000000000007</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19">
+      <c r="J21" s="17"/>
+      <c r="K21" s="17">
         <f>L5</f>
         <v>14.837</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19">
+      <c r="L21" s="17"/>
+      <c r="M21" s="17">
         <f>N5</f>
         <v>35.283999999999999</v>
       </c>
-      <c r="N21" s="20"/>
-      <c r="O21" s="19">
+      <c r="N21" s="18"/>
+      <c r="O21" s="17">
         <f>P5</f>
         <v>33.219700000000003</v>
       </c>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="19">
+      <c r="P21" s="18"/>
+      <c r="Q21" s="17">
         <f>R5</f>
         <v>63.618000000000002</v>
       </c>
-      <c r="R21" s="20"/>
-      <c r="S21" s="19">
+      <c r="R21" s="18"/>
+      <c r="S21" s="17">
         <f>T5</f>
         <v>61.295900000000003</v>
       </c>
-      <c r="T21" s="20"/>
-      <c r="U21" s="19">
+      <c r="T21" s="18"/>
+      <c r="U21" s="17">
         <f>V5</f>
         <v>448.58699999999999</v>
       </c>
-      <c r="V21" s="20"/>
-      <c r="W21" s="19">
+      <c r="V21" s="18"/>
+      <c r="W21" s="17">
         <f>X5</f>
         <v>1474.5264</v>
       </c>
-      <c r="X21" s="20"/>
+      <c r="X21" s="18"/>
     </row>
     <row r="23" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -8086,122 +10292,122 @@
       <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="17">
         <f>C7</f>
         <v>1.625</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17">
         <f>E7</f>
         <v>3.5937999999999999</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17">
         <f>G7</f>
         <v>5.7656000000000001</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19">
+      <c r="H23" s="17"/>
+      <c r="I23" s="17">
         <f>I7</f>
         <v>35.382899999999999</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19">
+      <c r="J23" s="17"/>
+      <c r="K23" s="17">
         <f>K7</f>
         <v>64.046899999999994</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19">
+      <c r="L23" s="17"/>
+      <c r="M23" s="17">
         <f>M7</f>
         <v>188.39060000000001</v>
       </c>
-      <c r="N23" s="20"/>
-      <c r="O23" s="19">
+      <c r="N23" s="18"/>
+      <c r="O23" s="17">
         <f>O7</f>
         <v>216.10939999999999</v>
       </c>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="19">
+      <c r="P23" s="18"/>
+      <c r="Q23" s="17">
         <f>Q7</f>
         <v>311.26560000000001</v>
       </c>
-      <c r="R23" s="20"/>
-      <c r="S23" s="19">
+      <c r="R23" s="18"/>
+      <c r="S23" s="17">
         <f>S7</f>
         <v>365.04689999999999</v>
       </c>
-      <c r="T23" s="20"/>
-      <c r="U23" s="19">
+      <c r="T23" s="18"/>
+      <c r="U23" s="17">
         <f>U7</f>
         <v>1575.6561999999999</v>
       </c>
-      <c r="V23" s="20"/>
-      <c r="W23" s="19">
+      <c r="V23" s="18"/>
+      <c r="W23" s="17">
         <f>W7</f>
         <v>2794.1891000000001</v>
       </c>
-      <c r="X23" s="20"/>
+      <c r="X23" s="18"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="17">
         <f>D7</f>
         <v>1.875</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17">
         <f>F7</f>
         <v>4.4062000000000001</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17">
         <f>H7</f>
         <v>7.5156000000000001</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19">
+      <c r="H24" s="17"/>
+      <c r="I24" s="17">
         <f>J7</f>
         <v>44.488599999999998</v>
       </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19">
+      <c r="J24" s="17"/>
+      <c r="K24" s="17">
         <f>L7</f>
         <v>80.75</v>
       </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19">
+      <c r="L24" s="17"/>
+      <c r="M24" s="17">
         <f>N7</f>
         <v>224.54689999999999</v>
       </c>
-      <c r="N24" s="20"/>
-      <c r="O24" s="19">
+      <c r="N24" s="18"/>
+      <c r="O24" s="17">
         <f>P7</f>
         <v>271.32810000000001</v>
       </c>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="19">
+      <c r="P24" s="18"/>
+      <c r="Q24" s="17">
         <f>R7</f>
         <v>387.5</v>
       </c>
-      <c r="R24" s="20"/>
-      <c r="S24" s="19">
+      <c r="R24" s="18"/>
+      <c r="S24" s="17">
         <f>T7</f>
         <v>440.04689999999999</v>
       </c>
-      <c r="T24" s="20"/>
-      <c r="U24" s="19">
+      <c r="T24" s="18"/>
+      <c r="U24" s="17">
         <f>V7</f>
         <v>2883.3281000000002</v>
       </c>
-      <c r="V24" s="20"/>
-      <c r="W24" s="19">
+      <c r="V24" s="18"/>
+      <c r="W24" s="17">
         <f>X7</f>
         <v>3410.9778999999999</v>
       </c>
-      <c r="X24" s="20"/>
+      <c r="X24" s="18"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
@@ -8210,166 +10416,237 @@
       <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="17">
         <f>C3</f>
         <v>1.5461</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19">
+      <c r="D26" s="18"/>
+      <c r="E26" s="17">
         <f>E3</f>
         <v>3.9401000000000002</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="19">
+      <c r="F26" s="18"/>
+      <c r="G26" s="17">
         <f>G3</f>
         <v>6.3446999999999996</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="19">
+      <c r="H26" s="18"/>
+      <c r="I26" s="17">
         <f>I3</f>
         <v>38.189</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="19">
+      <c r="J26" s="18"/>
+      <c r="K26" s="17">
         <f>K3</f>
         <v>72.674499999999995</v>
       </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="19">
+      <c r="L26" s="18"/>
+      <c r="M26" s="17">
         <f>M3</f>
         <v>161.48249999999999</v>
       </c>
-      <c r="N26" s="20"/>
-      <c r="O26" s="19">
+      <c r="N26" s="18"/>
+      <c r="O26" s="17">
         <f>O3</f>
         <v>223.24950000000001</v>
       </c>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="19">
+      <c r="P26" s="18"/>
+      <c r="Q26" s="17">
         <f>Q3</f>
         <v>324.71039999999999</v>
       </c>
-      <c r="R26" s="20"/>
-      <c r="S26" s="19">
+      <c r="R26" s="18"/>
+      <c r="S26" s="17">
         <f>S3</f>
         <v>464.81439999999998</v>
       </c>
-      <c r="T26" s="20"/>
-      <c r="U26" s="19">
+      <c r="T26" s="18"/>
+      <c r="U26" s="17">
         <f>U3</f>
         <v>1655.0168000000001</v>
       </c>
-      <c r="V26" s="20"/>
-      <c r="W26" s="19">
+      <c r="V26" s="18"/>
+      <c r="W26" s="17">
         <f>W3</f>
         <v>3689.8222000000001</v>
       </c>
-      <c r="X26" s="20"/>
+      <c r="X26" s="18"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="17">
         <f>D3</f>
         <v>1.9312</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19">
+      <c r="D27" s="18"/>
+      <c r="E27" s="17">
         <f>F3</f>
         <v>5.1288999999999998</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="19">
+      <c r="F27" s="18"/>
+      <c r="G27" s="17">
         <f>H3</f>
         <v>8.5748999999999995</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="19">
+      <c r="H27" s="18"/>
+      <c r="I27" s="17">
         <f>J3</f>
         <v>48.531300000000002</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="19">
+      <c r="J27" s="18"/>
+      <c r="K27" s="17">
         <f>L3</f>
         <v>93.75</v>
       </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="19">
+      <c r="L27" s="18"/>
+      <c r="M27" s="17">
         <f>N3</f>
         <v>225.67140000000001</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="19">
+      <c r="N27" s="18"/>
+      <c r="O27" s="17">
         <f>P3</f>
         <v>301.35610000000003</v>
       </c>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="19">
+      <c r="P27" s="18"/>
+      <c r="Q27" s="17">
         <f>R3</f>
         <v>478.46609999999998</v>
       </c>
-      <c r="R27" s="20"/>
-      <c r="S27" s="19">
+      <c r="R27" s="18"/>
+      <c r="S27" s="17">
         <f>T3</f>
         <v>580.44349999999997</v>
       </c>
-      <c r="T27" s="20"/>
-      <c r="U27" s="19">
+      <c r="T27" s="18"/>
+      <c r="U27" s="17">
         <f>V3</f>
         <v>2248.9456</v>
       </c>
-      <c r="V27" s="20"/>
-      <c r="W27" s="19">
+      <c r="V27" s="18"/>
+      <c r="W27" s="17">
         <f>X3</f>
         <v>5671.4978000000001</v>
       </c>
-      <c r="X27" s="20"/>
+      <c r="X27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
@@ -8394,99 +10671,572 @@
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I27:J27"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7152DE-048D-474A-ABF7-2ADEE1672625}">
+  <dimension ref="A2:P12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1.2028000000000001</v>
+      </c>
+      <c r="D3">
+        <v>1.5958000000000001</v>
+      </c>
+      <c r="E3">
+        <v>3.2227000000000001</v>
+      </c>
+      <c r="F3">
+        <v>15.134600000000001</v>
+      </c>
+      <c r="G3">
+        <v>33.383299999999998</v>
+      </c>
+      <c r="H3">
+        <v>78.877899999999997</v>
+      </c>
+      <c r="I3">
+        <v>147.7841</v>
+      </c>
+      <c r="J3">
+        <v>177.45509999999999</v>
+      </c>
+      <c r="K3">
+        <v>367.6678</v>
+      </c>
+      <c r="L3">
+        <v>1381.5458000000001</v>
+      </c>
+      <c r="M3">
+        <v>1676.1964</v>
+      </c>
+      <c r="N3">
+        <v>8917.5635000000002</v>
+      </c>
+      <c r="O3">
+        <v>8204.8333999999995</v>
+      </c>
+      <c r="P3">
+        <v>43721.7264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>13083</v>
+      </c>
+      <c r="D4">
+        <v>12180</v>
+      </c>
+      <c r="E4">
+        <v>63096</v>
+      </c>
+      <c r="F4">
+        <v>74664</v>
+      </c>
+      <c r="G4">
+        <v>341667</v>
+      </c>
+      <c r="H4">
+        <v>705516</v>
+      </c>
+      <c r="I4">
+        <v>1672838</v>
+      </c>
+      <c r="J4">
+        <v>1161046</v>
+      </c>
+      <c r="K4">
+        <v>1982340</v>
+      </c>
+      <c r="L4">
+        <v>5507447</v>
+      </c>
+      <c r="M4">
+        <v>4945924</v>
+      </c>
+      <c r="N4">
+        <v>12318459</v>
+      </c>
+      <c r="O4">
+        <v>26451198</v>
+      </c>
+      <c r="P4">
+        <v>22565321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="D5">
+        <v>1.405</v>
+      </c>
+      <c r="E5">
+        <v>1.9380999999999999</v>
+      </c>
+      <c r="F5">
+        <v>16.660399999999999</v>
+      </c>
+      <c r="G5">
+        <v>21.4023</v>
+      </c>
+      <c r="H5">
+        <v>54.109299999999998</v>
+      </c>
+      <c r="I5">
+        <v>52.830100000000002</v>
+      </c>
+      <c r="J5">
+        <v>120.3113</v>
+      </c>
+      <c r="K5">
+        <v>125.2332</v>
+      </c>
+      <c r="L5">
+        <v>749.32830000000001</v>
+      </c>
+      <c r="M5">
+        <v>1217.8594000000001</v>
+      </c>
+      <c r="N5">
+        <v>1933.7793999999999</v>
+      </c>
+      <c r="O5">
+        <v>4686.2941000000001</v>
+      </c>
+      <c r="P5">
+        <v>5271.0021999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>13083</v>
+      </c>
+      <c r="D6">
+        <v>12180</v>
+      </c>
+      <c r="E6">
+        <v>63096</v>
+      </c>
+      <c r="F6">
+        <v>74013</v>
+      </c>
+      <c r="G6">
+        <v>340699</v>
+      </c>
+      <c r="H6">
+        <v>661062</v>
+      </c>
+      <c r="I6">
+        <v>1672414</v>
+      </c>
+      <c r="J6">
+        <v>1157674</v>
+      </c>
+      <c r="K6">
+        <v>1979939</v>
+      </c>
+      <c r="L6">
+        <v>5494660</v>
+      </c>
+      <c r="M6">
+        <v>4944834</v>
+      </c>
+      <c r="N6">
+        <v>11608360</v>
+      </c>
+      <c r="O6">
+        <v>26444568</v>
+      </c>
+      <c r="P6">
+        <v>22559756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="D7">
+        <v>1.5106999999999999</v>
+      </c>
+      <c r="E7">
+        <v>2.7442000000000002</v>
+      </c>
+      <c r="F7">
+        <v>14.926299999999999</v>
+      </c>
+      <c r="G7">
+        <v>28.4282</v>
+      </c>
+      <c r="H7">
+        <v>109.7368</v>
+      </c>
+      <c r="I7">
+        <v>92.779899999999998</v>
+      </c>
+      <c r="J7">
+        <v>122.5116</v>
+      </c>
+      <c r="K7">
+        <v>148.89150000000001</v>
+      </c>
+      <c r="L7">
+        <v>632.41570000000002</v>
+      </c>
+      <c r="M7">
+        <v>1440.8951</v>
+      </c>
+      <c r="N7">
+        <v>4512.4215999999997</v>
+      </c>
+      <c r="O7">
+        <v>4919.4901</v>
+      </c>
+      <c r="P7">
+        <v>8466.2450000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>13083</v>
+      </c>
+      <c r="D8">
+        <v>12180</v>
+      </c>
+      <c r="E8">
+        <v>63096</v>
+      </c>
+      <c r="F8">
+        <v>74664</v>
+      </c>
+      <c r="G8">
+        <v>341667</v>
+      </c>
+      <c r="H8">
+        <v>697860</v>
+      </c>
+      <c r="I8">
+        <v>1672442</v>
+      </c>
+      <c r="J8">
+        <v>1161046</v>
+      </c>
+      <c r="K8">
+        <v>1982340</v>
+      </c>
+      <c r="L8">
+        <v>5506153</v>
+      </c>
+      <c r="M8">
+        <v>4945718</v>
+      </c>
+      <c r="N8">
+        <v>12309790</v>
+      </c>
+      <c r="O8">
+        <v>26450884</v>
+      </c>
+      <c r="P8">
+        <v>22563024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" ref="C9:P9" si="0">100*((C4-C6)/C4)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="0"/>
+        <v>0.8719061395049823</v>
+      </c>
+      <c r="G9" s="16">
+        <f t="shared" si="0"/>
+        <v>0.28331679676410071</v>
+      </c>
+      <c r="H9" s="16">
+        <f t="shared" si="0"/>
+        <v>6.3009201775721602</v>
+      </c>
+      <c r="I9" s="16">
+        <f t="shared" si="0"/>
+        <v>2.5346148282140889E-2</v>
+      </c>
+      <c r="J9" s="16">
+        <f t="shared" si="0"/>
+        <v>0.29042776944238213</v>
+      </c>
+      <c r="K9" s="16">
+        <f t="shared" si="0"/>
+        <v>0.12111948505301814</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" si="0"/>
+        <v>0.23217654205296939</v>
+      </c>
+      <c r="M9" s="16">
+        <f t="shared" si="0"/>
+        <v>2.2038349153767831E-2</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" si="0"/>
+        <v>5.7645116162662884</v>
+      </c>
+      <c r="O9" s="16">
+        <f t="shared" si="0"/>
+        <v>2.5065027300464802E-2</v>
+      </c>
+      <c r="P9" s="16">
+        <f t="shared" si="0"/>
+        <v>2.4661736476073174E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="16">
+        <f t="shared" ref="C11:P11" si="1">100*((C4-C8)/C4)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <f t="shared" si="1"/>
+        <v>1.0851631997006446</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" si="1"/>
+        <v>2.3672346037093849E-2</v>
+      </c>
+      <c r="J11" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" si="1"/>
+        <v>2.3495459874602515E-2</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" si="1"/>
+        <v>4.1650458033726358E-3</v>
+      </c>
+      <c r="N11" s="16">
+        <f t="shared" si="1"/>
+        <v>7.0374062210216401E-2</v>
+      </c>
+      <c r="O11" s="16">
+        <f t="shared" si="1"/>
+        <v>1.1870917907007463E-3</v>
+      </c>
+      <c r="P11" s="16">
+        <f t="shared" si="1"/>
+        <v>1.0179336691022478E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
@@ -8495,19 +11245,34 @@
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="P9:P10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\workspaces\python\copt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD770E5-84BC-41AE-8EAC-B429851DA6B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA5D0F5-D954-4712-935E-FE6AAB6E1F17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14655" activeTab="3" xr2:uid="{52A98BD8-4E11-A341-8E33-FFC30D64FA33}"/>
   </bookViews>
@@ -1467,139 +1467,6 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'case-value-duration-with_RL'!$A$14:$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>GREEDY HEURISTIC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ph1-vd%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>case 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>case 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>case 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>case 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>case 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>case 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>case 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>case 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>case 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>case 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>case 11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'case-value-duration-with_RL'!$C$14:$X$14</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('case-value-duration-with_RL'!$C$14,'case-value-duration-with_RL'!$E$14,'case-value-duration-with_RL'!$G$14,'case-value-duration-with_RL'!$I$14,'case-value-duration-with_RL'!$K$14,'case-value-duration-with_RL'!$M$14,'case-value-duration-with_RL'!$O$14,'case-value-duration-with_RL'!$Q$14,'case-value-duration-with_RL'!$S$14,'case-value-duration-with_RL'!$U$14,'case-value-duration-with_RL'!$W$14)</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.28527957398250287</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6421027072963456E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0101272646758694</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.37049121158992121</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.32912008246667857</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.020697822329222</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.42842809710485213</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C80-1248-B57E-76E4326288E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -1733,139 +1600,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'case-value-duration-with_RL'!$A$17:$B$17</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>LP_REL GREEDY HEURISTIC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ph1-vd%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>case 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>case 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>case 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>case 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>case 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>case 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>case 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>case 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>case 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>case 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>case 11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'case-value-duration-with_RL'!$C$17:$X$17</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('case-value-duration-with_RL'!$C$17,'case-value-duration-with_RL'!$E$17,'case-value-duration-with_RL'!$G$17,'case-value-duration-with_RL'!$I$17,'case-value-duration-with_RL'!$K$17,'case-value-duration-with_RL'!$M$17,'case-value-duration-with_RL'!$O$17,'case-value-duration-with_RL'!$Q$17,'case-value-duration-with_RL'!$S$17,'case-value-duration-with_RL'!$U$17,'case-value-duration-with_RL'!$W$17)</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.27955871310575869</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1435556047957841E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-9.3091571075414514E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3C80-1248-B57E-76E4326288E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -2009,6 +1743,300 @@
         <c:smooth val="0"/>
         <c:axId val="997187504"/>
         <c:axId val="994348384"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'case-value-duration-with_RL'!$A$14:$B$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>GREEDY HEURISTIC</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ph1-vd%</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>case 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>case 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>case 3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>case 4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>case 5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>case 6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>case 7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>case 8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>case 9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>case 10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>case 11</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'case-value-duration-with_RL'!$C$14:$X$14</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('case-value-duration-with_RL'!$C$14,'case-value-duration-with_RL'!$E$14,'case-value-duration-with_RL'!$G$14,'case-value-duration-with_RL'!$I$14,'case-value-duration-with_RL'!$K$14,'case-value-duration-with_RL'!$M$14,'case-value-duration-with_RL'!$O$14,'case-value-duration-with_RL'!$Q$14,'case-value-duration-with_RL'!$S$14,'case-value-duration-with_RL'!$U$14,'case-value-duration-with_RL'!$W$14)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0.00</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.28527957398250287</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.6421027072963456E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.0101272646758694</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.37049121158992121</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.32912008246667857</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.020697822329222</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.42842809710485213</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-3C80-1248-B57E-76E4326288E2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'case-value-duration-with_RL'!$A$17:$B$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>LP_REL GREEDY HEURISTIC</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ph1-vd%</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>case 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>case 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>case 3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>case 4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>case 5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>case 6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>case 7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>case 8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>case 9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>case 10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>case 11</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'case-value-duration-with_RL'!$C$17:$X$17</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('case-value-duration-with_RL'!$C$17,'case-value-duration-with_RL'!$E$17,'case-value-duration-with_RL'!$G$17,'case-value-duration-with_RL'!$I$17,'case-value-duration-with_RL'!$K$17,'case-value-duration-with_RL'!$M$17,'case-value-duration-with_RL'!$O$17,'case-value-duration-with_RL'!$Q$17,'case-value-duration-with_RL'!$S$17,'case-value-duration-with_RL'!$U$17,'case-value-duration-with_RL'!$W$17)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0.00</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.27955871310575869</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.1435556047957841E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-9.3091571075414514E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-3C80-1248-B57E-76E4326288E2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="997187504"/>
@@ -2215,6 +2243,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>durations</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2251,139 +2310,6 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'case-value-duration-with_RL'!$A$20:$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>GREEDY HEURISTIC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ph1-dur</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>case 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>case 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>case 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>case 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>case 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>case 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>case 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>case 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>case 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>case 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>case 11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'case-value-duration-with_RL'!$C$20:$X$20</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('case-value-duration-with_RL'!$C$20,'case-value-duration-with_RL'!$E$20,'case-value-duration-with_RL'!$G$20,'case-value-duration-with_RL'!$I$20,'case-value-duration-with_RL'!$K$20,'case-value-duration-with_RL'!$M$20,'case-value-duration-with_RL'!$O$20,'case-value-duration-with_RL'!$Q$20,'case-value-duration-with_RL'!$S$20,'case-value-duration-with_RL'!$U$20,'case-value-duration-with_RL'!$W$20)</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.67100000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6584000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7709999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.633800000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.877600000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64.142099999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70.239199999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.3947</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>142.79310000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>903.16920000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2534.8456999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C24B-FD47-81FD-D02417CA6B73}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -2517,139 +2443,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'case-value-duration-with_RL'!$A$23:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>LP_REL GREEDY HEURISTIC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ph1-dur</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>case 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>case 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>case 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>case 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>case 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>case 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>case 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>case 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>case 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>case 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>case 11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'case-value-duration-with_RL'!$C$23:$X$23</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('case-value-duration-with_RL'!$C$23,'case-value-duration-with_RL'!$E$23,'case-value-duration-with_RL'!$G$23,'case-value-duration-with_RL'!$I$23,'case-value-duration-with_RL'!$K$23,'case-value-duration-with_RL'!$M$23,'case-value-duration-with_RL'!$O$23,'case-value-duration-with_RL'!$Q$23,'case-value-duration-with_RL'!$S$23,'case-value-duration-with_RL'!$U$23,'case-value-duration-with_RL'!$W$23)</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.625</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5937999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7656000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35.382899999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64.046899999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>188.39060000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>216.10939999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>311.26560000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365.04689999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1575.6561999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2794.1891000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C24B-FD47-81FD-D02417CA6B73}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -2783,139 +2576,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'case-value-duration-with_RL'!$A$26:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>CPLEX_MIP SOLVER</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ph1-dur</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>case 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>case 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>case 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>case 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>case 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>case 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>case 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>case 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>case 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>case 10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>case 11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'case-value-duration-with_RL'!$C$26:$X$26</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('case-value-duration-with_RL'!$C$26,'case-value-duration-with_RL'!$E$26,'case-value-duration-with_RL'!$G$26,'case-value-duration-with_RL'!$I$26,'case-value-duration-with_RL'!$K$26,'case-value-duration-with_RL'!$M$26,'case-value-duration-with_RL'!$O$26,'case-value-duration-with_RL'!$Q$26,'case-value-duration-with_RL'!$S$26,'case-value-duration-with_RL'!$U$26,'case-value-duration-with_RL'!$W$26)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0" formatCode="#,##0.00">
-                  <c:v>1.5461</c:v>
-                </c:pt>
-                <c:pt idx="1" formatCode="#,##0.00">
-                  <c:v>3.9401000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="#,##0.00">
-                  <c:v>6.3446999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="#,##0.00">
-                  <c:v>38.189</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="#,##0.00">
-                  <c:v>72.674499999999995</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="#,##0.00">
-                  <c:v>161.48249999999999</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="#,##0.00">
-                  <c:v>223.24950000000001</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="#,##0.00">
-                  <c:v>324.71039999999999</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="#,##0.00">
-                  <c:v>464.81439999999998</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0.00">
-                  <c:v>1655.0168000000001</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0.00">
-                  <c:v>3689.8222000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C24B-FD47-81FD-D02417CA6B73}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
@@ -3059,6 +2719,445 @@
         <c:smooth val="0"/>
         <c:axId val="941429120"/>
         <c:axId val="941247488"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'case-value-duration-with_RL'!$A$20:$B$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>GREEDY HEURISTIC</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ph1-dur</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>case 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>case 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>case 3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>case 4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>case 5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>case 6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>case 7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>case 8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>case 9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>case 10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>case 11</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'case-value-duration-with_RL'!$C$20:$X$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('case-value-duration-with_RL'!$C$20,'case-value-duration-with_RL'!$E$20,'case-value-duration-with_RL'!$G$20,'case-value-duration-with_RL'!$I$20,'case-value-duration-with_RL'!$K$20,'case-value-duration-with_RL'!$M$20,'case-value-duration-with_RL'!$O$20,'case-value-duration-with_RL'!$Q$20,'case-value-duration-with_RL'!$S$20,'case-value-duration-with_RL'!$U$20,'case-value-duration-with_RL'!$W$20)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0.00</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.67100000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.6584000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.7709999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15.633800000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>32.877600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>64.142099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70.239199999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128.3947</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>142.79310000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>903.16920000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2534.8456999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-C24B-FD47-81FD-D02417CA6B73}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'case-value-duration-with_RL'!$A$23:$B$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>LP_REL GREEDY HEURISTIC</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ph1-dur</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>case 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>case 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>case 3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>case 4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>case 5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>case 6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>case 7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>case 8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>case 9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>case 10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>case 11</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'case-value-duration-with_RL'!$C$23:$X$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('case-value-duration-with_RL'!$C$23,'case-value-duration-with_RL'!$E$23,'case-value-duration-with_RL'!$G$23,'case-value-duration-with_RL'!$I$23,'case-value-duration-with_RL'!$K$23,'case-value-duration-with_RL'!$M$23,'case-value-duration-with_RL'!$O$23,'case-value-duration-with_RL'!$Q$23,'case-value-duration-with_RL'!$S$23,'case-value-duration-with_RL'!$U$23,'case-value-duration-with_RL'!$W$23)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0.00</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>1.625</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.5937999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.7656000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>35.382899999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>64.046899999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>188.39060000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>216.10939999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>311.26560000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>365.04689999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1575.6561999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2794.1891000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-C24B-FD47-81FD-D02417CA6B73}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'case-value-duration-with_RL'!$A$26:$B$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>CPLEX_MIP SOLVER</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ph1-dur</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'case-value-duration-with_RL'!$C$1:$X$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('case-value-duration-with_RL'!$C$1,'case-value-duration-with_RL'!$E$1,'case-value-duration-with_RL'!$G$1,'case-value-duration-with_RL'!$I$1,'case-value-duration-with_RL'!$K$1,'case-value-duration-with_RL'!$M$1,'case-value-duration-with_RL'!$O$1,'case-value-duration-with_RL'!$Q$1,'case-value-duration-with_RL'!$S$1,'case-value-duration-with_RL'!$U$1,'case-value-duration-with_RL'!$W$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>case 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>case 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>case 3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>case 4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>case 5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>case 6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>case 7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>case 8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>case 9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>case 10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>case 11</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'case-value-duration-with_RL'!$C$26:$X$26</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('case-value-duration-with_RL'!$C$26,'case-value-duration-with_RL'!$E$26,'case-value-duration-with_RL'!$G$26,'case-value-duration-with_RL'!$I$26,'case-value-duration-with_RL'!$K$26,'case-value-duration-with_RL'!$M$26,'case-value-duration-with_RL'!$O$26,'case-value-duration-with_RL'!$Q$26,'case-value-duration-with_RL'!$S$26,'case-value-duration-with_RL'!$U$26,'case-value-duration-with_RL'!$W$26)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0" formatCode="#,##0.00">
+                        <c:v>1.5461</c:v>
+                      </c:pt>
+                      <c:pt idx="1" formatCode="#,##0.00">
+                        <c:v>3.9401000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2" formatCode="#,##0.00">
+                        <c:v>6.3446999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="#,##0.00">
+                        <c:v>38.189</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="#,##0.00">
+                        <c:v>72.674499999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="#,##0.00">
+                        <c:v>161.48249999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="#,##0.00">
+                        <c:v>223.24950000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="#,##0.00">
+                        <c:v>324.71039999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="#,##0.00">
+                        <c:v>464.81439999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="#,##0.00">
+                        <c:v>1655.0168000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="#,##0.00">
+                        <c:v>3689.8222000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-C24B-FD47-81FD-D02417CA6B73}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="941429120"/>
@@ -7649,16 +7748,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7688,13 +7787,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>66681</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>117475</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9104,10 +9203,10 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C47" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10725,7 +10824,7 @@
   <dimension ref="A2:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C9" sqref="C9:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\workspaces\python\copt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA5D0F5-D954-4712-935E-FE6AAB6E1F17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBABA67-495F-4523-A057-F6E186C918CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14655" activeTab="3" xr2:uid="{52A98BD8-4E11-A341-8E33-FFC30D64FA33}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14655" activeTab="2" xr2:uid="{52A98BD8-4E11-A341-8E33-FFC30D64FA33}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
   <si>
     <t>case2</t>
   </si>
@@ -218,6 +218,12 @@
   <si>
     <t>ph2-dur</t>
   </si>
+  <si>
+    <t>case15</t>
+  </si>
+  <si>
+    <t>case16</t>
+  </si>
 </sst>
 </file>
 
@@ -323,9 +329,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -333,11 +344,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1896,7 +1902,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'case-value-duration-with_RL'!$A$17:$B$17</c15:sqref>
@@ -2028,7 +2034,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-3C80-1248-B57E-76E4326288E2}"/>
                   </c:ext>
@@ -2872,7 +2878,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'case-value-duration-with_RL'!$A$23:$B$23</c15:sqref>
@@ -3004,7 +3010,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-C24B-FD47-81FD-D02417CA6B73}"/>
                   </c:ext>
@@ -3017,7 +3023,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'case-value-duration-with_RL'!$A$26:$B$26</c15:sqref>
@@ -3149,7 +3155,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-C24B-FD47-81FD-D02417CA6B73}"/>
                   </c:ext>
@@ -3894,111 +3900,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'case-value-duration-betterment'!$A$3</c:f>
+              <c:f>'case-value-duration-betterment'!$A$3:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>CPLEX_MIP SOLVER</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'case-value-duration-betterment'!$C$3:$P$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.2028000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5958000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2227000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.134600000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33.383299999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78.877899999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>147.7841</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>177.45509999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>367.6678</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1381.5458000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1676.1964</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8917.5635000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8204.8333999999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43721.7264</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC01-4CF3-B3C9-4AC9E41BC537}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'case-value-duration-betterment'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GREEDY SOLVER</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4029,51 +3939,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'case-value-duration-betterment'!$C$5:$P$5</c:f>
+              <c:f>'case-value-duration-betterment'!$C$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.44900000000000001</c:v>
+                  <c:v>1.2028000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.405</c:v>
+                  <c:v>1.5958000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9380999999999999</c:v>
+                  <c:v>3.2227000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.660399999999999</c:v>
+                  <c:v>15.134600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.4023</c:v>
+                  <c:v>33.383299999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.109299999999998</c:v>
+                  <c:v>78.877899999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.830100000000002</c:v>
+                  <c:v>147.7841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120.3113</c:v>
+                  <c:v>177.45509999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>125.2332</c:v>
+                  <c:v>367.6678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>749.32830000000001</c:v>
+                  <c:v>1381.5458000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1217.8594000000001</c:v>
+                  <c:v>1676.1964</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1933.7793999999999</c:v>
+                  <c:v>8917.5635000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4686.2941000000001</c:v>
+                  <c:v>8204.8333999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5271.0021999999999</c:v>
+                  <c:v>43721.7264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4086,15 +3996,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'case-value-duration-betterment'!$A$7</c:f>
+              <c:f>'case-value-duration-betterment'!$A$5:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LP_REL_GREEDY SOLVER</c:v>
+                  <c:v>GREEDY SOLVER</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4102,7 +4012,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4113,11 +4023,113 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'case-value-duration-betterment'!$C$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9380999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.660399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.4023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.109299999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.830100000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120.3113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125.2332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>749.32830000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1217.8594000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1933.7793999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4686.2941000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5271.0021999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7969.18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10612.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0E8-4225-8648-FC407F0E621A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'case-value-duration-betterment'!$A$7:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LP_REL_GREEDY SOLVER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4177,7 +4189,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BC01-4CF3-B3C9-4AC9E41BC537}"/>
+              <c16:uniqueId val="{00000002-E0E8-4225-8648-FC407F0E621A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4201,6 +4213,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8696,7 +8709,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -8746,7 +8759,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -8794,7 +8807,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -8844,7 +8857,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -8892,7 +8905,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -8942,7 +8955,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -8990,182 +9003,179 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <f t="shared" ref="C9:P9" si="0">100*((C4-C6)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <f t="shared" si="0"/>
         <v>0.28331679676410071</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <f t="shared" si="0"/>
         <v>6.6721378395387205</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <f t="shared" si="0"/>
         <v>1.4825105598988066E-2</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <f t="shared" si="0"/>
         <v>0.21084435931048381</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <f t="shared" si="0"/>
         <v>0.12111948505301814</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <f t="shared" si="0"/>
         <v>4.0020902606961082</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="15">
         <f t="shared" si="0"/>
         <v>8.8497113987194301E-2</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="15">
         <f t="shared" si="0"/>
         <v>16.735867692541735</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="15">
         <f t="shared" si="0"/>
         <v>2.5065027300464802E-2</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="15">
         <f t="shared" si="0"/>
         <v>2.4661736476073174E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <f t="shared" ref="C11:P11" si="1">100*((C4-C8)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <f t="shared" si="1"/>
         <v>1.0851631997006446</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <f t="shared" si="1"/>
         <v>2.3672346037093849E-2</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <f t="shared" si="1"/>
         <v>2.3495459874602515E-2</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="15">
         <f t="shared" si="1"/>
         <v>4.1650458033726358E-3</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="15">
         <f t="shared" si="1"/>
         <v>7.0374062210216401E-2</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="15">
         <f t="shared" si="1"/>
         <v>1.1870917907007463E-3</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="15">
         <f t="shared" si="1"/>
         <v>1.0179336691022478E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -9182,14 +9192,17 @@
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="N11:N12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9202,8 +9215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F31A019-EF8C-8649-B7F3-D195899C8CF2}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C47" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C41" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
@@ -9217,50 +9230,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="21"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
@@ -9331,7 +9344,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -9405,7 +9418,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -9477,7 +9490,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -9551,7 +9564,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -9623,7 +9636,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -9697,7 +9710,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -9769,935 +9782,960 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <f>100*(C4-C6)/C4</f>
         <v>0</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <f t="shared" ref="D9:X9" si="0">100*(D4-D6)/D4</f>
         <v>0</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="18">
         <f t="shared" si="0"/>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="18">
         <f t="shared" si="0"/>
         <v>0.28527957398250287</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="18">
         <f t="shared" si="0"/>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="18">
         <f t="shared" si="0"/>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="18">
         <f t="shared" si="0"/>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="18">
         <f t="shared" si="0"/>
         <v>6.0101272646758694</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="18">
         <f t="shared" si="0"/>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="18">
         <f t="shared" si="0"/>
         <v>0.37049121158992121</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="18">
         <f t="shared" si="0"/>
         <v>0.32912008246667857</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="18">
         <f t="shared" si="0"/>
         <v>0.32767972407946205</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9" s="18">
         <f t="shared" si="0"/>
         <v>1.020697822329222</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="18">
         <f t="shared" si="0"/>
         <v>1.020697822329222</v>
       </c>
-      <c r="U9" s="20">
+      <c r="U9" s="18">
         <f t="shared" si="0"/>
         <v>0.42842809710485213</v>
       </c>
-      <c r="V9" s="20">
+      <c r="V9" s="18">
         <f t="shared" si="0"/>
         <v>0.42935501588230851</v>
       </c>
-      <c r="W9" s="20">
+      <c r="W9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X9" s="20">
+      <c r="X9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <f>100*(C4-C8)/C4</f>
         <v>0</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="17">
         <f t="shared" ref="D11:X11" si="1">100*(D4-D8)/D4</f>
         <v>0</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="17">
         <f t="shared" si="1"/>
         <v>0.27955871310575869</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="17">
         <f t="shared" si="1"/>
         <v>0.28803018926047863</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="17">
         <f t="shared" si="1"/>
         <v>2.1435556047957841E-2</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="17">
         <f t="shared" si="1"/>
         <v>3.3177421530279964E-2</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S11" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T11" s="19">
+      <c r="T11" s="17">
         <f t="shared" si="1"/>
         <v>1.6827101290370412E-2</v>
       </c>
-      <c r="U11" s="19">
+      <c r="U11" s="17">
         <f t="shared" si="1"/>
         <v>-9.3091571075414514E-4</v>
       </c>
-      <c r="V11" s="19">
+      <c r="V11" s="17">
         <f t="shared" si="1"/>
         <v>8.688465751412652E-3</v>
       </c>
-      <c r="W11" s="19">
+      <c r="W11" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X11" s="19">
+      <c r="X11" s="17">
         <f t="shared" si="1"/>
         <v>5.6246789245780558E-3</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="20">
         <f>C9</f>
         <v>0</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
         <f>E9</f>
         <v>0</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20">
         <f>G9</f>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17">
+      <c r="H14" s="20"/>
+      <c r="I14" s="20">
         <f>I9</f>
         <v>0</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17">
+      <c r="J14" s="20"/>
+      <c r="K14" s="20">
         <f>K9</f>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17">
+      <c r="L14" s="20"/>
+      <c r="M14" s="20">
         <f>M9</f>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="17">
+      <c r="N14" s="21"/>
+      <c r="O14" s="20">
         <f>O9</f>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="17">
+      <c r="P14" s="21"/>
+      <c r="Q14" s="20">
         <f>Q9</f>
         <v>0.32912008246667857</v>
       </c>
-      <c r="R14" s="18"/>
-      <c r="S14" s="17">
+      <c r="R14" s="21"/>
+      <c r="S14" s="20">
         <f>S9</f>
         <v>1.020697822329222</v>
       </c>
-      <c r="T14" s="18"/>
-      <c r="U14" s="17">
+      <c r="T14" s="21"/>
+      <c r="U14" s="20">
         <f>U9</f>
         <v>0.42842809710485213</v>
       </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="17">
+      <c r="V14" s="21"/>
+      <c r="W14" s="20">
         <f>W9</f>
         <v>0</v>
       </c>
-      <c r="X14" s="18"/>
+      <c r="X14" s="21"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="20">
         <f>D9</f>
         <v>0</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20">
         <f>H9</f>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17">
+      <c r="H15" s="20"/>
+      <c r="I15" s="20">
         <f>J9</f>
         <v>0</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17">
+      <c r="J15" s="20"/>
+      <c r="K15" s="20">
         <f>L9</f>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17">
+      <c r="L15" s="20"/>
+      <c r="M15" s="20">
         <f>N9</f>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="17">
+      <c r="N15" s="21"/>
+      <c r="O15" s="20">
         <f>P9</f>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="17">
+      <c r="P15" s="21"/>
+      <c r="Q15" s="20">
         <f>R9</f>
         <v>0.32767972407946205</v>
       </c>
-      <c r="R15" s="18"/>
-      <c r="S15" s="17">
+      <c r="R15" s="21"/>
+      <c r="S15" s="20">
         <f>T9</f>
         <v>1.020697822329222</v>
       </c>
-      <c r="T15" s="18"/>
-      <c r="U15" s="17">
+      <c r="T15" s="21"/>
+      <c r="U15" s="20">
         <f>V9</f>
         <v>0.42935501588230851</v>
       </c>
-      <c r="V15" s="18"/>
-      <c r="W15" s="17">
+      <c r="V15" s="21"/>
+      <c r="W15" s="20">
         <f>X9</f>
         <v>0</v>
       </c>
-      <c r="X15" s="18"/>
+      <c r="X15" s="21"/>
     </row>
     <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="20">
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20">
         <f>G11</f>
         <v>0</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20">
         <f>I11</f>
         <v>0</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17">
+      <c r="J17" s="20"/>
+      <c r="K17" s="20">
         <f>K11</f>
         <v>0</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17">
+      <c r="L17" s="20"/>
+      <c r="M17" s="20">
         <f>M11</f>
         <v>0.27955871310575869</v>
       </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17">
+      <c r="N17" s="20"/>
+      <c r="O17" s="20">
         <f>O11</f>
         <v>0</v>
       </c>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17">
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20">
         <f>Q11</f>
         <v>2.1435556047957841E-2</v>
       </c>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17">
+      <c r="R17" s="20"/>
+      <c r="S17" s="20">
         <f>S11</f>
         <v>0</v>
       </c>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17">
+      <c r="T17" s="20"/>
+      <c r="U17" s="20">
         <f>U11</f>
         <v>-9.3091571075414514E-4</v>
       </c>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17">
+      <c r="V17" s="20"/>
+      <c r="W17" s="20">
         <f>W11</f>
         <v>0</v>
       </c>
-      <c r="X17" s="17"/>
+      <c r="X17" s="20"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="20">
         <f>D12</f>
         <v>0</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20">
         <f>F12</f>
         <v>0</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20">
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20">
         <f>J11</f>
         <v>0</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17">
+      <c r="J18" s="20"/>
+      <c r="K18" s="20">
         <f>L11</f>
         <v>0</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17">
+      <c r="L18" s="20"/>
+      <c r="M18" s="20">
         <f>N11</f>
         <v>0.28803018926047863</v>
       </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17">
+      <c r="N18" s="20"/>
+      <c r="O18" s="20">
         <f>P11</f>
         <v>0</v>
       </c>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17">
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20">
         <f>R11</f>
         <v>3.3177421530279964E-2</v>
       </c>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17">
+      <c r="R18" s="20"/>
+      <c r="S18" s="20">
         <f>T11</f>
         <v>1.6827101290370412E-2</v>
       </c>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17">
+      <c r="T18" s="20"/>
+      <c r="U18" s="20">
         <f>V11</f>
         <v>8.688465751412652E-3</v>
       </c>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17">
+      <c r="V18" s="20"/>
+      <c r="W18" s="20">
         <f>X11</f>
         <v>5.6246789245780558E-3</v>
       </c>
-      <c r="X18" s="17"/>
+      <c r="X18" s="20"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="20">
         <f>C5</f>
         <v>0.67100000000000004</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20">
         <f>E5</f>
         <v>1.6584000000000001</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17">
+      <c r="F20" s="20"/>
+      <c r="G20" s="20">
         <f>G5</f>
         <v>2.7709999999999999</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20">
         <f>I5</f>
         <v>15.633800000000001</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17">
+      <c r="J20" s="20"/>
+      <c r="K20" s="20">
         <f>K5</f>
         <v>32.877600000000001</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17">
+      <c r="L20" s="20"/>
+      <c r="M20" s="20">
         <f>M5</f>
         <v>64.142099999999999</v>
       </c>
-      <c r="N20" s="18"/>
-      <c r="O20" s="17">
+      <c r="N20" s="21"/>
+      <c r="O20" s="20">
         <f>O5</f>
         <v>70.239199999999997</v>
       </c>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="17">
+      <c r="P20" s="21"/>
+      <c r="Q20" s="20">
         <f>Q5</f>
         <v>128.3947</v>
       </c>
-      <c r="R20" s="18"/>
-      <c r="S20" s="17">
+      <c r="R20" s="21"/>
+      <c r="S20" s="20">
         <f>S5</f>
         <v>142.79310000000001</v>
       </c>
-      <c r="T20" s="18"/>
-      <c r="U20" s="17">
+      <c r="T20" s="21"/>
+      <c r="U20" s="20">
         <f>U5</f>
         <v>903.16920000000005</v>
       </c>
-      <c r="V20" s="18"/>
-      <c r="W20" s="17">
+      <c r="V20" s="21"/>
+      <c r="W20" s="20">
         <f>W5</f>
         <v>2534.8456999999999</v>
       </c>
-      <c r="X20" s="18"/>
+      <c r="X20" s="21"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="20">
         <f>D5</f>
         <v>0.39979999999999999</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20">
         <f>F5</f>
         <v>1.1163000000000001</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20">
         <f>H5</f>
         <v>1.3845000000000001</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20">
         <f>J5</f>
         <v>8.7070000000000007</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17">
+      <c r="J21" s="20"/>
+      <c r="K21" s="20">
         <f>L5</f>
         <v>14.837</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17">
+      <c r="L21" s="20"/>
+      <c r="M21" s="20">
         <f>N5</f>
         <v>35.283999999999999</v>
       </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="17">
+      <c r="N21" s="21"/>
+      <c r="O21" s="20">
         <f>P5</f>
         <v>33.219700000000003</v>
       </c>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="17">
+      <c r="P21" s="21"/>
+      <c r="Q21" s="20">
         <f>R5</f>
         <v>63.618000000000002</v>
       </c>
-      <c r="R21" s="18"/>
-      <c r="S21" s="17">
+      <c r="R21" s="21"/>
+      <c r="S21" s="20">
         <f>T5</f>
         <v>61.295900000000003</v>
       </c>
-      <c r="T21" s="18"/>
-      <c r="U21" s="17">
+      <c r="T21" s="21"/>
+      <c r="U21" s="20">
         <f>V5</f>
         <v>448.58699999999999</v>
       </c>
-      <c r="V21" s="18"/>
-      <c r="W21" s="17">
+      <c r="V21" s="21"/>
+      <c r="W21" s="20">
         <f>X5</f>
         <v>1474.5264</v>
       </c>
-      <c r="X21" s="18"/>
+      <c r="X21" s="21"/>
     </row>
     <row r="23" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="20">
         <f>C7</f>
         <v>1.625</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20">
         <f>E7</f>
         <v>3.5937999999999999</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17">
+      <c r="F23" s="20"/>
+      <c r="G23" s="20">
         <f>G7</f>
         <v>5.7656000000000001</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20">
         <f>I7</f>
         <v>35.382899999999999</v>
       </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17">
+      <c r="J23" s="20"/>
+      <c r="K23" s="20">
         <f>K7</f>
         <v>64.046899999999994</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17">
+      <c r="L23" s="20"/>
+      <c r="M23" s="20">
         <f>M7</f>
         <v>188.39060000000001</v>
       </c>
-      <c r="N23" s="18"/>
-      <c r="O23" s="17">
+      <c r="N23" s="21"/>
+      <c r="O23" s="20">
         <f>O7</f>
         <v>216.10939999999999</v>
       </c>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="17">
+      <c r="P23" s="21"/>
+      <c r="Q23" s="20">
         <f>Q7</f>
         <v>311.26560000000001</v>
       </c>
-      <c r="R23" s="18"/>
-      <c r="S23" s="17">
+      <c r="R23" s="21"/>
+      <c r="S23" s="20">
         <f>S7</f>
         <v>365.04689999999999</v>
       </c>
-      <c r="T23" s="18"/>
-      <c r="U23" s="17">
+      <c r="T23" s="21"/>
+      <c r="U23" s="20">
         <f>U7</f>
         <v>1575.6561999999999</v>
       </c>
-      <c r="V23" s="18"/>
-      <c r="W23" s="17">
+      <c r="V23" s="21"/>
+      <c r="W23" s="20">
         <f>W7</f>
         <v>2794.1891000000001</v>
       </c>
-      <c r="X23" s="18"/>
+      <c r="X23" s="21"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="20">
         <f>D7</f>
         <v>1.875</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20">
         <f>F7</f>
         <v>4.4062000000000001</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17">
+      <c r="F24" s="20"/>
+      <c r="G24" s="20">
         <f>H7</f>
         <v>7.5156000000000001</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20">
         <f>J7</f>
         <v>44.488599999999998</v>
       </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17">
+      <c r="J24" s="20"/>
+      <c r="K24" s="20">
         <f>L7</f>
         <v>80.75</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17">
+      <c r="L24" s="20"/>
+      <c r="M24" s="20">
         <f>N7</f>
         <v>224.54689999999999</v>
       </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="17">
+      <c r="N24" s="21"/>
+      <c r="O24" s="20">
         <f>P7</f>
         <v>271.32810000000001</v>
       </c>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="17">
+      <c r="P24" s="21"/>
+      <c r="Q24" s="20">
         <f>R7</f>
         <v>387.5</v>
       </c>
-      <c r="R24" s="18"/>
-      <c r="S24" s="17">
+      <c r="R24" s="21"/>
+      <c r="S24" s="20">
         <f>T7</f>
         <v>440.04689999999999</v>
       </c>
-      <c r="T24" s="18"/>
-      <c r="U24" s="17">
+      <c r="T24" s="21"/>
+      <c r="U24" s="20">
         <f>V7</f>
         <v>2883.3281000000002</v>
       </c>
-      <c r="V24" s="18"/>
-      <c r="W24" s="17">
+      <c r="V24" s="21"/>
+      <c r="W24" s="20">
         <f>X7</f>
         <v>3410.9778999999999</v>
       </c>
-      <c r="X24" s="18"/>
+      <c r="X24" s="21"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="20">
         <f>C3</f>
         <v>1.5461</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="17">
+      <c r="D26" s="21"/>
+      <c r="E26" s="20">
         <f>E3</f>
         <v>3.9401000000000002</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="17">
+      <c r="F26" s="21"/>
+      <c r="G26" s="20">
         <f>G3</f>
         <v>6.3446999999999996</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="17">
+      <c r="H26" s="21"/>
+      <c r="I26" s="20">
         <f>I3</f>
         <v>38.189</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="17">
+      <c r="J26" s="21"/>
+      <c r="K26" s="20">
         <f>K3</f>
         <v>72.674499999999995</v>
       </c>
-      <c r="L26" s="18"/>
-      <c r="M26" s="17">
+      <c r="L26" s="21"/>
+      <c r="M26" s="20">
         <f>M3</f>
         <v>161.48249999999999</v>
       </c>
-      <c r="N26" s="18"/>
-      <c r="O26" s="17">
+      <c r="N26" s="21"/>
+      <c r="O26" s="20">
         <f>O3</f>
         <v>223.24950000000001</v>
       </c>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="17">
+      <c r="P26" s="21"/>
+      <c r="Q26" s="20">
         <f>Q3</f>
         <v>324.71039999999999</v>
       </c>
-      <c r="R26" s="18"/>
-      <c r="S26" s="17">
+      <c r="R26" s="21"/>
+      <c r="S26" s="20">
         <f>S3</f>
         <v>464.81439999999998</v>
       </c>
-      <c r="T26" s="18"/>
-      <c r="U26" s="17">
+      <c r="T26" s="21"/>
+      <c r="U26" s="20">
         <f>U3</f>
         <v>1655.0168000000001</v>
       </c>
-      <c r="V26" s="18"/>
-      <c r="W26" s="17">
+      <c r="V26" s="21"/>
+      <c r="W26" s="20">
         <f>W3</f>
         <v>3689.8222000000001</v>
       </c>
-      <c r="X26" s="18"/>
+      <c r="X26" s="21"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="20">
         <f>D3</f>
         <v>1.9312</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="17">
+      <c r="D27" s="21"/>
+      <c r="E27" s="20">
         <f>F3</f>
         <v>5.1288999999999998</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="17">
+      <c r="F27" s="21"/>
+      <c r="G27" s="20">
         <f>H3</f>
         <v>8.5748999999999995</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="17">
+      <c r="H27" s="21"/>
+      <c r="I27" s="20">
         <f>J3</f>
         <v>48.531300000000002</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="17">
+      <c r="J27" s="21"/>
+      <c r="K27" s="20">
         <f>L3</f>
         <v>93.75</v>
       </c>
-      <c r="L27" s="18"/>
-      <c r="M27" s="17">
+      <c r="L27" s="21"/>
+      <c r="M27" s="20">
         <f>N3</f>
         <v>225.67140000000001</v>
       </c>
-      <c r="N27" s="18"/>
-      <c r="O27" s="17">
+      <c r="N27" s="21"/>
+      <c r="O27" s="20">
         <f>P3</f>
         <v>301.35610000000003</v>
       </c>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="17">
+      <c r="P27" s="21"/>
+      <c r="Q27" s="20">
         <f>R3</f>
         <v>478.46609999999998</v>
       </c>
-      <c r="R27" s="18"/>
-      <c r="S27" s="17">
+      <c r="R27" s="21"/>
+      <c r="S27" s="20">
         <f>T3</f>
         <v>580.44349999999997</v>
       </c>
-      <c r="T27" s="18"/>
-      <c r="U27" s="17">
+      <c r="T27" s="21"/>
+      <c r="U27" s="20">
         <f>V3</f>
         <v>2248.9456</v>
       </c>
-      <c r="V27" s="18"/>
-      <c r="W27" s="17">
+      <c r="V27" s="21"/>
+      <c r="W27" s="20">
         <f>X3</f>
         <v>5671.4978000000001</v>
       </c>
-      <c r="X27" s="18"/>
+      <c r="X27" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="M18:N18"/>
@@ -10722,95 +10760,70 @@
     <mergeCell ref="W14:X14"/>
     <mergeCell ref="U14:V14"/>
     <mergeCell ref="S14:T14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10821,10 +10834,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7152DE-048D-474A-ABF7-2ADEE1672625}">
-  <dimension ref="A2:P12"/>
+  <dimension ref="A2:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10832,7 +10845,7 @@
     <col min="1" max="1" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -10875,9 +10888,15 @@
       <c r="P2" t="s">
         <v>15</v>
       </c>
+      <c r="Q2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -10926,8 +10945,8 @@
         <v>43721.7264</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
@@ -10974,8 +10993,8 @@
         <v>22565321</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -11023,9 +11042,15 @@
       <c r="P5">
         <v>5271.0021999999999</v>
       </c>
+      <c r="Q5">
+        <v>7969.18</v>
+      </c>
+      <c r="R5">
+        <v>10612.92</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
       <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
@@ -11072,8 +11097,8 @@
         <v>22559756</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -11122,8 +11147,8 @@
         <v>8466.2450000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
       <c r="B8" s="14" t="s">
         <v>1</v>
       </c>
@@ -11170,179 +11195,184 @@
         <v>22563024</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <f t="shared" ref="C9:P9" si="0">100*((C4-C6)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <f t="shared" si="0"/>
         <v>0.8719061395049823</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <f t="shared" si="0"/>
         <v>0.28331679676410071</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <f t="shared" si="0"/>
         <v>6.3009201775721602</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <f t="shared" si="0"/>
         <v>2.5346148282140889E-2</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <f t="shared" si="0"/>
         <v>0.29042776944238213</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <f t="shared" si="0"/>
         <v>0.12111948505301814</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <f t="shared" si="0"/>
         <v>0.23217654205296939</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="15">
         <f t="shared" si="0"/>
         <v>2.2038349153767831E-2</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="15">
         <f t="shared" si="0"/>
         <v>5.7645116162662884</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="15">
         <f t="shared" si="0"/>
         <v>2.5065027300464802E-2</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="15">
         <f t="shared" si="0"/>
         <v>2.4661736476073174E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <f t="shared" ref="C11:P11" si="1">100*((C4-C8)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <f t="shared" si="1"/>
         <v>1.0851631997006446</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <f t="shared" si="1"/>
         <v>2.3672346037093849E-2</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <f t="shared" si="1"/>
         <v>2.3495459874602515E-2</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="15">
         <f t="shared" si="1"/>
         <v>4.1650458033726358E-3</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="15">
         <f t="shared" si="1"/>
         <v>7.0374062210216401E-2</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="15">
         <f t="shared" si="1"/>
         <v>1.1870917907007463E-3</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="15">
         <f t="shared" si="1"/>
         <v>1.0179336691022478E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
@@ -11359,18 +11389,13 @@
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="O9:O10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\workspaces\python\copt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttdkoc/Documents/dev/workspaces/python/copt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBABA67-495F-4523-A057-F6E186C918CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A0FFA7-BD2E-E343-BA9B-10DA28EB0DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14655" activeTab="2" xr2:uid="{52A98BD8-4E11-A341-8E33-FFC30D64FA33}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="3" xr2:uid="{52A98BD8-4E11-A341-8E33-FFC30D64FA33}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -304,7 +304,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -312,13 +312,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -329,14 +329,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -344,6 +339,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -428,7 +428,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -683,7 +683,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1407712847"/>
@@ -742,7 +742,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1407873535"/>
@@ -784,7 +784,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -821,7 +821,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -897,7 +897,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1248,7 +1248,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1376863087"/>
@@ -1307,7 +1307,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377445503"/>
@@ -1349,7 +1349,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1386,7 +1386,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1462,7 +1462,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2085,7 +2085,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="994348384"/>
@@ -2144,7 +2144,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="997187504"/>
@@ -2186,7 +2186,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2223,7 +2223,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2305,7 +2305,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3206,7 +3206,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="941247488"/>
@@ -3265,7 +3265,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="941429120"/>
@@ -3307,7 +3307,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3344,7 +3344,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3420,7 +3420,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3675,7 +3675,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1407712847"/>
@@ -3734,7 +3734,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1407873535"/>
@@ -3776,7 +3776,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3813,7 +3813,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3889,7 +3889,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4247,7 +4247,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1376863087"/>
@@ -4306,7 +4306,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377445503"/>
@@ -4348,7 +4348,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4385,7 +4385,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8214,18 +8214,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EEADE2-A9B3-674B-BA9B-72229A521D77}">
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>37</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
@@ -8659,12 +8659,12 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -8708,8 +8708,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -8758,8 +8758,8 @@
         <v>43721.7264</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -8806,8 +8806,8 @@
         <v>22565321</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -8856,8 +8856,8 @@
         <v>5700.4705000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -8904,8 +8904,8 @@
         <v>22559756</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -8954,8 +8954,8 @@
         <v>8466.2450000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -9002,180 +9002,183 @@
         <v>22563024</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="16">
         <f t="shared" ref="C9:P9" si="0">100*((C4-C6)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="16">
         <f t="shared" si="0"/>
         <v>0.28331679676410071</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="16">
         <f t="shared" si="0"/>
         <v>6.6721378395387205</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="16">
         <f t="shared" si="0"/>
         <v>1.4825105598988066E-2</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="16">
         <f t="shared" si="0"/>
         <v>0.21084435931048381</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="16">
         <f t="shared" si="0"/>
         <v>0.12111948505301814</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="16">
         <f t="shared" si="0"/>
         <v>4.0020902606961082</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="16">
         <f t="shared" si="0"/>
         <v>8.8497113987194301E-2</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="16">
         <f t="shared" si="0"/>
         <v>16.735867692541735</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="16">
         <f t="shared" si="0"/>
         <v>2.5065027300464802E-2</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="16">
         <f t="shared" si="0"/>
         <v>2.4661736476073174E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="16">
         <f t="shared" ref="C11:P11" si="1">100*((C4-C8)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="16">
         <f t="shared" si="1"/>
         <v>1.0851631997006446</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="16">
         <f t="shared" si="1"/>
         <v>2.3672346037093849E-2</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="16">
         <f t="shared" si="1"/>
         <v>2.3495459874602515E-2</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="16">
         <f t="shared" si="1"/>
         <v>4.1650458033726358E-3</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="16">
         <f t="shared" si="1"/>
         <v>7.0374062210216401E-2</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="16">
         <f t="shared" si="1"/>
         <v>1.1870917907007463E-3</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="16">
         <f t="shared" si="1"/>
         <v>1.0179336691022478E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -9192,17 +9195,14 @@
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="N11:N12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9215,67 +9215,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F31A019-EF8C-8649-B7F3-D195899C8CF2}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C41" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="24" width="9.875" customWidth="1"/>
+    <col min="3" max="24" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19" t="s">
+      <c r="R1" s="21"/>
+      <c r="S1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19" t="s">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="19"/>
+      <c r="X1" s="21"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C2" s="10" t="s">
         <v>44</v>
       </c>
@@ -9343,8 +9343,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -9417,8 +9417,8 @@
         <v>5671.4978000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -9489,8 +9489,8 @@
         <v>4800274</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -9563,8 +9563,8 @@
         <v>1474.5264</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -9635,8 +9635,8 @@
         <v>4800274</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -9709,8 +9709,8 @@
         <v>3410.9778999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -9781,913 +9781,984 @@
         <v>4800004</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="20">
         <f>100*(C4-C6)/C4</f>
         <v>0</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="20">
         <f t="shared" ref="D9:X9" si="0">100*(D4-D6)/D4</f>
         <v>0</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="20">
         <f t="shared" si="0"/>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="20">
         <f t="shared" si="0"/>
         <v>0.28527957398250287</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="20">
         <f t="shared" si="0"/>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="20">
         <f t="shared" si="0"/>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="20">
         <f t="shared" si="0"/>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="20">
         <f t="shared" si="0"/>
         <v>6.0101272646758694</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="20">
         <f t="shared" si="0"/>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="20">
         <f t="shared" si="0"/>
         <v>0.37049121158992121</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="20">
         <f t="shared" si="0"/>
         <v>0.32912008246667857</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="20">
         <f t="shared" si="0"/>
         <v>0.32767972407946205</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="20">
         <f t="shared" si="0"/>
         <v>1.020697822329222</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="20">
         <f t="shared" si="0"/>
         <v>1.020697822329222</v>
       </c>
-      <c r="U9" s="18">
+      <c r="U9" s="20">
         <f t="shared" si="0"/>
         <v>0.42842809710485213</v>
       </c>
-      <c r="V9" s="18">
+      <c r="V9" s="20">
         <f t="shared" si="0"/>
         <v>0.42935501588230851</v>
       </c>
-      <c r="W9" s="18">
+      <c r="W9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X9" s="18">
+      <c r="X9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
+    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
     </row>
-    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="19">
         <f>100*(C4-C8)/C4</f>
         <v>0</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="19">
         <f t="shared" ref="D11:X11" si="1">100*(D4-D8)/D4</f>
         <v>0</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="19">
         <f t="shared" si="1"/>
         <v>0.27955871310575869</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="19">
         <f t="shared" si="1"/>
         <v>0.28803018926047863</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="19">
         <f t="shared" si="1"/>
         <v>2.1435556047957841E-2</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="19">
         <f t="shared" si="1"/>
         <v>3.3177421530279964E-2</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T11" s="19">
         <f t="shared" si="1"/>
         <v>1.6827101290370412E-2</v>
       </c>
-      <c r="U11" s="17">
+      <c r="U11" s="19">
         <f t="shared" si="1"/>
         <v>-9.3091571075414514E-4</v>
       </c>
-      <c r="V11" s="17">
+      <c r="V11" s="19">
         <f t="shared" si="1"/>
         <v>8.688465751412652E-3</v>
       </c>
-      <c r="W11" s="17">
+      <c r="W11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X11" s="17">
+      <c r="X11" s="19">
         <f t="shared" si="1"/>
         <v>5.6246789245780558E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
+    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <f>C9</f>
         <v>0</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17">
         <f>E9</f>
         <v>0</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
         <f>G9</f>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20">
+      <c r="H14" s="17"/>
+      <c r="I14" s="17">
         <f>I9</f>
         <v>0</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20">
+      <c r="J14" s="17"/>
+      <c r="K14" s="17">
         <f>K9</f>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20">
+      <c r="L14" s="17"/>
+      <c r="M14" s="17">
         <f>M9</f>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="20">
+      <c r="N14" s="18"/>
+      <c r="O14" s="17">
         <f>O9</f>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="20">
+      <c r="P14" s="18"/>
+      <c r="Q14" s="17">
         <f>Q9</f>
         <v>0.32912008246667857</v>
       </c>
-      <c r="R14" s="21"/>
-      <c r="S14" s="20">
+      <c r="R14" s="18"/>
+      <c r="S14" s="17">
         <f>S9</f>
         <v>1.020697822329222</v>
       </c>
-      <c r="T14" s="21"/>
-      <c r="U14" s="20">
+      <c r="T14" s="18"/>
+      <c r="U14" s="17">
         <f>U9</f>
         <v>0.42842809710485213</v>
       </c>
-      <c r="V14" s="21"/>
-      <c r="W14" s="20">
+      <c r="V14" s="18"/>
+      <c r="W14" s="17">
         <f>W9</f>
         <v>0</v>
       </c>
-      <c r="X14" s="21"/>
+      <c r="X14" s="18"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
       <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <f>D9</f>
         <v>0</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
         <f>H9</f>
         <v>0.28527957398250287</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17">
         <f>J9</f>
         <v>0</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20">
+      <c r="J15" s="17"/>
+      <c r="K15" s="17">
         <f>L9</f>
         <v>3.6421027072963456E-3</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20">
+      <c r="L15" s="17"/>
+      <c r="M15" s="17">
         <f>N9</f>
         <v>6.0101272646758694</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="20">
+      <c r="N15" s="18"/>
+      <c r="O15" s="17">
         <f>P9</f>
         <v>0.37049121158992121</v>
       </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="20">
+      <c r="P15" s="18"/>
+      <c r="Q15" s="17">
         <f>R9</f>
         <v>0.32767972407946205</v>
       </c>
-      <c r="R15" s="21"/>
-      <c r="S15" s="20">
+      <c r="R15" s="18"/>
+      <c r="S15" s="17">
         <f>T9</f>
         <v>1.020697822329222</v>
       </c>
-      <c r="T15" s="21"/>
-      <c r="U15" s="20">
+      <c r="T15" s="18"/>
+      <c r="U15" s="17">
         <f>V9</f>
         <v>0.42935501588230851</v>
       </c>
-      <c r="V15" s="21"/>
-      <c r="W15" s="20">
+      <c r="V15" s="18"/>
+      <c r="W15" s="17">
         <f>X9</f>
         <v>0</v>
       </c>
-      <c r="X15" s="21"/>
+      <c r="X15" s="18"/>
     </row>
-    <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="17">
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17">
         <f>G11</f>
         <v>0</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20">
+      <c r="H17" s="17"/>
+      <c r="I17" s="17">
         <f>I11</f>
         <v>0</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20">
+      <c r="J17" s="17"/>
+      <c r="K17" s="17">
         <f>K11</f>
         <v>0</v>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20">
+      <c r="L17" s="17"/>
+      <c r="M17" s="17">
         <f>M11</f>
         <v>0.27955871310575869</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20">
+      <c r="N17" s="17"/>
+      <c r="O17" s="17">
         <f>O11</f>
         <v>0</v>
       </c>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20">
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17">
         <f>Q11</f>
         <v>2.1435556047957841E-2</v>
       </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20">
+      <c r="R17" s="17"/>
+      <c r="S17" s="17">
         <f>S11</f>
         <v>0</v>
       </c>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20">
+      <c r="T17" s="17"/>
+      <c r="U17" s="17">
         <f>U11</f>
         <v>-9.3091571075414514E-4</v>
       </c>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20">
+      <c r="V17" s="17"/>
+      <c r="W17" s="17">
         <f>W11</f>
         <v>0</v>
       </c>
-      <c r="X17" s="20"/>
+      <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
       <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="17">
         <f>D12</f>
         <v>0</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17">
         <f>F12</f>
         <v>0</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17">
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20">
+      <c r="H18" s="17"/>
+      <c r="I18" s="17">
         <f>J11</f>
         <v>0</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20">
+      <c r="J18" s="17"/>
+      <c r="K18" s="17">
         <f>L11</f>
         <v>0</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20">
+      <c r="L18" s="17"/>
+      <c r="M18" s="17">
         <f>N11</f>
         <v>0.28803018926047863</v>
       </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20">
+      <c r="N18" s="17"/>
+      <c r="O18" s="17">
         <f>P11</f>
         <v>0</v>
       </c>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20">
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17">
         <f>R11</f>
         <v>3.3177421530279964E-2</v>
       </c>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20">
+      <c r="R18" s="17"/>
+      <c r="S18" s="17">
         <f>T11</f>
         <v>1.6827101290370412E-2</v>
       </c>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20">
+      <c r="T18" s="17"/>
+      <c r="U18" s="17">
         <f>V11</f>
         <v>8.688465751412652E-3</v>
       </c>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20">
+      <c r="V18" s="17"/>
+      <c r="W18" s="17">
         <f>X11</f>
         <v>5.6246789245780558E-3</v>
       </c>
-      <c r="X18" s="20"/>
+      <c r="X18" s="17"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="17">
         <f>C5</f>
         <v>0.67100000000000004</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17">
         <f>E5</f>
         <v>1.6584000000000001</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17">
         <f>G5</f>
         <v>2.7709999999999999</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17">
         <f>I5</f>
         <v>15.633800000000001</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17">
         <f>K5</f>
         <v>32.877600000000001</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20">
+      <c r="L20" s="17"/>
+      <c r="M20" s="17">
         <f>M5</f>
         <v>64.142099999999999</v>
       </c>
-      <c r="N20" s="21"/>
-      <c r="O20" s="20">
+      <c r="N20" s="18"/>
+      <c r="O20" s="17">
         <f>O5</f>
         <v>70.239199999999997</v>
       </c>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="20">
+      <c r="P20" s="18"/>
+      <c r="Q20" s="17">
         <f>Q5</f>
         <v>128.3947</v>
       </c>
-      <c r="R20" s="21"/>
-      <c r="S20" s="20">
+      <c r="R20" s="18"/>
+      <c r="S20" s="17">
         <f>S5</f>
         <v>142.79310000000001</v>
       </c>
-      <c r="T20" s="21"/>
-      <c r="U20" s="20">
+      <c r="T20" s="18"/>
+      <c r="U20" s="17">
         <f>U5</f>
         <v>903.16920000000005</v>
       </c>
-      <c r="V20" s="21"/>
-      <c r="W20" s="20">
+      <c r="V20" s="18"/>
+      <c r="W20" s="17">
         <f>W5</f>
         <v>2534.8456999999999</v>
       </c>
-      <c r="X20" s="21"/>
+      <c r="X20" s="18"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
       <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="17">
         <f>D5</f>
         <v>0.39979999999999999</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17">
         <f>F5</f>
         <v>1.1163000000000001</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20">
+      <c r="F21" s="17"/>
+      <c r="G21" s="17">
         <f>H5</f>
         <v>1.3845000000000001</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20">
+      <c r="H21" s="17"/>
+      <c r="I21" s="17">
         <f>J5</f>
         <v>8.7070000000000007</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20">
+      <c r="J21" s="17"/>
+      <c r="K21" s="17">
         <f>L5</f>
         <v>14.837</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20">
+      <c r="L21" s="17"/>
+      <c r="M21" s="17">
         <f>N5</f>
         <v>35.283999999999999</v>
       </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="20">
+      <c r="N21" s="18"/>
+      <c r="O21" s="17">
         <f>P5</f>
         <v>33.219700000000003</v>
       </c>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="20">
+      <c r="P21" s="18"/>
+      <c r="Q21" s="17">
         <f>R5</f>
         <v>63.618000000000002</v>
       </c>
-      <c r="R21" s="21"/>
-      <c r="S21" s="20">
+      <c r="R21" s="18"/>
+      <c r="S21" s="17">
         <f>T5</f>
         <v>61.295900000000003</v>
       </c>
-      <c r="T21" s="21"/>
-      <c r="U21" s="20">
+      <c r="T21" s="18"/>
+      <c r="U21" s="17">
         <f>V5</f>
         <v>448.58699999999999</v>
       </c>
-      <c r="V21" s="21"/>
-      <c r="W21" s="20">
+      <c r="V21" s="18"/>
+      <c r="W21" s="17">
         <f>X5</f>
         <v>1474.5264</v>
       </c>
-      <c r="X21" s="21"/>
+      <c r="X21" s="18"/>
     </row>
-    <row r="23" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="17">
         <f>C7</f>
         <v>1.625</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17">
         <f>E7</f>
         <v>3.5937999999999999</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17">
         <f>G7</f>
         <v>5.7656000000000001</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20">
+      <c r="H23" s="17"/>
+      <c r="I23" s="17">
         <f>I7</f>
         <v>35.382899999999999</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20">
+      <c r="J23" s="17"/>
+      <c r="K23" s="17">
         <f>K7</f>
         <v>64.046899999999994</v>
       </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20">
+      <c r="L23" s="17"/>
+      <c r="M23" s="17">
         <f>M7</f>
         <v>188.39060000000001</v>
       </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="20">
+      <c r="N23" s="18"/>
+      <c r="O23" s="17">
         <f>O7</f>
         <v>216.10939999999999</v>
       </c>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="20">
+      <c r="P23" s="18"/>
+      <c r="Q23" s="17">
         <f>Q7</f>
         <v>311.26560000000001</v>
       </c>
-      <c r="R23" s="21"/>
-      <c r="S23" s="20">
+      <c r="R23" s="18"/>
+      <c r="S23" s="17">
         <f>S7</f>
         <v>365.04689999999999</v>
       </c>
-      <c r="T23" s="21"/>
-      <c r="U23" s="20">
+      <c r="T23" s="18"/>
+      <c r="U23" s="17">
         <f>U7</f>
         <v>1575.6561999999999</v>
       </c>
-      <c r="V23" s="21"/>
-      <c r="W23" s="20">
+      <c r="V23" s="18"/>
+      <c r="W23" s="17">
         <f>W7</f>
         <v>2794.1891000000001</v>
       </c>
-      <c r="X23" s="21"/>
+      <c r="X23" s="18"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
       <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="17">
         <f>D7</f>
         <v>1.875</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17">
         <f>F7</f>
         <v>4.4062000000000001</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17">
         <f>H7</f>
         <v>7.5156000000000001</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20">
+      <c r="H24" s="17"/>
+      <c r="I24" s="17">
         <f>J7</f>
         <v>44.488599999999998</v>
       </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20">
+      <c r="J24" s="17"/>
+      <c r="K24" s="17">
         <f>L7</f>
         <v>80.75</v>
       </c>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20">
+      <c r="L24" s="17"/>
+      <c r="M24" s="17">
         <f>N7</f>
         <v>224.54689999999999</v>
       </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="20">
+      <c r="N24" s="18"/>
+      <c r="O24" s="17">
         <f>P7</f>
         <v>271.32810000000001</v>
       </c>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="20">
+      <c r="P24" s="18"/>
+      <c r="Q24" s="17">
         <f>R7</f>
         <v>387.5</v>
       </c>
-      <c r="R24" s="21"/>
-      <c r="S24" s="20">
+      <c r="R24" s="18"/>
+      <c r="S24" s="17">
         <f>T7</f>
         <v>440.04689999999999</v>
       </c>
-      <c r="T24" s="21"/>
-      <c r="U24" s="20">
+      <c r="T24" s="18"/>
+      <c r="U24" s="17">
         <f>V7</f>
         <v>2883.3281000000002</v>
       </c>
-      <c r="V24" s="21"/>
-      <c r="W24" s="20">
+      <c r="V24" s="18"/>
+      <c r="W24" s="17">
         <f>X7</f>
         <v>3410.9778999999999</v>
       </c>
-      <c r="X24" s="21"/>
+      <c r="X24" s="18"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="17">
         <f>C3</f>
         <v>1.5461</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="20">
+      <c r="D26" s="18"/>
+      <c r="E26" s="17">
         <f>E3</f>
         <v>3.9401000000000002</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="20">
+      <c r="F26" s="18"/>
+      <c r="G26" s="17">
         <f>G3</f>
         <v>6.3446999999999996</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="20">
+      <c r="H26" s="18"/>
+      <c r="I26" s="17">
         <f>I3</f>
         <v>38.189</v>
       </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="20">
+      <c r="J26" s="18"/>
+      <c r="K26" s="17">
         <f>K3</f>
         <v>72.674499999999995</v>
       </c>
-      <c r="L26" s="21"/>
-      <c r="M26" s="20">
+      <c r="L26" s="18"/>
+      <c r="M26" s="17">
         <f>M3</f>
         <v>161.48249999999999</v>
       </c>
-      <c r="N26" s="21"/>
-      <c r="O26" s="20">
+      <c r="N26" s="18"/>
+      <c r="O26" s="17">
         <f>O3</f>
         <v>223.24950000000001</v>
       </c>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="20">
+      <c r="P26" s="18"/>
+      <c r="Q26" s="17">
         <f>Q3</f>
         <v>324.71039999999999</v>
       </c>
-      <c r="R26" s="21"/>
-      <c r="S26" s="20">
+      <c r="R26" s="18"/>
+      <c r="S26" s="17">
         <f>S3</f>
         <v>464.81439999999998</v>
       </c>
-      <c r="T26" s="21"/>
-      <c r="U26" s="20">
+      <c r="T26" s="18"/>
+      <c r="U26" s="17">
         <f>U3</f>
         <v>1655.0168000000001</v>
       </c>
-      <c r="V26" s="21"/>
-      <c r="W26" s="20">
+      <c r="V26" s="18"/>
+      <c r="W26" s="17">
         <f>W3</f>
         <v>3689.8222000000001</v>
       </c>
-      <c r="X26" s="21"/>
+      <c r="X26" s="18"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
       <c r="B27" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="17">
         <f>D3</f>
         <v>1.9312</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20">
+      <c r="D27" s="18"/>
+      <c r="E27" s="17">
         <f>F3</f>
         <v>5.1288999999999998</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20">
+      <c r="F27" s="18"/>
+      <c r="G27" s="17">
         <f>H3</f>
         <v>8.5748999999999995</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="20">
+      <c r="H27" s="18"/>
+      <c r="I27" s="17">
         <f>J3</f>
         <v>48.531300000000002</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="20">
+      <c r="J27" s="18"/>
+      <c r="K27" s="17">
         <f>L3</f>
         <v>93.75</v>
       </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="20">
+      <c r="L27" s="18"/>
+      <c r="M27" s="17">
         <f>N3</f>
         <v>225.67140000000001</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="20">
+      <c r="N27" s="18"/>
+      <c r="O27" s="17">
         <f>P3</f>
         <v>301.35610000000003</v>
       </c>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="20">
+      <c r="P27" s="18"/>
+      <c r="Q27" s="17">
         <f>R3</f>
         <v>478.46609999999998</v>
       </c>
-      <c r="R27" s="21"/>
-      <c r="S27" s="20">
+      <c r="R27" s="18"/>
+      <c r="S27" s="17">
         <f>T3</f>
         <v>580.44349999999997</v>
       </c>
-      <c r="T27" s="21"/>
-      <c r="U27" s="20">
+      <c r="T27" s="18"/>
+      <c r="U27" s="17">
         <f>V3</f>
         <v>2248.9456</v>
       </c>
-      <c r="V27" s="21"/>
-      <c r="W27" s="20">
+      <c r="V27" s="18"/>
+      <c r="W27" s="17">
         <f>X3</f>
         <v>5671.4978000000001</v>
       </c>
-      <c r="X27" s="21"/>
+      <c r="X27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
@@ -10712,118 +10783,47 @@
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10836,16 +10836,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7152DE-048D-474A-ABF7-2ADEE1672625}">
   <dimension ref="A2:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -10895,8 +10895,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -10945,8 +10945,8 @@
         <v>43721.7264</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
@@ -10993,8 +10993,8 @@
         <v>22565321</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -11049,8 +11049,8 @@
         <v>10612.92</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
       <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
@@ -11097,8 +11097,8 @@
         <v>22559756</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -11147,8 +11147,8 @@
         <v>8466.2450000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
       <c r="B8" s="14" t="s">
         <v>1</v>
       </c>
@@ -11195,184 +11195,179 @@
         <v>22563024</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="16">
         <f t="shared" ref="C9:P9" si="0">100*((C4-C6)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="16">
         <f t="shared" si="0"/>
         <v>0.8719061395049823</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="16">
         <f t="shared" si="0"/>
         <v>0.28331679676410071</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="16">
         <f t="shared" si="0"/>
         <v>6.3009201775721602</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="16">
         <f t="shared" si="0"/>
         <v>2.5346148282140889E-2</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="16">
         <f t="shared" si="0"/>
         <v>0.29042776944238213</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="16">
         <f t="shared" si="0"/>
         <v>0.12111948505301814</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="16">
         <f t="shared" si="0"/>
         <v>0.23217654205296939</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="16">
         <f t="shared" si="0"/>
         <v>2.2038349153767831E-2</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="16">
         <f t="shared" si="0"/>
         <v>5.7645116162662884</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="16">
         <f t="shared" si="0"/>
         <v>2.5065027300464802E-2</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="16">
         <f t="shared" si="0"/>
         <v>2.4661736476073174E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="16">
         <f t="shared" ref="C11:P11" si="1">100*((C4-C8)/C4)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="16">
         <f t="shared" si="1"/>
         <v>1.0851631997006446</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="16">
         <f t="shared" si="1"/>
         <v>2.3672346037093849E-2</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="16">
         <f t="shared" si="1"/>
         <v>2.3495459874602515E-2</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="16">
         <f t="shared" si="1"/>
         <v>4.1650458033726358E-3</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="16">
         <f t="shared" si="1"/>
         <v>7.0374062210216401E-2</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="16">
         <f t="shared" si="1"/>
         <v>1.1870917907007463E-3</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="16">
         <f t="shared" si="1"/>
         <v>1.0179336691022478E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
@@ -11389,13 +11384,18 @@
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
